--- a/data/xlsx/God.xlsx
+++ b/data/xlsx/God.xlsx
@@ -418,7 +418,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AX66"/>
+  <dimension ref="A1:AX74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
@@ -11199,6 +11199,1422 @@
         <v>0</v>
       </c>
     </row>
+    <row r="67">
+      <c r="A67" t="inlineStr"/>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>GID_エーデルガルト</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>MGID_Edelgard</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>MGID_H_Edelgard_Nickname</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>MGID_H_Edelgard</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Edelgard</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>DLC_53</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>エーデルガルト</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>Face_Edelgard</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>Face_EdelgardDarkness</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>MGID_Ring_Edelgard</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>MGID_H_Ring_Edelgard</t>
+        </is>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>563Edelgard</t>
+        </is>
+      </c>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>GID_エーデルガルト;GID_ディミトリ;GID_クロード;</t>
+        </is>
+      </c>
+      <c r="O67" t="inlineStr"/>
+      <c r="P67" t="inlineStr"/>
+      <c r="Q67" t="n">
+        <v>1</v>
+      </c>
+      <c r="R67" t="n">
+        <v>0</v>
+      </c>
+      <c r="S67" t="n">
+        <v>1</v>
+      </c>
+      <c r="T67" t="n">
+        <v>3</v>
+      </c>
+      <c r="U67" t="n">
+        <v>2500</v>
+      </c>
+      <c r="V67" t="n">
+        <v>7</v>
+      </c>
+      <c r="W67" t="inlineStr">
+        <is>
+          <t>SID_三級長エンゲージ技</t>
+        </is>
+      </c>
+      <c r="X67" t="inlineStr"/>
+      <c r="Y67" t="inlineStr">
+        <is>
+          <t>SID_三級長エンゲージ技＋</t>
+        </is>
+      </c>
+      <c r="Z67" t="inlineStr">
+        <is>
+          <t>GID_ベレト</t>
+        </is>
+      </c>
+      <c r="AA67" t="inlineStr">
+        <is>
+          <t>GBID_エーデルガルト</t>
+        </is>
+      </c>
+      <c r="AB67" t="inlineStr">
+        <is>
+          <t>GGID_エーデルガルト</t>
+        </is>
+      </c>
+      <c r="AC67" t="n">
+        <v>99</v>
+      </c>
+      <c r="AD67" t="inlineStr"/>
+      <c r="AE67" t="inlineStr">
+        <is>
+          <t>MGEID_Edelgard</t>
+        </is>
+      </c>
+      <c r="AF67" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG67" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH67" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI67" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ67" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK67" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL67" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM67" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN67" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO67" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP67" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ67" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR67" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS67" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT67" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU67" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV67" t="n">
+        <v>34</v>
+      </c>
+      <c r="AW67" t="n">
+        <v>15</v>
+      </c>
+      <c r="AX67" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr"/>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>GID_ディミトリ</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>MGID_Dimitri</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>MGID_H_Dimitri_Nickname</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>MGID_H_Dimitri</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Dimitri</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>DLC_54</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>ディミトリ</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>Face_Dimitri</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>Face_DimitriDarkness</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>MGID_Ring_Dimitri</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>MGID_H_Ring_Dimitri</t>
+        </is>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>514Dimitri</t>
+        </is>
+      </c>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>GID_エーデルガルト;GID_ディミトリ;GID_クロード;</t>
+        </is>
+      </c>
+      <c r="O68" t="inlineStr"/>
+      <c r="P68" t="inlineStr"/>
+      <c r="Q68" t="n">
+        <v>1</v>
+      </c>
+      <c r="R68" t="n">
+        <v>0</v>
+      </c>
+      <c r="S68" t="n">
+        <v>0</v>
+      </c>
+      <c r="T68" t="n">
+        <v>2</v>
+      </c>
+      <c r="U68" t="n">
+        <v>2510</v>
+      </c>
+      <c r="V68" t="n">
+        <v>7</v>
+      </c>
+      <c r="W68" t="inlineStr">
+        <is>
+          <t>SID_三級長エンゲージ技</t>
+        </is>
+      </c>
+      <c r="X68" t="inlineStr"/>
+      <c r="Y68" t="inlineStr">
+        <is>
+          <t>SID_三級長エンゲージ技＋</t>
+        </is>
+      </c>
+      <c r="Z68" t="inlineStr">
+        <is>
+          <t>GID_ベレト</t>
+        </is>
+      </c>
+      <c r="AA68" t="inlineStr">
+        <is>
+          <t>GBID_エーデルガルト</t>
+        </is>
+      </c>
+      <c r="AB68" t="inlineStr">
+        <is>
+          <t>GGID_エーデルガルト</t>
+        </is>
+      </c>
+      <c r="AC68" t="n">
+        <v>99</v>
+      </c>
+      <c r="AD68" t="inlineStr"/>
+      <c r="AE68" t="inlineStr">
+        <is>
+          <t>MGEID_Dimitri</t>
+        </is>
+      </c>
+      <c r="AF68" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG68" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH68" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI68" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ68" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK68" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL68" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM68" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN68" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO68" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP68" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ68" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR68" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS68" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT68" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU68" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV68" t="n">
+        <v>34</v>
+      </c>
+      <c r="AW68" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX68" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr"/>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>GID_クロード</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>MGID_Claude</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>MGID_H_Claude_Nickname</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>MGID_H_Claude</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Claude</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>DLC_55</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>クロード</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>Face_Claude</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>Face_ClaudeDarkness</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>MGID_Ring_Claude</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>MGID_H_Ring_Claude</t>
+        </is>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>515Claude</t>
+        </is>
+      </c>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>GID_エーデルガルト;GID_ディミトリ;GID_クロード;</t>
+        </is>
+      </c>
+      <c r="O69" t="inlineStr"/>
+      <c r="P69" t="inlineStr"/>
+      <c r="Q69" t="n">
+        <v>1</v>
+      </c>
+      <c r="R69" t="n">
+        <v>0</v>
+      </c>
+      <c r="S69" t="n">
+        <v>0</v>
+      </c>
+      <c r="T69" t="n">
+        <v>4</v>
+      </c>
+      <c r="U69" t="n">
+        <v>2520</v>
+      </c>
+      <c r="V69" t="n">
+        <v>7</v>
+      </c>
+      <c r="W69" t="inlineStr">
+        <is>
+          <t>SID_三級長エンゲージ技</t>
+        </is>
+      </c>
+      <c r="X69" t="inlineStr"/>
+      <c r="Y69" t="inlineStr">
+        <is>
+          <t>SID_三級長エンゲージ技＋</t>
+        </is>
+      </c>
+      <c r="Z69" t="inlineStr">
+        <is>
+          <t>GID_ベレト</t>
+        </is>
+      </c>
+      <c r="AA69" t="inlineStr">
+        <is>
+          <t>GBID_エーデルガルト</t>
+        </is>
+      </c>
+      <c r="AB69" t="inlineStr">
+        <is>
+          <t>GGID_エーデルガルト</t>
+        </is>
+      </c>
+      <c r="AC69" t="n">
+        <v>99</v>
+      </c>
+      <c r="AD69" t="inlineStr"/>
+      <c r="AE69" t="inlineStr">
+        <is>
+          <t>MGEID_Claude</t>
+        </is>
+      </c>
+      <c r="AF69" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG69" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH69" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI69" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ69" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK69" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL69" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM69" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN69" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO69" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP69" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ69" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR69" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS69" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT69" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU69" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV69" t="n">
+        <v>34</v>
+      </c>
+      <c r="AW69" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX69" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr"/>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>GID_チキ</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>MGID_Tiki</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>MGID_H_Tiki_Nickname</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>MGID_H_Tiki</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Tiki</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>DLC_47</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>チキ</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>Face_Tiki</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>Face_TikiDarkness</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>MGID_Ring_Tiki</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>MGID_H_Ring_Tiki</t>
+        </is>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>560Tiki</t>
+        </is>
+      </c>
+      <c r="N70" t="inlineStr"/>
+      <c r="O70" t="inlineStr"/>
+      <c r="P70" t="inlineStr"/>
+      <c r="Q70" t="n">
+        <v>1</v>
+      </c>
+      <c r="R70" t="n">
+        <v>0</v>
+      </c>
+      <c r="S70" t="n">
+        <v>1</v>
+      </c>
+      <c r="T70" t="n">
+        <v>9</v>
+      </c>
+      <c r="U70" t="n">
+        <v>2000</v>
+      </c>
+      <c r="V70" t="n">
+        <v>7</v>
+      </c>
+      <c r="W70" t="inlineStr">
+        <is>
+          <t>SID_チキエンゲージ技</t>
+        </is>
+      </c>
+      <c r="X70" t="inlineStr"/>
+      <c r="Y70" t="inlineStr">
+        <is>
+          <t>SID_チキエンゲージ技＋</t>
+        </is>
+      </c>
+      <c r="Z70" t="inlineStr">
+        <is>
+          <t>GID_マルス</t>
+        </is>
+      </c>
+      <c r="AA70" t="inlineStr">
+        <is>
+          <t>GBID_チキ</t>
+        </is>
+      </c>
+      <c r="AB70" t="inlineStr">
+        <is>
+          <t>GGID_チキ</t>
+        </is>
+      </c>
+      <c r="AC70" t="n">
+        <v>99</v>
+      </c>
+      <c r="AD70" t="inlineStr"/>
+      <c r="AE70" t="inlineStr">
+        <is>
+          <t>MGEID_Tiki</t>
+        </is>
+      </c>
+      <c r="AF70" t="n">
+        <v>2</v>
+      </c>
+      <c r="AG70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ70" t="n">
+        <v>-20</v>
+      </c>
+      <c r="AK70" t="n">
+        <v>-20</v>
+      </c>
+      <c r="AL70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV70" t="n">
+        <v>50</v>
+      </c>
+      <c r="AW70" t="n">
+        <v>16</v>
+      </c>
+      <c r="AX70" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr"/>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>GID_相手エーデルガルト</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>MGID_Edelgard</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>MGID_H_Edelgard_Nickname</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>MGID_H_Edelgard</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Edelgard</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>DLC_53</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>エーデルガルト</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>Face_Edelgard</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>Face_EdelgardDarkness</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>MGID_Ring_Edelgard</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>MGID_H_Ring_Edelgard</t>
+        </is>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>563Edelgard</t>
+        </is>
+      </c>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>GID_相手エーデルガルト;GID_相手ディミトリ;GID_相手クロード;</t>
+        </is>
+      </c>
+      <c r="O71" t="inlineStr"/>
+      <c r="P71" t="inlineStr"/>
+      <c r="Q71" t="n">
+        <v>1</v>
+      </c>
+      <c r="R71" t="n">
+        <v>1</v>
+      </c>
+      <c r="S71" t="n">
+        <v>1</v>
+      </c>
+      <c r="T71" t="n">
+        <v>3</v>
+      </c>
+      <c r="U71" t="n">
+        <v>0</v>
+      </c>
+      <c r="V71" t="n">
+        <v>7</v>
+      </c>
+      <c r="W71" t="inlineStr">
+        <is>
+          <t>SID_三級長エンゲージ技</t>
+        </is>
+      </c>
+      <c r="X71" t="inlineStr"/>
+      <c r="Y71" t="inlineStr">
+        <is>
+          <t>SID_三級長エンゲージ技＋</t>
+        </is>
+      </c>
+      <c r="Z71" t="inlineStr">
+        <is>
+          <t>GID_相手ベレト</t>
+        </is>
+      </c>
+      <c r="AA71" t="inlineStr">
+        <is>
+          <t>GBID_相手エーデルガルト</t>
+        </is>
+      </c>
+      <c r="AB71" t="inlineStr">
+        <is>
+          <t>GGID_エーデルガルト</t>
+        </is>
+      </c>
+      <c r="AC71" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD71" t="inlineStr"/>
+      <c r="AE71" t="inlineStr"/>
+      <c r="AF71" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG71" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH71" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI71" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ71" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK71" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL71" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM71" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN71" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO71" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP71" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ71" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR71" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS71" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT71" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU71" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV71" t="n">
+        <v>32</v>
+      </c>
+      <c r="AW71" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX71" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr"/>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>GID_相手ディミトリ</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>MGID_Dimitri</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>MGID_H_Dimitri_Nickname</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>MGID_H_Dimitri</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Dimitri</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>DLC_54</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>ディミトリ</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>Face_Dimitri</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>Face_DimitriDarkness</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>MGID_Ring_Dimitri</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>MGID_H_Ring_Dimitri</t>
+        </is>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>514Dimitri</t>
+        </is>
+      </c>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>GID_相手エーデルガルト;GID_相手ディミトリ;GID_相手クロード;</t>
+        </is>
+      </c>
+      <c r="O72" t="inlineStr"/>
+      <c r="P72" t="inlineStr"/>
+      <c r="Q72" t="n">
+        <v>1</v>
+      </c>
+      <c r="R72" t="n">
+        <v>1</v>
+      </c>
+      <c r="S72" t="n">
+        <v>0</v>
+      </c>
+      <c r="T72" t="n">
+        <v>2</v>
+      </c>
+      <c r="U72" t="n">
+        <v>0</v>
+      </c>
+      <c r="V72" t="n">
+        <v>7</v>
+      </c>
+      <c r="W72" t="inlineStr">
+        <is>
+          <t>SID_三級長エンゲージ技</t>
+        </is>
+      </c>
+      <c r="X72" t="inlineStr"/>
+      <c r="Y72" t="inlineStr">
+        <is>
+          <t>SID_三級長エンゲージ技＋</t>
+        </is>
+      </c>
+      <c r="Z72" t="inlineStr">
+        <is>
+          <t>GID_相手ベレト</t>
+        </is>
+      </c>
+      <c r="AA72" t="inlineStr">
+        <is>
+          <t>GBID_相手エーデルガルト</t>
+        </is>
+      </c>
+      <c r="AB72" t="inlineStr">
+        <is>
+          <t>GGID_エーデルガルト</t>
+        </is>
+      </c>
+      <c r="AC72" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD72" t="inlineStr"/>
+      <c r="AE72" t="inlineStr"/>
+      <c r="AF72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV72" t="n">
+        <v>32</v>
+      </c>
+      <c r="AW72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX72" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr"/>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>GID_相手クロード</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>MGID_Claude</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>MGID_H_Claude_Nickname</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>MGID_H_Claude</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Claude</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>DKC_55</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>クロード</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>Face_Claude</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>Face_ClaudeDarkness</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>MGID_Ring_Claude</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>MGID_H_Ring_Claude</t>
+        </is>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>515Claude</t>
+        </is>
+      </c>
+      <c r="N73" t="inlineStr">
+        <is>
+          <t>GID_相手エーデルガルト;GID_相手ディミトリ;GID_相手クロード;</t>
+        </is>
+      </c>
+      <c r="O73" t="inlineStr"/>
+      <c r="P73" t="inlineStr"/>
+      <c r="Q73" t="n">
+        <v>1</v>
+      </c>
+      <c r="R73" t="n">
+        <v>1</v>
+      </c>
+      <c r="S73" t="n">
+        <v>0</v>
+      </c>
+      <c r="T73" t="n">
+        <v>4</v>
+      </c>
+      <c r="U73" t="n">
+        <v>0</v>
+      </c>
+      <c r="V73" t="n">
+        <v>7</v>
+      </c>
+      <c r="W73" t="inlineStr">
+        <is>
+          <t>SID_三級長エンゲージ技</t>
+        </is>
+      </c>
+      <c r="X73" t="inlineStr"/>
+      <c r="Y73" t="inlineStr">
+        <is>
+          <t>SID_三級長エンゲージ技＋</t>
+        </is>
+      </c>
+      <c r="Z73" t="inlineStr">
+        <is>
+          <t>GID_相手ベレト</t>
+        </is>
+      </c>
+      <c r="AA73" t="inlineStr">
+        <is>
+          <t>GBID_相手エーデルガルト</t>
+        </is>
+      </c>
+      <c r="AB73" t="inlineStr">
+        <is>
+          <t>GGID_エーデルガルト</t>
+        </is>
+      </c>
+      <c r="AC73" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD73" t="inlineStr"/>
+      <c r="AE73" t="inlineStr"/>
+      <c r="AF73" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG73" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH73" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI73" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ73" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK73" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL73" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM73" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN73" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO73" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP73" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ73" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR73" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS73" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT73" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU73" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV73" t="n">
+        <v>32</v>
+      </c>
+      <c r="AW73" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX73" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr"/>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>GID_相手チキ</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>MGID_Tiki</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>MGID_H_Tiki_Nickname</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>MGID_H_Tiki</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Tiki</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>DLC_47</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>チキ</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>Face_Tiki</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>Face_TikiDarkness</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>MGID_Ring_Tiki</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>MGID_H_Ring_Tiki</t>
+        </is>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>560Tiki</t>
+        </is>
+      </c>
+      <c r="N74" t="inlineStr"/>
+      <c r="O74" t="inlineStr"/>
+      <c r="P74" t="inlineStr"/>
+      <c r="Q74" t="n">
+        <v>1</v>
+      </c>
+      <c r="R74" t="n">
+        <v>1</v>
+      </c>
+      <c r="S74" t="n">
+        <v>1</v>
+      </c>
+      <c r="T74" t="n">
+        <v>9</v>
+      </c>
+      <c r="U74" t="n">
+        <v>0</v>
+      </c>
+      <c r="V74" t="n">
+        <v>7</v>
+      </c>
+      <c r="W74" t="inlineStr">
+        <is>
+          <t>SID_チキエンゲージ技</t>
+        </is>
+      </c>
+      <c r="X74" t="inlineStr"/>
+      <c r="Y74" t="inlineStr">
+        <is>
+          <t>SID_チキエンゲージ技＋</t>
+        </is>
+      </c>
+      <c r="Z74" t="inlineStr">
+        <is>
+          <t>GID_相手マルス</t>
+        </is>
+      </c>
+      <c r="AA74" t="inlineStr">
+        <is>
+          <t>GBID_相手チキ</t>
+        </is>
+      </c>
+      <c r="AB74" t="inlineStr">
+        <is>
+          <t>GGID_チキ</t>
+        </is>
+      </c>
+      <c r="AC74" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD74" t="inlineStr"/>
+      <c r="AE74" t="inlineStr"/>
+      <c r="AF74" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG74" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH74" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI74" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ74" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK74" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL74" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM74" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN74" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO74" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP74" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ74" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR74" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS74" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT74" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU74" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV74" t="n">
+        <v>48</v>
+      </c>
+      <c r="AW74" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX74" t="n">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -11210,7 +12626,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z354"/>
+  <dimension ref="A1:Z394"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
@@ -31356,18 +32772,30 @@
       </c>
     </row>
     <row r="334">
-      <c r="A334" t="inlineStr">
-        <is>
-          <t>GGID_チキ</t>
-        </is>
-      </c>
+      <c r="A334" t="inlineStr"/>
       <c r="B334" t="n">
-        <v>0</v>
-      </c>
-      <c r="C334" t="inlineStr"/>
-      <c r="D334" t="inlineStr"/>
-      <c r="E334" t="inlineStr"/>
-      <c r="F334" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>SID_計略_引込の計;</t>
+        </is>
+      </c>
+      <c r="D334" t="inlineStr">
+        <is>
+          <t>SID_力＋２;SID_技＋１;SID_守備＋１;SID_切磋琢磨;SID_計略;</t>
+        </is>
+      </c>
+      <c r="E334" t="inlineStr">
+        <is>
+          <t>SID_戦技;SID_敵エンゲージ技ダメージ軽減;</t>
+        </is>
+      </c>
+      <c r="F334" t="inlineStr">
+        <is>
+          <t>IID_三級長_アイムール;</t>
+        </is>
+      </c>
       <c r="G334" t="inlineStr"/>
       <c r="H334" t="inlineStr"/>
       <c r="I334" t="inlineStr"/>
@@ -31414,16 +32842,20 @@
       </c>
     </row>
     <row r="335">
-      <c r="A335" t="inlineStr">
-        <is>
-          <t>GGID_ヘクトル</t>
-        </is>
-      </c>
+      <c r="A335" t="inlineStr"/>
       <c r="B335" t="n">
-        <v>0</v>
-      </c>
-      <c r="C335" t="inlineStr"/>
-      <c r="D335" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>SID_力・技＋１;</t>
+        </is>
+      </c>
+      <c r="D335" t="inlineStr">
+        <is>
+          <t>SID_技＋２;</t>
+        </is>
+      </c>
       <c r="E335" t="inlineStr"/>
       <c r="F335" t="inlineStr"/>
       <c r="G335" t="inlineStr"/>
@@ -31472,16 +32904,20 @@
       </c>
     </row>
     <row r="336">
-      <c r="A336" t="inlineStr">
-        <is>
-          <t>GGID_ヴェロニカ</t>
-        </is>
-      </c>
+      <c r="A336" t="inlineStr"/>
       <c r="B336" t="n">
-        <v>0</v>
-      </c>
-      <c r="C336" t="inlineStr"/>
-      <c r="D336" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="C336" t="inlineStr">
+        <is>
+          <t>SID_血統;</t>
+        </is>
+      </c>
+      <c r="D336" t="inlineStr">
+        <is>
+          <t>SID_血統;</t>
+        </is>
+      </c>
       <c r="E336" t="inlineStr"/>
       <c r="F336" t="inlineStr"/>
       <c r="G336" t="inlineStr"/>
@@ -31530,16 +32966,20 @@
       </c>
     </row>
     <row r="337">
-      <c r="A337" t="inlineStr">
-        <is>
-          <t>GGID_セネリオ</t>
-        </is>
-      </c>
+      <c r="A337" t="inlineStr"/>
       <c r="B337" t="n">
-        <v>0</v>
-      </c>
-      <c r="C337" t="inlineStr"/>
-      <c r="D337" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="C337" t="inlineStr">
+        <is>
+          <t>SID_対弓術１;</t>
+        </is>
+      </c>
+      <c r="D337" t="inlineStr">
+        <is>
+          <t>SID_守備＋２;</t>
+        </is>
+      </c>
       <c r="E337" t="inlineStr"/>
       <c r="F337" t="inlineStr"/>
       <c r="G337" t="inlineStr"/>
@@ -31588,13 +33028,9 @@
       </c>
     </row>
     <row r="338">
-      <c r="A338" t="inlineStr">
-        <is>
-          <t>GGID_カミラ</t>
-        </is>
-      </c>
+      <c r="A338" t="inlineStr"/>
       <c r="B338" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C338" t="inlineStr"/>
       <c r="D338" t="inlineStr"/>
@@ -31642,17 +33078,13 @@
         <v>0</v>
       </c>
       <c r="Z338" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="339">
-      <c r="A339" t="inlineStr">
-        <is>
-          <t>GGID_クロム</t>
-        </is>
-      </c>
+      <c r="A339" t="inlineStr"/>
       <c r="B339" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C339" t="inlineStr"/>
       <c r="D339" t="inlineStr"/>
@@ -31667,7 +33099,7 @@
       <c r="M339" t="inlineStr"/>
       <c r="N339" t="inlineStr"/>
       <c r="O339" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="P339" t="n">
         <v>0</v>
@@ -31679,7 +33111,7 @@
         <v>0</v>
       </c>
       <c r="S339" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T339" t="n">
         <v>0</v>
@@ -31704,16 +33136,20 @@
       </c>
     </row>
     <row r="340">
-      <c r="A340" t="inlineStr">
-        <is>
-          <t>GGID_E001_敵チキ</t>
-        </is>
-      </c>
+      <c r="A340" t="inlineStr"/>
       <c r="B340" t="n">
-        <v>0</v>
-      </c>
-      <c r="C340" t="inlineStr"/>
-      <c r="D340" t="inlineStr"/>
+        <v>7</v>
+      </c>
+      <c r="C340" t="inlineStr">
+        <is>
+          <t>SID_力・技＋２;</t>
+        </is>
+      </c>
+      <c r="D340" t="inlineStr">
+        <is>
+          <t>SID_力＋３;</t>
+        </is>
+      </c>
       <c r="E340" t="inlineStr"/>
       <c r="F340" t="inlineStr"/>
       <c r="G340" t="inlineStr"/>
@@ -31762,16 +33198,20 @@
       </c>
     </row>
     <row r="341">
-      <c r="A341" t="inlineStr">
-        <is>
-          <t>GGID_E002_敵ヘクトル</t>
-        </is>
-      </c>
+      <c r="A341" t="inlineStr"/>
       <c r="B341" t="n">
-        <v>0</v>
-      </c>
-      <c r="C341" t="inlineStr"/>
-      <c r="D341" t="inlineStr"/>
+        <v>8</v>
+      </c>
+      <c r="C341" t="inlineStr">
+        <is>
+          <t>SID_対弓術２;</t>
+        </is>
+      </c>
+      <c r="D341" t="inlineStr">
+        <is>
+          <t>SID_技＋３;</t>
+        </is>
+      </c>
       <c r="E341" t="inlineStr"/>
       <c r="F341" t="inlineStr"/>
       <c r="G341" t="inlineStr"/>
@@ -31820,13 +33260,9 @@
       </c>
     </row>
     <row r="342">
-      <c r="A342" t="inlineStr">
-        <is>
-          <t>GGID_E003_敵ヴェロニカ</t>
-        </is>
-      </c>
+      <c r="A342" t="inlineStr"/>
       <c r="B342" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C342" t="inlineStr"/>
       <c r="D342" t="inlineStr"/>
@@ -31841,7 +33277,7 @@
       <c r="M342" t="inlineStr"/>
       <c r="N342" t="inlineStr"/>
       <c r="O342" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P342" t="n">
         <v>0</v>
@@ -31850,7 +33286,7 @@
         <v>0</v>
       </c>
       <c r="R342" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S342" t="n">
         <v>0</v>
@@ -31878,18 +33314,18 @@
       </c>
     </row>
     <row r="343">
-      <c r="A343" t="inlineStr">
-        <is>
-          <t>GGID_E004_敵セネリオ</t>
-        </is>
-      </c>
+      <c r="A343" t="inlineStr"/>
       <c r="B343" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C343" t="inlineStr"/>
       <c r="D343" t="inlineStr"/>
       <c r="E343" t="inlineStr"/>
-      <c r="F343" t="inlineStr"/>
+      <c r="F343" t="inlineStr">
+        <is>
+          <t>IID_三級長_アラドヴァル;</t>
+        </is>
+      </c>
       <c r="G343" t="inlineStr"/>
       <c r="H343" t="inlineStr"/>
       <c r="I343" t="inlineStr"/>
@@ -31936,13 +33372,9 @@
       </c>
     </row>
     <row r="344">
-      <c r="A344" t="inlineStr">
-        <is>
-          <t>GGID_E004_敵カミラ</t>
-        </is>
-      </c>
+      <c r="A344" t="inlineStr"/>
       <c r="B344" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C344" t="inlineStr"/>
       <c r="D344" t="inlineStr"/>
@@ -31990,20 +33422,24 @@
         <v>0</v>
       </c>
       <c r="Z344" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="345">
-      <c r="A345" t="inlineStr">
-        <is>
-          <t>GGID_E005_敵クロム</t>
-        </is>
-      </c>
+      <c r="A345" t="inlineStr"/>
       <c r="B345" t="n">
-        <v>0</v>
-      </c>
-      <c r="C345" t="inlineStr"/>
-      <c r="D345" t="inlineStr"/>
+        <v>12</v>
+      </c>
+      <c r="C345" t="inlineStr">
+        <is>
+          <t>SID_武器シンクロ;SID_力・技＋３;</t>
+        </is>
+      </c>
+      <c r="D345" t="inlineStr">
+        <is>
+          <t>SID_武器シンクロ;</t>
+        </is>
+      </c>
       <c r="E345" t="inlineStr"/>
       <c r="F345" t="inlineStr"/>
       <c r="G345" t="inlineStr"/>
@@ -32052,13 +33488,9 @@
       </c>
     </row>
     <row r="346">
-      <c r="A346" t="inlineStr">
-        <is>
-          <t>GGID_E005_敵ヘクトル</t>
-        </is>
-      </c>
+      <c r="A346" t="inlineStr"/>
       <c r="B346" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="C346" t="inlineStr"/>
       <c r="D346" t="inlineStr"/>
@@ -32073,7 +33505,7 @@
       <c r="M346" t="inlineStr"/>
       <c r="N346" t="inlineStr"/>
       <c r="O346" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="P346" t="n">
         <v>0</v>
@@ -32088,7 +33520,7 @@
         <v>0</v>
       </c>
       <c r="T346" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U346" t="n">
         <v>0</v>
@@ -32110,16 +33542,20 @@
       </c>
     </row>
     <row r="347">
-      <c r="A347" t="inlineStr">
-        <is>
-          <t>GGID_E005_敵ヴェロニカ</t>
-        </is>
-      </c>
+      <c r="A347" t="inlineStr"/>
       <c r="B347" t="n">
-        <v>0</v>
-      </c>
-      <c r="C347" t="inlineStr"/>
-      <c r="D347" t="inlineStr"/>
+        <v>14</v>
+      </c>
+      <c r="C347" t="inlineStr">
+        <is>
+          <t>SID_対弓術３;</t>
+        </is>
+      </c>
+      <c r="D347" t="inlineStr">
+        <is>
+          <t>SID_守備＋３;</t>
+        </is>
+      </c>
       <c r="E347" t="inlineStr"/>
       <c r="F347" t="inlineStr"/>
       <c r="G347" t="inlineStr"/>
@@ -32168,18 +33604,18 @@
       </c>
     </row>
     <row r="348">
-      <c r="A348" t="inlineStr">
-        <is>
-          <t>GGID_E006_敵チキ</t>
-        </is>
-      </c>
+      <c r="A348" t="inlineStr"/>
       <c r="B348" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C348" t="inlineStr"/>
       <c r="D348" t="inlineStr"/>
       <c r="E348" t="inlineStr"/>
-      <c r="F348" t="inlineStr"/>
+      <c r="F348" t="inlineStr">
+        <is>
+          <t>IID_三級長_フェイルノート;</t>
+        </is>
+      </c>
       <c r="G348" t="inlineStr"/>
       <c r="H348" t="inlineStr"/>
       <c r="I348" t="inlineStr"/>
@@ -32226,16 +33662,20 @@
       </c>
     </row>
     <row r="349">
-      <c r="A349" t="inlineStr">
-        <is>
-          <t>GGID_E006_敵ヘクトル</t>
-        </is>
-      </c>
+      <c r="A349" t="inlineStr"/>
       <c r="B349" t="n">
-        <v>0</v>
-      </c>
-      <c r="C349" t="inlineStr"/>
-      <c r="D349" t="inlineStr"/>
+        <v>16</v>
+      </c>
+      <c r="C349" t="inlineStr">
+        <is>
+          <t>SID_力・技＋４;</t>
+        </is>
+      </c>
+      <c r="D349" t="inlineStr">
+        <is>
+          <t>SID_力＋４;</t>
+        </is>
+      </c>
       <c r="E349" t="inlineStr"/>
       <c r="F349" t="inlineStr"/>
       <c r="G349" t="inlineStr"/>
@@ -32284,16 +33724,20 @@
       </c>
     </row>
     <row r="350">
-      <c r="A350" t="inlineStr">
-        <is>
-          <t>GGID_E006_敵ヴェロニカ</t>
-        </is>
-      </c>
+      <c r="A350" t="inlineStr"/>
       <c r="B350" t="n">
-        <v>0</v>
-      </c>
-      <c r="C350" t="inlineStr"/>
-      <c r="D350" t="inlineStr"/>
+        <v>17</v>
+      </c>
+      <c r="C350" t="inlineStr">
+        <is>
+          <t>SID_武器シンクロ＋;SID_対弓術４;</t>
+        </is>
+      </c>
+      <c r="D350" t="inlineStr">
+        <is>
+          <t>SID_武器シンクロ＋;</t>
+        </is>
+      </c>
       <c r="E350" t="inlineStr"/>
       <c r="F350" t="inlineStr"/>
       <c r="G350" t="inlineStr"/>
@@ -32342,16 +33786,20 @@
       </c>
     </row>
     <row r="351">
-      <c r="A351" t="inlineStr">
-        <is>
-          <t>GGID_E006_敵セネリオ</t>
-        </is>
-      </c>
+      <c r="A351" t="inlineStr"/>
       <c r="B351" t="n">
-        <v>0</v>
-      </c>
-      <c r="C351" t="inlineStr"/>
-      <c r="D351" t="inlineStr"/>
+        <v>18</v>
+      </c>
+      <c r="C351" t="inlineStr">
+        <is>
+          <t>SID_力・技＋５;</t>
+        </is>
+      </c>
+      <c r="D351" t="inlineStr">
+        <is>
+          <t>SID_技＋４;</t>
+        </is>
+      </c>
       <c r="E351" t="inlineStr"/>
       <c r="F351" t="inlineStr"/>
       <c r="G351" t="inlineStr"/>
@@ -32400,16 +33848,20 @@
       </c>
     </row>
     <row r="352">
-      <c r="A352" t="inlineStr">
-        <is>
-          <t>GGID_E006_敵カミラ</t>
-        </is>
-      </c>
+      <c r="A352" t="inlineStr"/>
       <c r="B352" t="n">
-        <v>0</v>
-      </c>
-      <c r="C352" t="inlineStr"/>
-      <c r="D352" t="inlineStr"/>
+        <v>19</v>
+      </c>
+      <c r="C352" t="inlineStr">
+        <is>
+          <t>SID_対弓術５;</t>
+        </is>
+      </c>
+      <c r="D352" t="inlineStr">
+        <is>
+          <t>SID_力＋５;</t>
+        </is>
+      </c>
       <c r="E352" t="inlineStr"/>
       <c r="F352" t="inlineStr"/>
       <c r="G352" t="inlineStr"/>
@@ -32458,13 +33910,9 @@
       </c>
     </row>
     <row r="353">
-      <c r="A353" t="inlineStr">
-        <is>
-          <t>GGID_E006_敵クロム</t>
-        </is>
-      </c>
+      <c r="A353" t="inlineStr"/>
       <c r="B353" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C353" t="inlineStr"/>
       <c r="D353" t="inlineStr"/>
@@ -32512,13 +33960,13 @@
         <v>0</v>
       </c>
       <c r="Z353" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>GGID_E006_敵エーデルガルト</t>
+          <t>GGID_チキ</t>
         </is>
       </c>
       <c r="B354" t="n">
@@ -32570,6 +34018,2414 @@
         <v>0</v>
       </c>
       <c r="Z354" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr"/>
+      <c r="B355" t="n">
+        <v>1</v>
+      </c>
+      <c r="C355" t="inlineStr">
+        <is>
+          <t>SID_星玉の加護;</t>
+        </is>
+      </c>
+      <c r="D355" t="inlineStr">
+        <is>
+          <t>SID_ＨＰ＋５;SID_守備＋１;SID_幸運＋２;SID_星玉の加護;SID_チキ装備中;</t>
+        </is>
+      </c>
+      <c r="E355" t="inlineStr">
+        <is>
+          <t>SID_竜化;SID_敵エンゲージ技ダメージ軽減;</t>
+        </is>
+      </c>
+      <c r="F355" t="inlineStr">
+        <is>
+          <t>IID_チキ_つめ;IID_チキ_しっぽ;</t>
+        </is>
+      </c>
+      <c r="G355" t="inlineStr">
+        <is>
+          <t>IID_チキ_ブレス;</t>
+        </is>
+      </c>
+      <c r="H355" t="inlineStr">
+        <is>
+          <t>IID_チキ_ブレス;</t>
+        </is>
+      </c>
+      <c r="I355" t="inlineStr">
+        <is>
+          <t>IID_チキ_ブレス;</t>
+        </is>
+      </c>
+      <c r="J355" t="inlineStr">
+        <is>
+          <t>IID_チキ_ブレス_重装;</t>
+        </is>
+      </c>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>IID_チキ_ブレス_飛行;</t>
+        </is>
+      </c>
+      <c r="L355" t="inlineStr">
+        <is>
+          <t>IID_チキ_ブレス_魔法;</t>
+        </is>
+      </c>
+      <c r="M355" t="inlineStr">
+        <is>
+          <t>IID_チキ_ブレス;</t>
+        </is>
+      </c>
+      <c r="N355" t="inlineStr">
+        <is>
+          <t>IID_チキ_ブレス_竜族;</t>
+        </is>
+      </c>
+      <c r="O355" t="n">
+        <v>0</v>
+      </c>
+      <c r="P355" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q355" t="n">
+        <v>0</v>
+      </c>
+      <c r="R355" t="n">
+        <v>0</v>
+      </c>
+      <c r="S355" t="n">
+        <v>0</v>
+      </c>
+      <c r="T355" t="n">
+        <v>0</v>
+      </c>
+      <c r="U355" t="n">
+        <v>0</v>
+      </c>
+      <c r="V355" t="n">
+        <v>0</v>
+      </c>
+      <c r="W355" t="n">
+        <v>0</v>
+      </c>
+      <c r="X355" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y355" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z355" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr"/>
+      <c r="B356" t="n">
+        <v>2</v>
+      </c>
+      <c r="C356" t="inlineStr">
+        <is>
+          <t>SID_ＨＰ・幸運＋２;</t>
+        </is>
+      </c>
+      <c r="D356" t="inlineStr">
+        <is>
+          <t>SID_幸運＋４;</t>
+        </is>
+      </c>
+      <c r="E356" t="inlineStr"/>
+      <c r="F356" t="inlineStr"/>
+      <c r="G356" t="inlineStr"/>
+      <c r="H356" t="inlineStr"/>
+      <c r="I356" t="inlineStr"/>
+      <c r="J356" t="inlineStr"/>
+      <c r="K356" t="inlineStr"/>
+      <c r="L356" t="inlineStr"/>
+      <c r="M356" t="inlineStr"/>
+      <c r="N356" t="inlineStr"/>
+      <c r="O356" t="n">
+        <v>0</v>
+      </c>
+      <c r="P356" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q356" t="n">
+        <v>0</v>
+      </c>
+      <c r="R356" t="n">
+        <v>0</v>
+      </c>
+      <c r="S356" t="n">
+        <v>0</v>
+      </c>
+      <c r="T356" t="n">
+        <v>0</v>
+      </c>
+      <c r="U356" t="n">
+        <v>0</v>
+      </c>
+      <c r="V356" t="n">
+        <v>0</v>
+      </c>
+      <c r="W356" t="n">
+        <v>0</v>
+      </c>
+      <c r="X356" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y356" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z356" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr"/>
+      <c r="B357" t="n">
+        <v>3</v>
+      </c>
+      <c r="C357" t="inlineStr">
+        <is>
+          <t>SID_地玉の加護;</t>
+        </is>
+      </c>
+      <c r="D357" t="inlineStr">
+        <is>
+          <t>SID_地玉の加護;</t>
+        </is>
+      </c>
+      <c r="E357" t="inlineStr"/>
+      <c r="F357" t="inlineStr"/>
+      <c r="G357" t="inlineStr"/>
+      <c r="H357" t="inlineStr"/>
+      <c r="I357" t="inlineStr"/>
+      <c r="J357" t="inlineStr"/>
+      <c r="K357" t="inlineStr"/>
+      <c r="L357" t="inlineStr"/>
+      <c r="M357" t="inlineStr"/>
+      <c r="N357" t="inlineStr"/>
+      <c r="O357" t="n">
+        <v>0</v>
+      </c>
+      <c r="P357" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q357" t="n">
+        <v>0</v>
+      </c>
+      <c r="R357" t="n">
+        <v>0</v>
+      </c>
+      <c r="S357" t="n">
+        <v>0</v>
+      </c>
+      <c r="T357" t="n">
+        <v>0</v>
+      </c>
+      <c r="U357" t="n">
+        <v>0</v>
+      </c>
+      <c r="V357" t="n">
+        <v>0</v>
+      </c>
+      <c r="W357" t="n">
+        <v>0</v>
+      </c>
+      <c r="X357" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y357" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z357" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr"/>
+      <c r="B358" t="n">
+        <v>4</v>
+      </c>
+      <c r="C358" t="inlineStr">
+        <is>
+          <t>SID_対特殊１;</t>
+        </is>
+      </c>
+      <c r="D358" t="inlineStr">
+        <is>
+          <t>SID_守備＋２;</t>
+        </is>
+      </c>
+      <c r="E358" t="inlineStr"/>
+      <c r="F358" t="inlineStr"/>
+      <c r="G358" t="inlineStr"/>
+      <c r="H358" t="inlineStr"/>
+      <c r="I358" t="inlineStr"/>
+      <c r="J358" t="inlineStr"/>
+      <c r="K358" t="inlineStr"/>
+      <c r="L358" t="inlineStr"/>
+      <c r="M358" t="inlineStr"/>
+      <c r="N358" t="inlineStr"/>
+      <c r="O358" t="n">
+        <v>0</v>
+      </c>
+      <c r="P358" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q358" t="n">
+        <v>0</v>
+      </c>
+      <c r="R358" t="n">
+        <v>0</v>
+      </c>
+      <c r="S358" t="n">
+        <v>0</v>
+      </c>
+      <c r="T358" t="n">
+        <v>0</v>
+      </c>
+      <c r="U358" t="n">
+        <v>0</v>
+      </c>
+      <c r="V358" t="n">
+        <v>0</v>
+      </c>
+      <c r="W358" t="n">
+        <v>0</v>
+      </c>
+      <c r="X358" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y358" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z358" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr"/>
+      <c r="B359" t="n">
+        <v>5</v>
+      </c>
+      <c r="C359" t="inlineStr"/>
+      <c r="D359" t="inlineStr"/>
+      <c r="E359" t="inlineStr"/>
+      <c r="F359" t="inlineStr"/>
+      <c r="G359" t="inlineStr"/>
+      <c r="H359" t="inlineStr"/>
+      <c r="I359" t="inlineStr"/>
+      <c r="J359" t="inlineStr"/>
+      <c r="K359" t="inlineStr"/>
+      <c r="L359" t="inlineStr"/>
+      <c r="M359" t="inlineStr"/>
+      <c r="N359" t="inlineStr"/>
+      <c r="O359" t="n">
+        <v>0</v>
+      </c>
+      <c r="P359" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q359" t="n">
+        <v>0</v>
+      </c>
+      <c r="R359" t="n">
+        <v>0</v>
+      </c>
+      <c r="S359" t="n">
+        <v>0</v>
+      </c>
+      <c r="T359" t="n">
+        <v>0</v>
+      </c>
+      <c r="U359" t="n">
+        <v>0</v>
+      </c>
+      <c r="V359" t="n">
+        <v>0</v>
+      </c>
+      <c r="W359" t="n">
+        <v>0</v>
+      </c>
+      <c r="X359" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y359" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z359" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr"/>
+      <c r="B360" t="n">
+        <v>6</v>
+      </c>
+      <c r="C360" t="inlineStr"/>
+      <c r="D360" t="inlineStr"/>
+      <c r="E360" t="inlineStr"/>
+      <c r="F360" t="inlineStr"/>
+      <c r="G360" t="inlineStr"/>
+      <c r="H360" t="inlineStr"/>
+      <c r="I360" t="inlineStr"/>
+      <c r="J360" t="inlineStr"/>
+      <c r="K360" t="inlineStr"/>
+      <c r="L360" t="inlineStr"/>
+      <c r="M360" t="inlineStr"/>
+      <c r="N360" t="inlineStr"/>
+      <c r="O360" t="n">
+        <v>256</v>
+      </c>
+      <c r="P360" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q360" t="n">
+        <v>0</v>
+      </c>
+      <c r="R360" t="n">
+        <v>0</v>
+      </c>
+      <c r="S360" t="n">
+        <v>0</v>
+      </c>
+      <c r="T360" t="n">
+        <v>0</v>
+      </c>
+      <c r="U360" t="n">
+        <v>0</v>
+      </c>
+      <c r="V360" t="n">
+        <v>0</v>
+      </c>
+      <c r="W360" t="n">
+        <v>0</v>
+      </c>
+      <c r="X360" t="n">
+        <v>100</v>
+      </c>
+      <c r="Y360" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z360" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr"/>
+      <c r="B361" t="n">
+        <v>7</v>
+      </c>
+      <c r="C361" t="inlineStr">
+        <is>
+          <t>SID_ＨＰ・幸運＋４;</t>
+        </is>
+      </c>
+      <c r="D361" t="inlineStr">
+        <is>
+          <t>SID_ＨＰ＋７;</t>
+        </is>
+      </c>
+      <c r="E361" t="inlineStr"/>
+      <c r="F361" t="inlineStr"/>
+      <c r="G361" t="inlineStr"/>
+      <c r="H361" t="inlineStr"/>
+      <c r="I361" t="inlineStr"/>
+      <c r="J361" t="inlineStr"/>
+      <c r="K361" t="inlineStr"/>
+      <c r="L361" t="inlineStr"/>
+      <c r="M361" t="inlineStr"/>
+      <c r="N361" t="inlineStr"/>
+      <c r="O361" t="n">
+        <v>0</v>
+      </c>
+      <c r="P361" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q361" t="n">
+        <v>0</v>
+      </c>
+      <c r="R361" t="n">
+        <v>0</v>
+      </c>
+      <c r="S361" t="n">
+        <v>0</v>
+      </c>
+      <c r="T361" t="n">
+        <v>0</v>
+      </c>
+      <c r="U361" t="n">
+        <v>0</v>
+      </c>
+      <c r="V361" t="n">
+        <v>0</v>
+      </c>
+      <c r="W361" t="n">
+        <v>0</v>
+      </c>
+      <c r="X361" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y361" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z361" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr"/>
+      <c r="B362" t="n">
+        <v>8</v>
+      </c>
+      <c r="C362" t="inlineStr">
+        <is>
+          <t>SID_命玉の加護;</t>
+        </is>
+      </c>
+      <c r="D362" t="inlineStr">
+        <is>
+          <t>SID_命玉の加護;</t>
+        </is>
+      </c>
+      <c r="E362" t="inlineStr"/>
+      <c r="F362" t="inlineStr"/>
+      <c r="G362" t="inlineStr"/>
+      <c r="H362" t="inlineStr"/>
+      <c r="I362" t="inlineStr"/>
+      <c r="J362" t="inlineStr"/>
+      <c r="K362" t="inlineStr"/>
+      <c r="L362" t="inlineStr"/>
+      <c r="M362" t="inlineStr"/>
+      <c r="N362" t="inlineStr"/>
+      <c r="O362" t="n">
+        <v>0</v>
+      </c>
+      <c r="P362" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q362" t="n">
+        <v>0</v>
+      </c>
+      <c r="R362" t="n">
+        <v>0</v>
+      </c>
+      <c r="S362" t="n">
+        <v>0</v>
+      </c>
+      <c r="T362" t="n">
+        <v>0</v>
+      </c>
+      <c r="U362" t="n">
+        <v>0</v>
+      </c>
+      <c r="V362" t="n">
+        <v>0</v>
+      </c>
+      <c r="W362" t="n">
+        <v>0</v>
+      </c>
+      <c r="X362" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y362" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z362" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr"/>
+      <c r="B363" t="n">
+        <v>9</v>
+      </c>
+      <c r="C363" t="inlineStr">
+        <is>
+          <t>SID_対特殊２;</t>
+        </is>
+      </c>
+      <c r="D363" t="inlineStr">
+        <is>
+          <t>SID_幸運＋６;</t>
+        </is>
+      </c>
+      <c r="E363" t="inlineStr"/>
+      <c r="F363" t="inlineStr"/>
+      <c r="G363" t="inlineStr"/>
+      <c r="H363" t="inlineStr"/>
+      <c r="I363" t="inlineStr"/>
+      <c r="J363" t="inlineStr"/>
+      <c r="K363" t="inlineStr"/>
+      <c r="L363" t="inlineStr"/>
+      <c r="M363" t="inlineStr"/>
+      <c r="N363" t="inlineStr"/>
+      <c r="O363" t="n">
+        <v>0</v>
+      </c>
+      <c r="P363" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q363" t="n">
+        <v>0</v>
+      </c>
+      <c r="R363" t="n">
+        <v>0</v>
+      </c>
+      <c r="S363" t="n">
+        <v>0</v>
+      </c>
+      <c r="T363" t="n">
+        <v>0</v>
+      </c>
+      <c r="U363" t="n">
+        <v>0</v>
+      </c>
+      <c r="V363" t="n">
+        <v>0</v>
+      </c>
+      <c r="W363" t="n">
+        <v>0</v>
+      </c>
+      <c r="X363" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y363" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z363" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr"/>
+      <c r="B364" t="n">
+        <v>10</v>
+      </c>
+      <c r="C364" t="inlineStr">
+        <is>
+          <t>SID_光玉の加護;</t>
+        </is>
+      </c>
+      <c r="D364" t="inlineStr">
+        <is>
+          <t>SID_光玉の加護;</t>
+        </is>
+      </c>
+      <c r="E364" t="inlineStr"/>
+      <c r="F364" t="inlineStr"/>
+      <c r="G364" t="inlineStr"/>
+      <c r="H364" t="inlineStr"/>
+      <c r="I364" t="inlineStr"/>
+      <c r="J364" t="inlineStr"/>
+      <c r="K364" t="inlineStr"/>
+      <c r="L364" t="inlineStr"/>
+      <c r="M364" t="inlineStr"/>
+      <c r="N364" t="inlineStr"/>
+      <c r="O364" t="n">
+        <v>0</v>
+      </c>
+      <c r="P364" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q364" t="n">
+        <v>0</v>
+      </c>
+      <c r="R364" t="n">
+        <v>0</v>
+      </c>
+      <c r="S364" t="n">
+        <v>0</v>
+      </c>
+      <c r="T364" t="n">
+        <v>0</v>
+      </c>
+      <c r="U364" t="n">
+        <v>0</v>
+      </c>
+      <c r="V364" t="n">
+        <v>0</v>
+      </c>
+      <c r="W364" t="n">
+        <v>0</v>
+      </c>
+      <c r="X364" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y364" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z364" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr"/>
+      <c r="B365" t="n">
+        <v>11</v>
+      </c>
+      <c r="C365" t="inlineStr"/>
+      <c r="D365" t="inlineStr"/>
+      <c r="E365" t="inlineStr"/>
+      <c r="F365" t="inlineStr"/>
+      <c r="G365" t="inlineStr"/>
+      <c r="H365" t="inlineStr"/>
+      <c r="I365" t="inlineStr"/>
+      <c r="J365" t="inlineStr"/>
+      <c r="K365" t="inlineStr"/>
+      <c r="L365" t="inlineStr"/>
+      <c r="M365" t="inlineStr"/>
+      <c r="N365" t="inlineStr"/>
+      <c r="O365" t="n">
+        <v>0</v>
+      </c>
+      <c r="P365" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q365" t="n">
+        <v>0</v>
+      </c>
+      <c r="R365" t="n">
+        <v>0</v>
+      </c>
+      <c r="S365" t="n">
+        <v>0</v>
+      </c>
+      <c r="T365" t="n">
+        <v>0</v>
+      </c>
+      <c r="U365" t="n">
+        <v>0</v>
+      </c>
+      <c r="V365" t="n">
+        <v>0</v>
+      </c>
+      <c r="W365" t="n">
+        <v>0</v>
+      </c>
+      <c r="X365" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y365" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z365" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr"/>
+      <c r="B366" t="n">
+        <v>12</v>
+      </c>
+      <c r="C366" t="inlineStr">
+        <is>
+          <t>SID_ＨＰ・幸運＋６;</t>
+        </is>
+      </c>
+      <c r="D366" t="inlineStr">
+        <is>
+          <t>SID_守備＋３;</t>
+        </is>
+      </c>
+      <c r="E366" t="inlineStr"/>
+      <c r="F366" t="inlineStr"/>
+      <c r="G366" t="inlineStr"/>
+      <c r="H366" t="inlineStr"/>
+      <c r="I366" t="inlineStr"/>
+      <c r="J366" t="inlineStr"/>
+      <c r="K366" t="inlineStr"/>
+      <c r="L366" t="inlineStr"/>
+      <c r="M366" t="inlineStr"/>
+      <c r="N366" t="inlineStr"/>
+      <c r="O366" t="n">
+        <v>0</v>
+      </c>
+      <c r="P366" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q366" t="n">
+        <v>0</v>
+      </c>
+      <c r="R366" t="n">
+        <v>0</v>
+      </c>
+      <c r="S366" t="n">
+        <v>0</v>
+      </c>
+      <c r="T366" t="n">
+        <v>0</v>
+      </c>
+      <c r="U366" t="n">
+        <v>0</v>
+      </c>
+      <c r="V366" t="n">
+        <v>0</v>
+      </c>
+      <c r="W366" t="n">
+        <v>0</v>
+      </c>
+      <c r="X366" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y366" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z366" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr"/>
+      <c r="B367" t="n">
+        <v>13</v>
+      </c>
+      <c r="C367" t="inlineStr">
+        <is>
+          <t>SID_対特殊３;</t>
+        </is>
+      </c>
+      <c r="D367" t="inlineStr">
+        <is>
+          <t>SID_ＨＰ＋１０;</t>
+        </is>
+      </c>
+      <c r="E367" t="inlineStr"/>
+      <c r="F367" t="inlineStr"/>
+      <c r="G367" t="inlineStr"/>
+      <c r="H367" t="inlineStr"/>
+      <c r="I367" t="inlineStr"/>
+      <c r="J367" t="inlineStr"/>
+      <c r="K367" t="inlineStr"/>
+      <c r="L367" t="inlineStr"/>
+      <c r="M367" t="inlineStr"/>
+      <c r="N367" t="inlineStr"/>
+      <c r="O367" t="n">
+        <v>0</v>
+      </c>
+      <c r="P367" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q367" t="n">
+        <v>0</v>
+      </c>
+      <c r="R367" t="n">
+        <v>0</v>
+      </c>
+      <c r="S367" t="n">
+        <v>0</v>
+      </c>
+      <c r="T367" t="n">
+        <v>0</v>
+      </c>
+      <c r="U367" t="n">
+        <v>0</v>
+      </c>
+      <c r="V367" t="n">
+        <v>0</v>
+      </c>
+      <c r="W367" t="n">
+        <v>0</v>
+      </c>
+      <c r="X367" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y367" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z367" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr"/>
+      <c r="B368" t="n">
+        <v>14</v>
+      </c>
+      <c r="C368" t="inlineStr">
+        <is>
+          <t>SID_命玉の加護＋;</t>
+        </is>
+      </c>
+      <c r="D368" t="inlineStr">
+        <is>
+          <t>SID_命玉の加護＋;</t>
+        </is>
+      </c>
+      <c r="E368" t="inlineStr"/>
+      <c r="F368" t="inlineStr"/>
+      <c r="G368" t="inlineStr"/>
+      <c r="H368" t="inlineStr"/>
+      <c r="I368" t="inlineStr"/>
+      <c r="J368" t="inlineStr"/>
+      <c r="K368" t="inlineStr"/>
+      <c r="L368" t="inlineStr"/>
+      <c r="M368" t="inlineStr"/>
+      <c r="N368" t="inlineStr"/>
+      <c r="O368" t="n">
+        <v>0</v>
+      </c>
+      <c r="P368" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q368" t="n">
+        <v>0</v>
+      </c>
+      <c r="R368" t="n">
+        <v>0</v>
+      </c>
+      <c r="S368" t="n">
+        <v>0</v>
+      </c>
+      <c r="T368" t="n">
+        <v>0</v>
+      </c>
+      <c r="U368" t="n">
+        <v>0</v>
+      </c>
+      <c r="V368" t="n">
+        <v>0</v>
+      </c>
+      <c r="W368" t="n">
+        <v>0</v>
+      </c>
+      <c r="X368" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y368" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z368" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr"/>
+      <c r="B369" t="n">
+        <v>15</v>
+      </c>
+      <c r="C369" t="inlineStr">
+        <is>
+          <t>SID_ＨＰ・幸運＋８;</t>
+        </is>
+      </c>
+      <c r="D369" t="inlineStr">
+        <is>
+          <t>SID_幸運＋８;</t>
+        </is>
+      </c>
+      <c r="E369" t="inlineStr"/>
+      <c r="F369" t="inlineStr"/>
+      <c r="G369" t="inlineStr"/>
+      <c r="H369" t="inlineStr"/>
+      <c r="I369" t="inlineStr"/>
+      <c r="J369" t="inlineStr"/>
+      <c r="K369" t="inlineStr"/>
+      <c r="L369" t="inlineStr"/>
+      <c r="M369" t="inlineStr"/>
+      <c r="N369" t="inlineStr"/>
+      <c r="O369" t="n">
+        <v>0</v>
+      </c>
+      <c r="P369" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q369" t="n">
+        <v>0</v>
+      </c>
+      <c r="R369" t="n">
+        <v>0</v>
+      </c>
+      <c r="S369" t="n">
+        <v>0</v>
+      </c>
+      <c r="T369" t="n">
+        <v>0</v>
+      </c>
+      <c r="U369" t="n">
+        <v>0</v>
+      </c>
+      <c r="V369" t="n">
+        <v>0</v>
+      </c>
+      <c r="W369" t="n">
+        <v>0</v>
+      </c>
+      <c r="X369" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y369" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z369" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr"/>
+      <c r="B370" t="n">
+        <v>16</v>
+      </c>
+      <c r="C370" t="inlineStr">
+        <is>
+          <t>SID_地玉の加護＋;</t>
+        </is>
+      </c>
+      <c r="D370" t="inlineStr">
+        <is>
+          <t>SID_地玉の加護＋;</t>
+        </is>
+      </c>
+      <c r="E370" t="inlineStr"/>
+      <c r="F370" t="inlineStr"/>
+      <c r="G370" t="inlineStr"/>
+      <c r="H370" t="inlineStr"/>
+      <c r="I370" t="inlineStr"/>
+      <c r="J370" t="inlineStr"/>
+      <c r="K370" t="inlineStr"/>
+      <c r="L370" t="inlineStr"/>
+      <c r="M370" t="inlineStr"/>
+      <c r="N370" t="inlineStr"/>
+      <c r="O370" t="n">
+        <v>0</v>
+      </c>
+      <c r="P370" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q370" t="n">
+        <v>0</v>
+      </c>
+      <c r="R370" t="n">
+        <v>0</v>
+      </c>
+      <c r="S370" t="n">
+        <v>0</v>
+      </c>
+      <c r="T370" t="n">
+        <v>0</v>
+      </c>
+      <c r="U370" t="n">
+        <v>0</v>
+      </c>
+      <c r="V370" t="n">
+        <v>0</v>
+      </c>
+      <c r="W370" t="n">
+        <v>0</v>
+      </c>
+      <c r="X370" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y370" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z370" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr"/>
+      <c r="B371" t="n">
+        <v>17</v>
+      </c>
+      <c r="C371" t="inlineStr">
+        <is>
+          <t>SID_対特殊４;</t>
+        </is>
+      </c>
+      <c r="D371" t="inlineStr">
+        <is>
+          <t>SID_守備＋４;</t>
+        </is>
+      </c>
+      <c r="E371" t="inlineStr"/>
+      <c r="F371" t="inlineStr"/>
+      <c r="G371" t="inlineStr"/>
+      <c r="H371" t="inlineStr"/>
+      <c r="I371" t="inlineStr"/>
+      <c r="J371" t="inlineStr"/>
+      <c r="K371" t="inlineStr"/>
+      <c r="L371" t="inlineStr"/>
+      <c r="M371" t="inlineStr"/>
+      <c r="N371" t="inlineStr"/>
+      <c r="O371" t="n">
+        <v>0</v>
+      </c>
+      <c r="P371" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q371" t="n">
+        <v>0</v>
+      </c>
+      <c r="R371" t="n">
+        <v>0</v>
+      </c>
+      <c r="S371" t="n">
+        <v>0</v>
+      </c>
+      <c r="T371" t="n">
+        <v>0</v>
+      </c>
+      <c r="U371" t="n">
+        <v>0</v>
+      </c>
+      <c r="V371" t="n">
+        <v>0</v>
+      </c>
+      <c r="W371" t="n">
+        <v>0</v>
+      </c>
+      <c r="X371" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y371" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z371" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr"/>
+      <c r="B372" t="n">
+        <v>18</v>
+      </c>
+      <c r="C372" t="inlineStr">
+        <is>
+          <t>SID_ＨＰ・幸運＋１０;</t>
+        </is>
+      </c>
+      <c r="D372" t="inlineStr">
+        <is>
+          <t>SID_幸運＋１０;</t>
+        </is>
+      </c>
+      <c r="E372" t="inlineStr"/>
+      <c r="F372" t="inlineStr"/>
+      <c r="G372" t="inlineStr"/>
+      <c r="H372" t="inlineStr"/>
+      <c r="I372" t="inlineStr"/>
+      <c r="J372" t="inlineStr"/>
+      <c r="K372" t="inlineStr"/>
+      <c r="L372" t="inlineStr"/>
+      <c r="M372" t="inlineStr"/>
+      <c r="N372" t="inlineStr"/>
+      <c r="O372" t="n">
+        <v>0</v>
+      </c>
+      <c r="P372" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q372" t="n">
+        <v>0</v>
+      </c>
+      <c r="R372" t="n">
+        <v>0</v>
+      </c>
+      <c r="S372" t="n">
+        <v>0</v>
+      </c>
+      <c r="T372" t="n">
+        <v>0</v>
+      </c>
+      <c r="U372" t="n">
+        <v>0</v>
+      </c>
+      <c r="V372" t="n">
+        <v>0</v>
+      </c>
+      <c r="W372" t="n">
+        <v>0</v>
+      </c>
+      <c r="X372" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y372" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z372" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr"/>
+      <c r="B373" t="n">
+        <v>19</v>
+      </c>
+      <c r="C373" t="inlineStr">
+        <is>
+          <t>SID_命玉の加護＋＋;SID_対特殊５;</t>
+        </is>
+      </c>
+      <c r="D373" t="inlineStr">
+        <is>
+          <t>SID_命玉の加護＋＋;</t>
+        </is>
+      </c>
+      <c r="E373" t="inlineStr"/>
+      <c r="F373" t="inlineStr"/>
+      <c r="G373" t="inlineStr"/>
+      <c r="H373" t="inlineStr"/>
+      <c r="I373" t="inlineStr"/>
+      <c r="J373" t="inlineStr"/>
+      <c r="K373" t="inlineStr"/>
+      <c r="L373" t="inlineStr"/>
+      <c r="M373" t="inlineStr"/>
+      <c r="N373" t="inlineStr"/>
+      <c r="O373" t="n">
+        <v>0</v>
+      </c>
+      <c r="P373" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q373" t="n">
+        <v>0</v>
+      </c>
+      <c r="R373" t="n">
+        <v>0</v>
+      </c>
+      <c r="S373" t="n">
+        <v>0</v>
+      </c>
+      <c r="T373" t="n">
+        <v>0</v>
+      </c>
+      <c r="U373" t="n">
+        <v>0</v>
+      </c>
+      <c r="V373" t="n">
+        <v>0</v>
+      </c>
+      <c r="W373" t="n">
+        <v>0</v>
+      </c>
+      <c r="X373" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y373" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z373" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr"/>
+      <c r="B374" t="n">
+        <v>20</v>
+      </c>
+      <c r="C374" t="inlineStr"/>
+      <c r="D374" t="inlineStr"/>
+      <c r="E374" t="inlineStr"/>
+      <c r="F374" t="inlineStr"/>
+      <c r="G374" t="inlineStr"/>
+      <c r="H374" t="inlineStr"/>
+      <c r="I374" t="inlineStr"/>
+      <c r="J374" t="inlineStr"/>
+      <c r="K374" t="inlineStr"/>
+      <c r="L374" t="inlineStr"/>
+      <c r="M374" t="inlineStr"/>
+      <c r="N374" t="inlineStr"/>
+      <c r="O374" t="n">
+        <v>0</v>
+      </c>
+      <c r="P374" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q374" t="n">
+        <v>0</v>
+      </c>
+      <c r="R374" t="n">
+        <v>0</v>
+      </c>
+      <c r="S374" t="n">
+        <v>0</v>
+      </c>
+      <c r="T374" t="n">
+        <v>0</v>
+      </c>
+      <c r="U374" t="n">
+        <v>0</v>
+      </c>
+      <c r="V374" t="n">
+        <v>0</v>
+      </c>
+      <c r="W374" t="n">
+        <v>0</v>
+      </c>
+      <c r="X374" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y374" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z374" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>GGID_ヘクトル</t>
+        </is>
+      </c>
+      <c r="B375" t="n">
+        <v>0</v>
+      </c>
+      <c r="C375" t="inlineStr"/>
+      <c r="D375" t="inlineStr"/>
+      <c r="E375" t="inlineStr"/>
+      <c r="F375" t="inlineStr"/>
+      <c r="G375" t="inlineStr"/>
+      <c r="H375" t="inlineStr"/>
+      <c r="I375" t="inlineStr"/>
+      <c r="J375" t="inlineStr"/>
+      <c r="K375" t="inlineStr"/>
+      <c r="L375" t="inlineStr"/>
+      <c r="M375" t="inlineStr"/>
+      <c r="N375" t="inlineStr"/>
+      <c r="O375" t="n">
+        <v>0</v>
+      </c>
+      <c r="P375" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q375" t="n">
+        <v>0</v>
+      </c>
+      <c r="R375" t="n">
+        <v>0</v>
+      </c>
+      <c r="S375" t="n">
+        <v>0</v>
+      </c>
+      <c r="T375" t="n">
+        <v>0</v>
+      </c>
+      <c r="U375" t="n">
+        <v>0</v>
+      </c>
+      <c r="V375" t="n">
+        <v>0</v>
+      </c>
+      <c r="W375" t="n">
+        <v>0</v>
+      </c>
+      <c r="X375" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y375" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z375" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>GGID_ヴェロニカ</t>
+        </is>
+      </c>
+      <c r="B376" t="n">
+        <v>0</v>
+      </c>
+      <c r="C376" t="inlineStr"/>
+      <c r="D376" t="inlineStr"/>
+      <c r="E376" t="inlineStr"/>
+      <c r="F376" t="inlineStr"/>
+      <c r="G376" t="inlineStr"/>
+      <c r="H376" t="inlineStr"/>
+      <c r="I376" t="inlineStr"/>
+      <c r="J376" t="inlineStr"/>
+      <c r="K376" t="inlineStr"/>
+      <c r="L376" t="inlineStr"/>
+      <c r="M376" t="inlineStr"/>
+      <c r="N376" t="inlineStr"/>
+      <c r="O376" t="n">
+        <v>0</v>
+      </c>
+      <c r="P376" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q376" t="n">
+        <v>0</v>
+      </c>
+      <c r="R376" t="n">
+        <v>0</v>
+      </c>
+      <c r="S376" t="n">
+        <v>0</v>
+      </c>
+      <c r="T376" t="n">
+        <v>0</v>
+      </c>
+      <c r="U376" t="n">
+        <v>0</v>
+      </c>
+      <c r="V376" t="n">
+        <v>0</v>
+      </c>
+      <c r="W376" t="n">
+        <v>0</v>
+      </c>
+      <c r="X376" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y376" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z376" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>GGID_セネリオ</t>
+        </is>
+      </c>
+      <c r="B377" t="n">
+        <v>0</v>
+      </c>
+      <c r="C377" t="inlineStr"/>
+      <c r="D377" t="inlineStr"/>
+      <c r="E377" t="inlineStr"/>
+      <c r="F377" t="inlineStr"/>
+      <c r="G377" t="inlineStr"/>
+      <c r="H377" t="inlineStr"/>
+      <c r="I377" t="inlineStr"/>
+      <c r="J377" t="inlineStr"/>
+      <c r="K377" t="inlineStr"/>
+      <c r="L377" t="inlineStr"/>
+      <c r="M377" t="inlineStr"/>
+      <c r="N377" t="inlineStr"/>
+      <c r="O377" t="n">
+        <v>0</v>
+      </c>
+      <c r="P377" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q377" t="n">
+        <v>0</v>
+      </c>
+      <c r="R377" t="n">
+        <v>0</v>
+      </c>
+      <c r="S377" t="n">
+        <v>0</v>
+      </c>
+      <c r="T377" t="n">
+        <v>0</v>
+      </c>
+      <c r="U377" t="n">
+        <v>0</v>
+      </c>
+      <c r="V377" t="n">
+        <v>0</v>
+      </c>
+      <c r="W377" t="n">
+        <v>0</v>
+      </c>
+      <c r="X377" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y377" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z377" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>GGID_カミラ</t>
+        </is>
+      </c>
+      <c r="B378" t="n">
+        <v>0</v>
+      </c>
+      <c r="C378" t="inlineStr"/>
+      <c r="D378" t="inlineStr"/>
+      <c r="E378" t="inlineStr"/>
+      <c r="F378" t="inlineStr"/>
+      <c r="G378" t="inlineStr"/>
+      <c r="H378" t="inlineStr"/>
+      <c r="I378" t="inlineStr"/>
+      <c r="J378" t="inlineStr"/>
+      <c r="K378" t="inlineStr"/>
+      <c r="L378" t="inlineStr"/>
+      <c r="M378" t="inlineStr"/>
+      <c r="N378" t="inlineStr"/>
+      <c r="O378" t="n">
+        <v>0</v>
+      </c>
+      <c r="P378" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q378" t="n">
+        <v>0</v>
+      </c>
+      <c r="R378" t="n">
+        <v>0</v>
+      </c>
+      <c r="S378" t="n">
+        <v>0</v>
+      </c>
+      <c r="T378" t="n">
+        <v>0</v>
+      </c>
+      <c r="U378" t="n">
+        <v>0</v>
+      </c>
+      <c r="V378" t="n">
+        <v>0</v>
+      </c>
+      <c r="W378" t="n">
+        <v>0</v>
+      </c>
+      <c r="X378" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y378" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z378" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>GGID_クロム</t>
+        </is>
+      </c>
+      <c r="B379" t="n">
+        <v>0</v>
+      </c>
+      <c r="C379" t="inlineStr"/>
+      <c r="D379" t="inlineStr"/>
+      <c r="E379" t="inlineStr"/>
+      <c r="F379" t="inlineStr"/>
+      <c r="G379" t="inlineStr"/>
+      <c r="H379" t="inlineStr"/>
+      <c r="I379" t="inlineStr"/>
+      <c r="J379" t="inlineStr"/>
+      <c r="K379" t="inlineStr"/>
+      <c r="L379" t="inlineStr"/>
+      <c r="M379" t="inlineStr"/>
+      <c r="N379" t="inlineStr"/>
+      <c r="O379" t="n">
+        <v>0</v>
+      </c>
+      <c r="P379" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q379" t="n">
+        <v>0</v>
+      </c>
+      <c r="R379" t="n">
+        <v>0</v>
+      </c>
+      <c r="S379" t="n">
+        <v>0</v>
+      </c>
+      <c r="T379" t="n">
+        <v>0</v>
+      </c>
+      <c r="U379" t="n">
+        <v>0</v>
+      </c>
+      <c r="V379" t="n">
+        <v>0</v>
+      </c>
+      <c r="W379" t="n">
+        <v>0</v>
+      </c>
+      <c r="X379" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y379" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z379" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>GGID_E001_敵チキ</t>
+        </is>
+      </c>
+      <c r="B380" t="n">
+        <v>0</v>
+      </c>
+      <c r="C380" t="inlineStr"/>
+      <c r="D380" t="inlineStr"/>
+      <c r="E380" t="inlineStr"/>
+      <c r="F380" t="inlineStr"/>
+      <c r="G380" t="inlineStr"/>
+      <c r="H380" t="inlineStr"/>
+      <c r="I380" t="inlineStr"/>
+      <c r="J380" t="inlineStr"/>
+      <c r="K380" t="inlineStr"/>
+      <c r="L380" t="inlineStr"/>
+      <c r="M380" t="inlineStr"/>
+      <c r="N380" t="inlineStr"/>
+      <c r="O380" t="n">
+        <v>0</v>
+      </c>
+      <c r="P380" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q380" t="n">
+        <v>0</v>
+      </c>
+      <c r="R380" t="n">
+        <v>0</v>
+      </c>
+      <c r="S380" t="n">
+        <v>0</v>
+      </c>
+      <c r="T380" t="n">
+        <v>0</v>
+      </c>
+      <c r="U380" t="n">
+        <v>0</v>
+      </c>
+      <c r="V380" t="n">
+        <v>0</v>
+      </c>
+      <c r="W380" t="n">
+        <v>0</v>
+      </c>
+      <c r="X380" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y380" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z380" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>GGID_E002_敵ヘクトル</t>
+        </is>
+      </c>
+      <c r="B381" t="n">
+        <v>0</v>
+      </c>
+      <c r="C381" t="inlineStr"/>
+      <c r="D381" t="inlineStr"/>
+      <c r="E381" t="inlineStr"/>
+      <c r="F381" t="inlineStr"/>
+      <c r="G381" t="inlineStr"/>
+      <c r="H381" t="inlineStr"/>
+      <c r="I381" t="inlineStr"/>
+      <c r="J381" t="inlineStr"/>
+      <c r="K381" t="inlineStr"/>
+      <c r="L381" t="inlineStr"/>
+      <c r="M381" t="inlineStr"/>
+      <c r="N381" t="inlineStr"/>
+      <c r="O381" t="n">
+        <v>0</v>
+      </c>
+      <c r="P381" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q381" t="n">
+        <v>0</v>
+      </c>
+      <c r="R381" t="n">
+        <v>0</v>
+      </c>
+      <c r="S381" t="n">
+        <v>0</v>
+      </c>
+      <c r="T381" t="n">
+        <v>0</v>
+      </c>
+      <c r="U381" t="n">
+        <v>0</v>
+      </c>
+      <c r="V381" t="n">
+        <v>0</v>
+      </c>
+      <c r="W381" t="n">
+        <v>0</v>
+      </c>
+      <c r="X381" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y381" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z381" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>GGID_E003_敵ヴェロニカ</t>
+        </is>
+      </c>
+      <c r="B382" t="n">
+        <v>0</v>
+      </c>
+      <c r="C382" t="inlineStr"/>
+      <c r="D382" t="inlineStr"/>
+      <c r="E382" t="inlineStr"/>
+      <c r="F382" t="inlineStr"/>
+      <c r="G382" t="inlineStr"/>
+      <c r="H382" t="inlineStr"/>
+      <c r="I382" t="inlineStr"/>
+      <c r="J382" t="inlineStr"/>
+      <c r="K382" t="inlineStr"/>
+      <c r="L382" t="inlineStr"/>
+      <c r="M382" t="inlineStr"/>
+      <c r="N382" t="inlineStr"/>
+      <c r="O382" t="n">
+        <v>0</v>
+      </c>
+      <c r="P382" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q382" t="n">
+        <v>0</v>
+      </c>
+      <c r="R382" t="n">
+        <v>0</v>
+      </c>
+      <c r="S382" t="n">
+        <v>0</v>
+      </c>
+      <c r="T382" t="n">
+        <v>0</v>
+      </c>
+      <c r="U382" t="n">
+        <v>0</v>
+      </c>
+      <c r="V382" t="n">
+        <v>0</v>
+      </c>
+      <c r="W382" t="n">
+        <v>0</v>
+      </c>
+      <c r="X382" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y382" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z382" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>GGID_E004_敵セネリオ</t>
+        </is>
+      </c>
+      <c r="B383" t="n">
+        <v>0</v>
+      </c>
+      <c r="C383" t="inlineStr"/>
+      <c r="D383" t="inlineStr"/>
+      <c r="E383" t="inlineStr"/>
+      <c r="F383" t="inlineStr"/>
+      <c r="G383" t="inlineStr"/>
+      <c r="H383" t="inlineStr"/>
+      <c r="I383" t="inlineStr"/>
+      <c r="J383" t="inlineStr"/>
+      <c r="K383" t="inlineStr"/>
+      <c r="L383" t="inlineStr"/>
+      <c r="M383" t="inlineStr"/>
+      <c r="N383" t="inlineStr"/>
+      <c r="O383" t="n">
+        <v>0</v>
+      </c>
+      <c r="P383" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q383" t="n">
+        <v>0</v>
+      </c>
+      <c r="R383" t="n">
+        <v>0</v>
+      </c>
+      <c r="S383" t="n">
+        <v>0</v>
+      </c>
+      <c r="T383" t="n">
+        <v>0</v>
+      </c>
+      <c r="U383" t="n">
+        <v>0</v>
+      </c>
+      <c r="V383" t="n">
+        <v>0</v>
+      </c>
+      <c r="W383" t="n">
+        <v>0</v>
+      </c>
+      <c r="X383" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y383" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z383" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>GGID_E004_敵カミラ</t>
+        </is>
+      </c>
+      <c r="B384" t="n">
+        <v>0</v>
+      </c>
+      <c r="C384" t="inlineStr"/>
+      <c r="D384" t="inlineStr"/>
+      <c r="E384" t="inlineStr"/>
+      <c r="F384" t="inlineStr"/>
+      <c r="G384" t="inlineStr"/>
+      <c r="H384" t="inlineStr"/>
+      <c r="I384" t="inlineStr"/>
+      <c r="J384" t="inlineStr"/>
+      <c r="K384" t="inlineStr"/>
+      <c r="L384" t="inlineStr"/>
+      <c r="M384" t="inlineStr"/>
+      <c r="N384" t="inlineStr"/>
+      <c r="O384" t="n">
+        <v>0</v>
+      </c>
+      <c r="P384" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q384" t="n">
+        <v>0</v>
+      </c>
+      <c r="R384" t="n">
+        <v>0</v>
+      </c>
+      <c r="S384" t="n">
+        <v>0</v>
+      </c>
+      <c r="T384" t="n">
+        <v>0</v>
+      </c>
+      <c r="U384" t="n">
+        <v>0</v>
+      </c>
+      <c r="V384" t="n">
+        <v>0</v>
+      </c>
+      <c r="W384" t="n">
+        <v>0</v>
+      </c>
+      <c r="X384" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y384" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z384" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>GGID_E005_敵クロム</t>
+        </is>
+      </c>
+      <c r="B385" t="n">
+        <v>0</v>
+      </c>
+      <c r="C385" t="inlineStr"/>
+      <c r="D385" t="inlineStr"/>
+      <c r="E385" t="inlineStr"/>
+      <c r="F385" t="inlineStr"/>
+      <c r="G385" t="inlineStr"/>
+      <c r="H385" t="inlineStr"/>
+      <c r="I385" t="inlineStr"/>
+      <c r="J385" t="inlineStr"/>
+      <c r="K385" t="inlineStr"/>
+      <c r="L385" t="inlineStr"/>
+      <c r="M385" t="inlineStr"/>
+      <c r="N385" t="inlineStr"/>
+      <c r="O385" t="n">
+        <v>0</v>
+      </c>
+      <c r="P385" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q385" t="n">
+        <v>0</v>
+      </c>
+      <c r="R385" t="n">
+        <v>0</v>
+      </c>
+      <c r="S385" t="n">
+        <v>0</v>
+      </c>
+      <c r="T385" t="n">
+        <v>0</v>
+      </c>
+      <c r="U385" t="n">
+        <v>0</v>
+      </c>
+      <c r="V385" t="n">
+        <v>0</v>
+      </c>
+      <c r="W385" t="n">
+        <v>0</v>
+      </c>
+      <c r="X385" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y385" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z385" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>GGID_E005_敵ヘクトル</t>
+        </is>
+      </c>
+      <c r="B386" t="n">
+        <v>0</v>
+      </c>
+      <c r="C386" t="inlineStr"/>
+      <c r="D386" t="inlineStr"/>
+      <c r="E386" t="inlineStr"/>
+      <c r="F386" t="inlineStr"/>
+      <c r="G386" t="inlineStr"/>
+      <c r="H386" t="inlineStr"/>
+      <c r="I386" t="inlineStr"/>
+      <c r="J386" t="inlineStr"/>
+      <c r="K386" t="inlineStr"/>
+      <c r="L386" t="inlineStr"/>
+      <c r="M386" t="inlineStr"/>
+      <c r="N386" t="inlineStr"/>
+      <c r="O386" t="n">
+        <v>0</v>
+      </c>
+      <c r="P386" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q386" t="n">
+        <v>0</v>
+      </c>
+      <c r="R386" t="n">
+        <v>0</v>
+      </c>
+      <c r="S386" t="n">
+        <v>0</v>
+      </c>
+      <c r="T386" t="n">
+        <v>0</v>
+      </c>
+      <c r="U386" t="n">
+        <v>0</v>
+      </c>
+      <c r="V386" t="n">
+        <v>0</v>
+      </c>
+      <c r="W386" t="n">
+        <v>0</v>
+      </c>
+      <c r="X386" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y386" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z386" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>GGID_E005_敵ヴェロニカ</t>
+        </is>
+      </c>
+      <c r="B387" t="n">
+        <v>0</v>
+      </c>
+      <c r="C387" t="inlineStr"/>
+      <c r="D387" t="inlineStr"/>
+      <c r="E387" t="inlineStr"/>
+      <c r="F387" t="inlineStr"/>
+      <c r="G387" t="inlineStr"/>
+      <c r="H387" t="inlineStr"/>
+      <c r="I387" t="inlineStr"/>
+      <c r="J387" t="inlineStr"/>
+      <c r="K387" t="inlineStr"/>
+      <c r="L387" t="inlineStr"/>
+      <c r="M387" t="inlineStr"/>
+      <c r="N387" t="inlineStr"/>
+      <c r="O387" t="n">
+        <v>0</v>
+      </c>
+      <c r="P387" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q387" t="n">
+        <v>0</v>
+      </c>
+      <c r="R387" t="n">
+        <v>0</v>
+      </c>
+      <c r="S387" t="n">
+        <v>0</v>
+      </c>
+      <c r="T387" t="n">
+        <v>0</v>
+      </c>
+      <c r="U387" t="n">
+        <v>0</v>
+      </c>
+      <c r="V387" t="n">
+        <v>0</v>
+      </c>
+      <c r="W387" t="n">
+        <v>0</v>
+      </c>
+      <c r="X387" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y387" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z387" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>GGID_E006_敵チキ</t>
+        </is>
+      </c>
+      <c r="B388" t="n">
+        <v>0</v>
+      </c>
+      <c r="C388" t="inlineStr"/>
+      <c r="D388" t="inlineStr"/>
+      <c r="E388" t="inlineStr"/>
+      <c r="F388" t="inlineStr"/>
+      <c r="G388" t="inlineStr"/>
+      <c r="H388" t="inlineStr"/>
+      <c r="I388" t="inlineStr"/>
+      <c r="J388" t="inlineStr"/>
+      <c r="K388" t="inlineStr"/>
+      <c r="L388" t="inlineStr"/>
+      <c r="M388" t="inlineStr"/>
+      <c r="N388" t="inlineStr"/>
+      <c r="O388" t="n">
+        <v>0</v>
+      </c>
+      <c r="P388" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q388" t="n">
+        <v>0</v>
+      </c>
+      <c r="R388" t="n">
+        <v>0</v>
+      </c>
+      <c r="S388" t="n">
+        <v>0</v>
+      </c>
+      <c r="T388" t="n">
+        <v>0</v>
+      </c>
+      <c r="U388" t="n">
+        <v>0</v>
+      </c>
+      <c r="V388" t="n">
+        <v>0</v>
+      </c>
+      <c r="W388" t="n">
+        <v>0</v>
+      </c>
+      <c r="X388" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y388" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z388" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>GGID_E006_敵ヘクトル</t>
+        </is>
+      </c>
+      <c r="B389" t="n">
+        <v>0</v>
+      </c>
+      <c r="C389" t="inlineStr"/>
+      <c r="D389" t="inlineStr"/>
+      <c r="E389" t="inlineStr"/>
+      <c r="F389" t="inlineStr"/>
+      <c r="G389" t="inlineStr"/>
+      <c r="H389" t="inlineStr"/>
+      <c r="I389" t="inlineStr"/>
+      <c r="J389" t="inlineStr"/>
+      <c r="K389" t="inlineStr"/>
+      <c r="L389" t="inlineStr"/>
+      <c r="M389" t="inlineStr"/>
+      <c r="N389" t="inlineStr"/>
+      <c r="O389" t="n">
+        <v>0</v>
+      </c>
+      <c r="P389" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q389" t="n">
+        <v>0</v>
+      </c>
+      <c r="R389" t="n">
+        <v>0</v>
+      </c>
+      <c r="S389" t="n">
+        <v>0</v>
+      </c>
+      <c r="T389" t="n">
+        <v>0</v>
+      </c>
+      <c r="U389" t="n">
+        <v>0</v>
+      </c>
+      <c r="V389" t="n">
+        <v>0</v>
+      </c>
+      <c r="W389" t="n">
+        <v>0</v>
+      </c>
+      <c r="X389" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y389" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z389" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>GGID_E006_敵ヴェロニカ</t>
+        </is>
+      </c>
+      <c r="B390" t="n">
+        <v>0</v>
+      </c>
+      <c r="C390" t="inlineStr"/>
+      <c r="D390" t="inlineStr"/>
+      <c r="E390" t="inlineStr"/>
+      <c r="F390" t="inlineStr"/>
+      <c r="G390" t="inlineStr"/>
+      <c r="H390" t="inlineStr"/>
+      <c r="I390" t="inlineStr"/>
+      <c r="J390" t="inlineStr"/>
+      <c r="K390" t="inlineStr"/>
+      <c r="L390" t="inlineStr"/>
+      <c r="M390" t="inlineStr"/>
+      <c r="N390" t="inlineStr"/>
+      <c r="O390" t="n">
+        <v>0</v>
+      </c>
+      <c r="P390" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q390" t="n">
+        <v>0</v>
+      </c>
+      <c r="R390" t="n">
+        <v>0</v>
+      </c>
+      <c r="S390" t="n">
+        <v>0</v>
+      </c>
+      <c r="T390" t="n">
+        <v>0</v>
+      </c>
+      <c r="U390" t="n">
+        <v>0</v>
+      </c>
+      <c r="V390" t="n">
+        <v>0</v>
+      </c>
+      <c r="W390" t="n">
+        <v>0</v>
+      </c>
+      <c r="X390" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y390" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z390" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>GGID_E006_敵セネリオ</t>
+        </is>
+      </c>
+      <c r="B391" t="n">
+        <v>0</v>
+      </c>
+      <c r="C391" t="inlineStr"/>
+      <c r="D391" t="inlineStr"/>
+      <c r="E391" t="inlineStr"/>
+      <c r="F391" t="inlineStr"/>
+      <c r="G391" t="inlineStr"/>
+      <c r="H391" t="inlineStr"/>
+      <c r="I391" t="inlineStr"/>
+      <c r="J391" t="inlineStr"/>
+      <c r="K391" t="inlineStr"/>
+      <c r="L391" t="inlineStr"/>
+      <c r="M391" t="inlineStr"/>
+      <c r="N391" t="inlineStr"/>
+      <c r="O391" t="n">
+        <v>0</v>
+      </c>
+      <c r="P391" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q391" t="n">
+        <v>0</v>
+      </c>
+      <c r="R391" t="n">
+        <v>0</v>
+      </c>
+      <c r="S391" t="n">
+        <v>0</v>
+      </c>
+      <c r="T391" t="n">
+        <v>0</v>
+      </c>
+      <c r="U391" t="n">
+        <v>0</v>
+      </c>
+      <c r="V391" t="n">
+        <v>0</v>
+      </c>
+      <c r="W391" t="n">
+        <v>0</v>
+      </c>
+      <c r="X391" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y391" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z391" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>GGID_E006_敵カミラ</t>
+        </is>
+      </c>
+      <c r="B392" t="n">
+        <v>0</v>
+      </c>
+      <c r="C392" t="inlineStr"/>
+      <c r="D392" t="inlineStr"/>
+      <c r="E392" t="inlineStr"/>
+      <c r="F392" t="inlineStr"/>
+      <c r="G392" t="inlineStr"/>
+      <c r="H392" t="inlineStr"/>
+      <c r="I392" t="inlineStr"/>
+      <c r="J392" t="inlineStr"/>
+      <c r="K392" t="inlineStr"/>
+      <c r="L392" t="inlineStr"/>
+      <c r="M392" t="inlineStr"/>
+      <c r="N392" t="inlineStr"/>
+      <c r="O392" t="n">
+        <v>0</v>
+      </c>
+      <c r="P392" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q392" t="n">
+        <v>0</v>
+      </c>
+      <c r="R392" t="n">
+        <v>0</v>
+      </c>
+      <c r="S392" t="n">
+        <v>0</v>
+      </c>
+      <c r="T392" t="n">
+        <v>0</v>
+      </c>
+      <c r="U392" t="n">
+        <v>0</v>
+      </c>
+      <c r="V392" t="n">
+        <v>0</v>
+      </c>
+      <c r="W392" t="n">
+        <v>0</v>
+      </c>
+      <c r="X392" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y392" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z392" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>GGID_E006_敵クロム</t>
+        </is>
+      </c>
+      <c r="B393" t="n">
+        <v>0</v>
+      </c>
+      <c r="C393" t="inlineStr"/>
+      <c r="D393" t="inlineStr"/>
+      <c r="E393" t="inlineStr"/>
+      <c r="F393" t="inlineStr"/>
+      <c r="G393" t="inlineStr"/>
+      <c r="H393" t="inlineStr"/>
+      <c r="I393" t="inlineStr"/>
+      <c r="J393" t="inlineStr"/>
+      <c r="K393" t="inlineStr"/>
+      <c r="L393" t="inlineStr"/>
+      <c r="M393" t="inlineStr"/>
+      <c r="N393" t="inlineStr"/>
+      <c r="O393" t="n">
+        <v>0</v>
+      </c>
+      <c r="P393" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q393" t="n">
+        <v>0</v>
+      </c>
+      <c r="R393" t="n">
+        <v>0</v>
+      </c>
+      <c r="S393" t="n">
+        <v>0</v>
+      </c>
+      <c r="T393" t="n">
+        <v>0</v>
+      </c>
+      <c r="U393" t="n">
+        <v>0</v>
+      </c>
+      <c r="V393" t="n">
+        <v>0</v>
+      </c>
+      <c r="W393" t="n">
+        <v>0</v>
+      </c>
+      <c r="X393" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y393" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z393" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>GGID_E006_敵エーデルガルト</t>
+        </is>
+      </c>
+      <c r="B394" t="n">
+        <v>0</v>
+      </c>
+      <c r="C394" t="inlineStr"/>
+      <c r="D394" t="inlineStr"/>
+      <c r="E394" t="inlineStr"/>
+      <c r="F394" t="inlineStr"/>
+      <c r="G394" t="inlineStr"/>
+      <c r="H394" t="inlineStr"/>
+      <c r="I394" t="inlineStr"/>
+      <c r="J394" t="inlineStr"/>
+      <c r="K394" t="inlineStr"/>
+      <c r="L394" t="inlineStr"/>
+      <c r="M394" t="inlineStr"/>
+      <c r="N394" t="inlineStr"/>
+      <c r="O394" t="n">
+        <v>0</v>
+      </c>
+      <c r="P394" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q394" t="n">
+        <v>0</v>
+      </c>
+      <c r="R394" t="n">
+        <v>0</v>
+      </c>
+      <c r="S394" t="n">
+        <v>0</v>
+      </c>
+      <c r="T394" t="n">
+        <v>0</v>
+      </c>
+      <c r="U394" t="n">
+        <v>0</v>
+      </c>
+      <c r="V394" t="n">
+        <v>0</v>
+      </c>
+      <c r="W394" t="n">
+        <v>0</v>
+      </c>
+      <c r="X394" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y394" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z394" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/xlsx/God.xlsx
+++ b/data/xlsx/God.xlsx
@@ -418,7 +418,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AX74"/>
+  <dimension ref="A1:AX80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
@@ -1837,12 +1837,12 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>葉</t>
+          <t>Leaf</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>葉</t>
+          <t>Leaf</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -3886,12 +3886,12 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>葉</t>
+          <t>Leaf</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>葉</t>
+          <t>Leaf</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -5124,12 +5124,12 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>葉</t>
+          <t>Leaf</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>葉</t>
+          <t>Leaf</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -6225,12 +6225,12 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>葉</t>
+          <t>Leaf</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>葉</t>
+          <t>Leaf</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -9712,12 +9712,12 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>葉</t>
+          <t>Leaf</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>葉</t>
+          <t>Leaf</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -11208,7 +11208,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>MGID_Edelgard</t>
+          <t>艾黛尔贾特</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -11218,7 +11218,9 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>MGID_H_Edelgard</t>
+          <t>人称“三鼎纹章士”。
+是位气质高贵又不失威严的炎之皇女。
+精通斧术，能用强大的攻击让敌人粉身碎骨。</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -11248,12 +11250,13 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>MGID_Ring_Edelgard</t>
+          <t>三位级长的手镯</t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>MGID_H_Ring_Edelgard</t>
+          <t>人称“三鼎纹章士”艾黛尔贾特所寄宿的手镯。
+是位气质高贵又不失威严的炎之皇女。</t>
         </is>
       </c>
       <c r="M67" t="inlineStr">
@@ -11288,13 +11291,13 @@
       </c>
       <c r="W67" t="inlineStr">
         <is>
-          <t>SID_三級長エンゲージ技</t>
+          <t>连花月风闪</t>
         </is>
       </c>
       <c r="X67" t="inlineStr"/>
       <c r="Y67" t="inlineStr">
         <is>
-          <t>SID_三級長エンゲージ技＋</t>
+          <t>连花月风闪+</t>
         </is>
       </c>
       <c r="Z67" t="inlineStr">
@@ -11318,7 +11321,7 @@
       <c r="AD67" t="inlineStr"/>
       <c r="AE67" t="inlineStr">
         <is>
-          <t>MGEID_Edelgard</t>
+          <t>三鼎纹章</t>
         </is>
       </c>
       <c r="AF67" t="n">
@@ -11388,7 +11391,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>MGID_Dimitri</t>
+          <t>帝弥托利</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -11398,7 +11401,9 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>MGID_H_Dimitri</t>
+          <t>人称“三鼎纹章士”。
+是位聪明又有礼貌的骑士之国王子。
+精通枪术、身手矫捷，能先发制人。</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -11428,12 +11433,13 @@
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>MGID_Ring_Dimitri</t>
+          <t>三位级长的手镯</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>MGID_H_Ring_Dimitri</t>
+          <t>人称“三鼎纹章士”帝弥托利所寄宿的手镯。
+是位聪明又有礼貌的骑士之国王子。</t>
         </is>
       </c>
       <c r="M68" t="inlineStr">
@@ -11468,13 +11474,13 @@
       </c>
       <c r="W68" t="inlineStr">
         <is>
-          <t>SID_三級長エンゲージ技</t>
+          <t>连花月风闪</t>
         </is>
       </c>
       <c r="X68" t="inlineStr"/>
       <c r="Y68" t="inlineStr">
         <is>
-          <t>SID_三級長エンゲージ技＋</t>
+          <t>连花月风闪+</t>
         </is>
       </c>
       <c r="Z68" t="inlineStr">
@@ -11568,7 +11574,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>MGID_Claude</t>
+          <t>库罗德</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -11578,7 +11584,9 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>MGID_H_Claude</t>
+          <t>人称“三鼎纹章士”。
+是位喜欢谋略，个性洒脱的盟主嫡子。
+精通弓术，有许多绝妙的战术。</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -11608,12 +11616,13 @@
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>MGID_Ring_Claude</t>
+          <t>三位级长的手镯</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>MGID_H_Ring_Claude</t>
+          <t>人称“三鼎纹章士”库罗德所寄宿的手镯。
+是位喜欢谋略，个性洒脱的盟主嫡子。</t>
         </is>
       </c>
       <c r="M69" t="inlineStr">
@@ -11648,13 +11657,13 @@
       </c>
       <c r="W69" t="inlineStr">
         <is>
-          <t>SID_三級長エンゲージ技</t>
+          <t>连花月风闪</t>
         </is>
       </c>
       <c r="X69" t="inlineStr"/>
       <c r="Y69" t="inlineStr">
         <is>
-          <t>SID_三級長エンゲージ技＋</t>
+          <t>连花月风闪+</t>
         </is>
       </c>
       <c r="Z69" t="inlineStr">
@@ -11748,7 +11757,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>MGID_Tiki</t>
+          <t>琪姬</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -11758,7 +11767,9 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>MGID_H_Tiki</t>
+          <t>人称“龙姬纹章士”。
+是位继承了神龙族血脉的纯真少女。
+能化身成龙并用吐息将敌人一扫而空。</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -11788,12 +11799,13 @@
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>MGID_Ring_Tiki</t>
+          <t>先祖神龙的手镯</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>MGID_H_Ring_Tiki</t>
+          <t>人称“龙姬纹章士”琪姬所寄宿的手镯。
+是位继承了神龙族血脉的纯真少女。</t>
         </is>
       </c>
       <c r="M70" t="inlineStr">
@@ -11824,13 +11836,13 @@
       </c>
       <c r="W70" t="inlineStr">
         <is>
-          <t>SID_チキエンゲージ技</t>
+          <t>神龙的祝福</t>
         </is>
       </c>
       <c r="X70" t="inlineStr"/>
       <c r="Y70" t="inlineStr">
         <is>
-          <t>SID_チキエンゲージ技＋</t>
+          <t>神龙的祝福+</t>
         </is>
       </c>
       <c r="Z70" t="inlineStr">
@@ -11854,7 +11866,7 @@
       <c r="AD70" t="inlineStr"/>
       <c r="AE70" t="inlineStr">
         <is>
-          <t>MGEID_Tiki</t>
+          <t>龙姬纹章</t>
         </is>
       </c>
       <c r="AF70" t="n">
@@ -11919,125 +11931,128 @@
       <c r="A71" t="inlineStr"/>
       <c r="B71" t="inlineStr">
         <is>
-          <t>GID_相手エーデルガルト</t>
+          <t>GID_ヘクトル</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>MGID_Edelgard</t>
+          <t>海克托尔</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>MGID_H_Edelgard_Nickname</t>
+          <t>MGID_H_Hector_Nickname</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>MGID_H_Edelgard</t>
+          <t>人称“天雷纹章士”。
+是位充满自信且勇敢善战的豪爽青年。
+会为了伙伴挺身而出，挥斧即可横扫千军。</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Edelgard</t>
+          <t>Hector</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>DLC_53</t>
+          <t>DLC_48</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>エーデルガルト</t>
+          <t>ヘクトル</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>Face_Edelgard</t>
+          <t>Face_Hector</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>Face_EdelgardDarkness</t>
+          <t>Face_HectorDarkness</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>MGID_Ring_Edelgard</t>
+          <t>热血猛将的手镯</t>
         </is>
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>MGID_H_Ring_Edelgard</t>
+          <t>人称“天雷纹章士”海克托尔所寄宿的手镯。
+是位充满自信且勇敢善战的豪爽青年。</t>
         </is>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>563Edelgard</t>
-        </is>
-      </c>
-      <c r="N71" t="inlineStr">
-        <is>
-          <t>GID_相手エーデルガルト;GID_相手ディミトリ;GID_相手クロード;</t>
-        </is>
-      </c>
+          <t>510Hector</t>
+        </is>
+      </c>
+      <c r="N71" t="inlineStr"/>
       <c r="O71" t="inlineStr"/>
       <c r="P71" t="inlineStr"/>
       <c r="Q71" t="n">
         <v>1</v>
       </c>
       <c r="R71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T71" t="n">
         <v>3</v>
       </c>
       <c r="U71" t="n">
-        <v>0</v>
+        <v>2100</v>
       </c>
       <c r="V71" t="n">
         <v>7</v>
       </c>
       <c r="W71" t="inlineStr">
         <is>
-          <t>SID_三級長エンゲージ技</t>
+          <t>止水雷轰架势</t>
         </is>
       </c>
       <c r="X71" t="inlineStr"/>
       <c r="Y71" t="inlineStr">
         <is>
-          <t>SID_三級長エンゲージ技＋</t>
+          <t>止水雷轰架势+</t>
         </is>
       </c>
       <c r="Z71" t="inlineStr">
         <is>
-          <t>GID_相手ベレト</t>
+          <t>GID_リン</t>
         </is>
       </c>
       <c r="AA71" t="inlineStr">
         <is>
-          <t>GBID_相手エーデルガルト</t>
+          <t>GBID_ヘクトル</t>
         </is>
       </c>
       <c r="AB71" t="inlineStr">
         <is>
-          <t>GGID_エーデルガルト</t>
+          <t>GGID_ヘクトル</t>
         </is>
       </c>
       <c r="AC71" t="n">
-        <v>11</v>
+        <v>99</v>
       </c>
       <c r="AD71" t="inlineStr"/>
-      <c r="AE71" t="inlineStr"/>
+      <c r="AE71" t="inlineStr">
+        <is>
+          <t>天雷纹章</t>
+        </is>
+      </c>
       <c r="AF71" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AG71" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AH71" t="n">
         <v>0</v>
@@ -12046,10 +12061,10 @@
         <v>0</v>
       </c>
       <c r="AJ71" t="n">
-        <v>0</v>
+        <v>-30</v>
       </c>
       <c r="AK71" t="n">
-        <v>0</v>
+        <v>-30</v>
       </c>
       <c r="AL71" t="n">
         <v>0</v>
@@ -12082,135 +12097,138 @@
         <v>0</v>
       </c>
       <c r="AV71" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AW71" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AX71" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr"/>
       <c r="B72" t="inlineStr">
         <is>
-          <t>GID_相手ディミトリ</t>
+          <t>GID_セネリオ</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>MGID_Dimitri</t>
+          <t>塞涅里欧</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>MGID_H_Dimitri_Nickname</t>
+          <t>MGID_H_Senerio_Nickname</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>MGID_H_Dimitri</t>
+          <t>人称“贤风纹章士”。
+是位做事沉着，能冷静下判断的黑衣参谋。
+擅长魔道，精通高等魔法。</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Dimitri</t>
+          <t>Senerio</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>DLC_54</t>
+          <t>DLC_49</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>ディミトリ</t>
+          <t>セネリオ</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>Face_Dimitri</t>
+          <t>Face_Senerio</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>Face_DimitriDarkness</t>
+          <t>Face_SenerioDarkness</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>MGID_Ring_Dimitri</t>
+          <t>苍色参谋的手镯</t>
         </is>
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>MGID_H_Ring_Dimitri</t>
+          <t>人称“贤风纹章士”塞涅里欧所寄宿的手镯。
+是位做事沉着，能冷静下判断的黑衣参谋。</t>
         </is>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>514Dimitri</t>
-        </is>
-      </c>
-      <c r="N72" t="inlineStr">
-        <is>
-          <t>GID_相手エーデルガルト;GID_相手ディミトリ;GID_相手クロード;</t>
-        </is>
-      </c>
+          <t>511Senerio</t>
+        </is>
+      </c>
+      <c r="N72" t="inlineStr"/>
       <c r="O72" t="inlineStr"/>
       <c r="P72" t="inlineStr"/>
       <c r="Q72" t="n">
         <v>1</v>
       </c>
       <c r="R72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S72" t="n">
         <v>0</v>
       </c>
       <c r="T72" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="U72" t="n">
-        <v>0</v>
+        <v>2200</v>
       </c>
       <c r="V72" t="n">
         <v>7</v>
       </c>
       <c r="W72" t="inlineStr">
         <is>
-          <t>SID_三級長エンゲージ技</t>
+          <t>灾厄</t>
         </is>
       </c>
       <c r="X72" t="inlineStr"/>
       <c r="Y72" t="inlineStr">
         <is>
-          <t>SID_三級長エンゲージ技＋</t>
+          <t>灾厄+</t>
         </is>
       </c>
       <c r="Z72" t="inlineStr">
         <is>
-          <t>GID_相手ベレト</t>
+          <t>GID_アイク</t>
         </is>
       </c>
       <c r="AA72" t="inlineStr">
         <is>
-          <t>GBID_相手エーデルガルト</t>
+          <t>GBID_セネリオ</t>
         </is>
       </c>
       <c r="AB72" t="inlineStr">
         <is>
-          <t>GGID_エーデルガルト</t>
+          <t>GGID_セネリオ</t>
         </is>
       </c>
       <c r="AC72" t="n">
-        <v>11</v>
+        <v>99</v>
       </c>
       <c r="AD72" t="inlineStr"/>
-      <c r="AE72" t="inlineStr"/>
+      <c r="AE72" t="inlineStr">
+        <is>
+          <t>贤风纹章</t>
+        </is>
+      </c>
       <c r="AF72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG72" t="n">
         <v>0</v>
@@ -12222,10 +12240,10 @@
         <v>0</v>
       </c>
       <c r="AJ72" t="n">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="AK72" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="AL72" t="n">
         <v>0</v>
@@ -12258,10 +12276,10 @@
         <v>0</v>
       </c>
       <c r="AV72" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AW72" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AX72" t="n">
         <v>1</v>
@@ -12271,137 +12289,140 @@
       <c r="A73" t="inlineStr"/>
       <c r="B73" t="inlineStr">
         <is>
-          <t>GID_相手クロード</t>
+          <t>GID_カミラ</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>MGID_Claude</t>
+          <t>卡美拉</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>MGID_H_Claude_Nickname</t>
+          <t>MGID_H_Camilla_Nickname</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>MGID_H_Claude</t>
+          <t>人称“暗夜纹章士”。
+是位非常妖艳的美丽魔龙骑士。
+能在空中以斧与魔法葬送敌人。</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Claude</t>
+          <t>Camilla</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>DKC_55</t>
+          <t>DLC_52</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>クロード</t>
+          <t>カミラ</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>Face_Claude</t>
+          <t>Face_Camilla</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>Face_ClaudeDarkness</t>
+          <t>Face_CamillaDarkness</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>MGID_Ring_Claude</t>
+          <t>黑暗妖艳的手镯</t>
         </is>
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>MGID_H_Ring_Claude</t>
+          <t>人称“暗夜纹章士”卡美拉所寄宿的手镯。
+是位非常妖艳美丽的魔龙骑士。</t>
         </is>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>515Claude</t>
-        </is>
-      </c>
-      <c r="N73" t="inlineStr">
-        <is>
-          <t>GID_相手エーデルガルト;GID_相手ディミトリ;GID_相手クロード;</t>
-        </is>
-      </c>
+          <t>561Camilla</t>
+        </is>
+      </c>
+      <c r="N73" t="inlineStr"/>
       <c r="O73" t="inlineStr"/>
       <c r="P73" t="inlineStr"/>
       <c r="Q73" t="n">
         <v>1</v>
       </c>
       <c r="R73" t="n">
+        <v>0</v>
+      </c>
+      <c r="S73" t="n">
         <v>1</v>
       </c>
-      <c r="S73" t="n">
-        <v>0</v>
-      </c>
       <c r="T73" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U73" t="n">
-        <v>0</v>
+        <v>2400</v>
       </c>
       <c r="V73" t="n">
         <v>7</v>
       </c>
       <c r="W73" t="inlineStr">
         <is>
-          <t>SID_三級長エンゲージ技</t>
+          <t>暗夜爆破阵</t>
         </is>
       </c>
       <c r="X73" t="inlineStr"/>
       <c r="Y73" t="inlineStr">
         <is>
-          <t>SID_三級長エンゲージ技＋</t>
+          <t>暗夜爆破阵+</t>
         </is>
       </c>
       <c r="Z73" t="inlineStr">
         <is>
-          <t>GID_相手ベレト</t>
+          <t>GID_カムイ</t>
         </is>
       </c>
       <c r="AA73" t="inlineStr">
         <is>
-          <t>GBID_相手エーデルガルト</t>
+          <t>GBID_カミラ</t>
         </is>
       </c>
       <c r="AB73" t="inlineStr">
         <is>
-          <t>GGID_エーデルガルト</t>
+          <t>GGID_カミラ</t>
         </is>
       </c>
       <c r="AC73" t="n">
-        <v>11</v>
+        <v>99</v>
       </c>
       <c r="AD73" t="inlineStr"/>
-      <c r="AE73" t="inlineStr"/>
+      <c r="AE73" t="inlineStr">
+        <is>
+          <t>暗夜纹章</t>
+        </is>
+      </c>
       <c r="AF73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH73" t="n">
         <v>0</v>
       </c>
       <c r="AI73" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AJ73" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="AK73" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="AL73" t="n">
         <v>0</v>
@@ -12434,78 +12455,85 @@
         <v>0</v>
       </c>
       <c r="AV73" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AW73" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AX73" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr"/>
       <c r="B74" t="inlineStr">
         <is>
-          <t>GID_相手チキ</t>
+          <t>GID_相手エーデルガルト</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>MGID_Tiki</t>
+          <t>艾黛尔贾特</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>MGID_H_Tiki_Nickname</t>
+          <t>MGID_H_Edelgard_Nickname</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>MGID_H_Tiki</t>
+          <t>人称“三鼎纹章士”。
+是位气质高贵又不失威严的炎之皇女。
+精通斧术，能用强大的攻击让敌人粉身碎骨。</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Tiki</t>
+          <t>Edelgard</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>DLC_47</t>
+          <t>DLC_53</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>チキ</t>
+          <t>エーデルガルト</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>Face_Tiki</t>
+          <t>Face_Edelgard</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>Face_TikiDarkness</t>
+          <t>Face_EdelgardDarkness</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>MGID_Ring_Tiki</t>
+          <t>三位级长的手镯</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>MGID_H_Ring_Tiki</t>
+          <t>人称“三鼎纹章士”艾黛尔贾特所寄宿的手镯。
+是位气质高贵又不失威严的炎之皇女。</t>
         </is>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>560Tiki</t>
-        </is>
-      </c>
-      <c r="N74" t="inlineStr"/>
+          <t>563Edelgard</t>
+        </is>
+      </c>
+      <c r="N74" t="inlineStr">
+        <is>
+          <t>GID_相手エーデルガルト;GID_相手ディミトリ;GID_相手クロード;</t>
+        </is>
+      </c>
       <c r="O74" t="inlineStr"/>
       <c r="P74" t="inlineStr"/>
       <c r="Q74" t="n">
@@ -12518,7 +12546,7 @@
         <v>1</v>
       </c>
       <c r="T74" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="U74" t="n">
         <v>0</v>
@@ -12528,28 +12556,28 @@
       </c>
       <c r="W74" t="inlineStr">
         <is>
-          <t>SID_チキエンゲージ技</t>
+          <t>连花月风闪</t>
         </is>
       </c>
       <c r="X74" t="inlineStr"/>
       <c r="Y74" t="inlineStr">
         <is>
-          <t>SID_チキエンゲージ技＋</t>
+          <t>连花月风闪+</t>
         </is>
       </c>
       <c r="Z74" t="inlineStr">
         <is>
-          <t>GID_相手マルス</t>
+          <t>GID_相手ベレト</t>
         </is>
       </c>
       <c r="AA74" t="inlineStr">
         <is>
-          <t>GBID_相手チキ</t>
+          <t>GBID_相手エーデルガルト</t>
         </is>
       </c>
       <c r="AB74" t="inlineStr">
         <is>
-          <t>GGID_チキ</t>
+          <t>GGID_エーデルガルト</t>
         </is>
       </c>
       <c r="AC74" t="n">
@@ -12606,13 +12634,1071 @@
         <v>0</v>
       </c>
       <c r="AV74" t="n">
+        <v>32</v>
+      </c>
+      <c r="AW74" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX74" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr"/>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>GID_相手ディミトリ</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>帝弥托利</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>MGID_H_Dimitri_Nickname</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>人称“三鼎纹章士”。
+是位聪明又有礼貌的骑士之国王子。
+精通枪术、身手矫捷，能先发制人。</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Dimitri</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>DLC_54</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>ディミトリ</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>Face_Dimitri</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>Face_DimitriDarkness</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>三位级长的手镯</t>
+        </is>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>人称“三鼎纹章士”帝弥托利所寄宿的手镯。
+是位聪明又有礼貌的骑士之国王子。</t>
+        </is>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>514Dimitri</t>
+        </is>
+      </c>
+      <c r="N75" t="inlineStr">
+        <is>
+          <t>GID_相手エーデルガルト;GID_相手ディミトリ;GID_相手クロード;</t>
+        </is>
+      </c>
+      <c r="O75" t="inlineStr"/>
+      <c r="P75" t="inlineStr"/>
+      <c r="Q75" t="n">
+        <v>1</v>
+      </c>
+      <c r="R75" t="n">
+        <v>1</v>
+      </c>
+      <c r="S75" t="n">
+        <v>0</v>
+      </c>
+      <c r="T75" t="n">
+        <v>2</v>
+      </c>
+      <c r="U75" t="n">
+        <v>0</v>
+      </c>
+      <c r="V75" t="n">
+        <v>7</v>
+      </c>
+      <c r="W75" t="inlineStr">
+        <is>
+          <t>连花月风闪</t>
+        </is>
+      </c>
+      <c r="X75" t="inlineStr"/>
+      <c r="Y75" t="inlineStr">
+        <is>
+          <t>连花月风闪+</t>
+        </is>
+      </c>
+      <c r="Z75" t="inlineStr">
+        <is>
+          <t>GID_相手ベレト</t>
+        </is>
+      </c>
+      <c r="AA75" t="inlineStr">
+        <is>
+          <t>GBID_相手エーデルガルト</t>
+        </is>
+      </c>
+      <c r="AB75" t="inlineStr">
+        <is>
+          <t>GGID_エーデルガルト</t>
+        </is>
+      </c>
+      <c r="AC75" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD75" t="inlineStr"/>
+      <c r="AE75" t="inlineStr"/>
+      <c r="AF75" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG75" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH75" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI75" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ75" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK75" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL75" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM75" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN75" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO75" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP75" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ75" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR75" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS75" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT75" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU75" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV75" t="n">
+        <v>32</v>
+      </c>
+      <c r="AW75" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX75" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr"/>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>GID_相手クロード</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>库罗德</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>MGID_H_Claude_Nickname</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>人称“三鼎纹章士”。
+是位喜欢谋略，个性洒脱的盟主嫡子。
+精通弓术，有许多绝妙的战术。</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Claude</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>DKC_55</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>クロード</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>Face_Claude</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>Face_ClaudeDarkness</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>三位级长的手镯</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>人称“三鼎纹章士”库罗德所寄宿的手镯。
+是位喜欢谋略，个性洒脱的盟主嫡子。</t>
+        </is>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>515Claude</t>
+        </is>
+      </c>
+      <c r="N76" t="inlineStr">
+        <is>
+          <t>GID_相手エーデルガルト;GID_相手ディミトリ;GID_相手クロード;</t>
+        </is>
+      </c>
+      <c r="O76" t="inlineStr"/>
+      <c r="P76" t="inlineStr"/>
+      <c r="Q76" t="n">
+        <v>1</v>
+      </c>
+      <c r="R76" t="n">
+        <v>1</v>
+      </c>
+      <c r="S76" t="n">
+        <v>0</v>
+      </c>
+      <c r="T76" t="n">
+        <v>4</v>
+      </c>
+      <c r="U76" t="n">
+        <v>0</v>
+      </c>
+      <c r="V76" t="n">
+        <v>7</v>
+      </c>
+      <c r="W76" t="inlineStr">
+        <is>
+          <t>连花月风闪</t>
+        </is>
+      </c>
+      <c r="X76" t="inlineStr"/>
+      <c r="Y76" t="inlineStr">
+        <is>
+          <t>连花月风闪+</t>
+        </is>
+      </c>
+      <c r="Z76" t="inlineStr">
+        <is>
+          <t>GID_相手ベレト</t>
+        </is>
+      </c>
+      <c r="AA76" t="inlineStr">
+        <is>
+          <t>GBID_相手エーデルガルト</t>
+        </is>
+      </c>
+      <c r="AB76" t="inlineStr">
+        <is>
+          <t>GGID_エーデルガルト</t>
+        </is>
+      </c>
+      <c r="AC76" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD76" t="inlineStr"/>
+      <c r="AE76" t="inlineStr"/>
+      <c r="AF76" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG76" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH76" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI76" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ76" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK76" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL76" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM76" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN76" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO76" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP76" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ76" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR76" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS76" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT76" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU76" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV76" t="n">
+        <v>32</v>
+      </c>
+      <c r="AW76" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX76" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr"/>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>GID_相手チキ</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>琪姬</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>MGID_H_Tiki_Nickname</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>人称“龙姬纹章士”。
+是位继承了神龙族血脉的纯真少女。
+能化身成龙并用吐息将敌人一扫而空。</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Tiki</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>DLC_47</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>チキ</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>Face_Tiki</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>Face_TikiDarkness</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>先祖神龙的手镯</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>人称“龙姬纹章士”琪姬所寄宿的手镯。
+是位继承了神龙族血脉的纯真少女。</t>
+        </is>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>560Tiki</t>
+        </is>
+      </c>
+      <c r="N77" t="inlineStr"/>
+      <c r="O77" t="inlineStr"/>
+      <c r="P77" t="inlineStr"/>
+      <c r="Q77" t="n">
+        <v>1</v>
+      </c>
+      <c r="R77" t="n">
+        <v>1</v>
+      </c>
+      <c r="S77" t="n">
+        <v>1</v>
+      </c>
+      <c r="T77" t="n">
+        <v>9</v>
+      </c>
+      <c r="U77" t="n">
+        <v>0</v>
+      </c>
+      <c r="V77" t="n">
+        <v>7</v>
+      </c>
+      <c r="W77" t="inlineStr">
+        <is>
+          <t>神龙的祝福</t>
+        </is>
+      </c>
+      <c r="X77" t="inlineStr"/>
+      <c r="Y77" t="inlineStr">
+        <is>
+          <t>神龙的祝福+</t>
+        </is>
+      </c>
+      <c r="Z77" t="inlineStr">
+        <is>
+          <t>GID_相手マルス</t>
+        </is>
+      </c>
+      <c r="AA77" t="inlineStr">
+        <is>
+          <t>GBID_相手チキ</t>
+        </is>
+      </c>
+      <c r="AB77" t="inlineStr">
+        <is>
+          <t>GGID_チキ</t>
+        </is>
+      </c>
+      <c r="AC77" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD77" t="inlineStr"/>
+      <c r="AE77" t="inlineStr"/>
+      <c r="AF77" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG77" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH77" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI77" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ77" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK77" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL77" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM77" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN77" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO77" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP77" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ77" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR77" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS77" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT77" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU77" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV77" t="n">
         <v>48</v>
       </c>
-      <c r="AW74" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX74" t="n">
+      <c r="AW77" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX77" t="n">
         <v>6</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr"/>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>GID_相手ヘクトル</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>海克托尔</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>MGID_H_Hector_Nickname</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>人称“天雷纹章士”。
+是位充满自信且勇敢善战的豪爽青年。
+会为了伙伴挺身而出，挥斧即可横扫千军。</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Hector</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>DLC_48</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>ヘクトル</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>Face_Hector</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>Face_HectorDarkness</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>热血猛将的手镯</t>
+        </is>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>人称“天雷纹章士”海克托尔所寄宿的手镯。
+是位充满自信且勇敢善战的豪爽青年。</t>
+        </is>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>510Hector</t>
+        </is>
+      </c>
+      <c r="N78" t="inlineStr"/>
+      <c r="O78" t="inlineStr"/>
+      <c r="P78" t="inlineStr"/>
+      <c r="Q78" t="n">
+        <v>1</v>
+      </c>
+      <c r="R78" t="n">
+        <v>1</v>
+      </c>
+      <c r="S78" t="n">
+        <v>0</v>
+      </c>
+      <c r="T78" t="n">
+        <v>3</v>
+      </c>
+      <c r="U78" t="n">
+        <v>0</v>
+      </c>
+      <c r="V78" t="n">
+        <v>7</v>
+      </c>
+      <c r="W78" t="inlineStr">
+        <is>
+          <t>止水雷轰架势</t>
+        </is>
+      </c>
+      <c r="X78" t="inlineStr"/>
+      <c r="Y78" t="inlineStr">
+        <is>
+          <t>止水雷轰架势+</t>
+        </is>
+      </c>
+      <c r="Z78" t="inlineStr">
+        <is>
+          <t>GID_相手リン</t>
+        </is>
+      </c>
+      <c r="AA78" t="inlineStr">
+        <is>
+          <t>GBID_相手ヘクトル</t>
+        </is>
+      </c>
+      <c r="AB78" t="inlineStr">
+        <is>
+          <t>GGID_ヘクトル</t>
+        </is>
+      </c>
+      <c r="AC78" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD78" t="inlineStr"/>
+      <c r="AE78" t="inlineStr"/>
+      <c r="AF78" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG78" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH78" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI78" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ78" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK78" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL78" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM78" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN78" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO78" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP78" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ78" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR78" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS78" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT78" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU78" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV78" t="n">
+        <v>32</v>
+      </c>
+      <c r="AW78" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX78" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr"/>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>GID_相手セネリオ</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>塞涅里欧</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>MGID_H_Senerio_Nickname</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>人称“贤风纹章士”。
+是位做事沉着，能冷静下判断的黑衣参谋。
+擅长魔道，精通高等魔法。</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Senerio</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>DLC_49</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>セネリオ</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>Face_Senerio</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>Face_SenerioDarkness</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>苍色参谋的手镯</t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>人称“贤风纹章士”塞涅里欧所寄宿的手镯。
+是位做事沉着，能冷静下判断的黑衣参谋。</t>
+        </is>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>511Senerio</t>
+        </is>
+      </c>
+      <c r="N79" t="inlineStr"/>
+      <c r="O79" t="inlineStr"/>
+      <c r="P79" t="inlineStr"/>
+      <c r="Q79" t="n">
+        <v>1</v>
+      </c>
+      <c r="R79" t="n">
+        <v>1</v>
+      </c>
+      <c r="S79" t="n">
+        <v>0</v>
+      </c>
+      <c r="T79" t="n">
+        <v>6</v>
+      </c>
+      <c r="U79" t="n">
+        <v>0</v>
+      </c>
+      <c r="V79" t="n">
+        <v>7</v>
+      </c>
+      <c r="W79" t="inlineStr">
+        <is>
+          <t>灾厄</t>
+        </is>
+      </c>
+      <c r="X79" t="inlineStr"/>
+      <c r="Y79" t="inlineStr">
+        <is>
+          <t>灾厄+</t>
+        </is>
+      </c>
+      <c r="Z79" t="inlineStr">
+        <is>
+          <t>GID_相手アイク</t>
+        </is>
+      </c>
+      <c r="AA79" t="inlineStr">
+        <is>
+          <t>GBID_相手セネリオ</t>
+        </is>
+      </c>
+      <c r="AB79" t="inlineStr">
+        <is>
+          <t>GGID_セネリオ</t>
+        </is>
+      </c>
+      <c r="AC79" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD79" t="inlineStr"/>
+      <c r="AE79" t="inlineStr"/>
+      <c r="AF79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV79" t="n">
+        <v>32</v>
+      </c>
+      <c r="AW79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX79" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr"/>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>GID_相手カミラ</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>卡美拉</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>MGID_H_Camilla_Nickname</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>人称“暗夜纹章士”。
+是位非常妖艳的美丽魔龙骑士。
+能在空中以斧与魔法葬送敌人。</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Camilla</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>DLC_52</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>カミラ</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>Face_Camilla</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>Face_CamillaDarkness</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>黑暗妖艳的手镯</t>
+        </is>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>人称“暗夜纹章士”卡美拉所寄宿的手镯。
+是位非常妖艳美丽的魔龙骑士。</t>
+        </is>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>561Camilla</t>
+        </is>
+      </c>
+      <c r="N80" t="inlineStr"/>
+      <c r="O80" t="inlineStr"/>
+      <c r="P80" t="inlineStr"/>
+      <c r="Q80" t="n">
+        <v>1</v>
+      </c>
+      <c r="R80" t="n">
+        <v>1</v>
+      </c>
+      <c r="S80" t="n">
+        <v>1</v>
+      </c>
+      <c r="T80" t="n">
+        <v>3</v>
+      </c>
+      <c r="U80" t="n">
+        <v>0</v>
+      </c>
+      <c r="V80" t="n">
+        <v>7</v>
+      </c>
+      <c r="W80" t="inlineStr">
+        <is>
+          <t>暗夜爆破阵</t>
+        </is>
+      </c>
+      <c r="X80" t="inlineStr"/>
+      <c r="Y80" t="inlineStr">
+        <is>
+          <t>暗夜爆破阵+</t>
+        </is>
+      </c>
+      <c r="Z80" t="inlineStr">
+        <is>
+          <t>GID_相手カムイ</t>
+        </is>
+      </c>
+      <c r="AA80" t="inlineStr">
+        <is>
+          <t>GBID_相手カミラ</t>
+        </is>
+      </c>
+      <c r="AB80" t="inlineStr">
+        <is>
+          <t>GGID_カミラ</t>
+        </is>
+      </c>
+      <c r="AC80" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD80" t="inlineStr"/>
+      <c r="AE80" t="inlineStr"/>
+      <c r="AF80" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG80" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH80" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI80" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ80" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK80" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL80" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM80" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN80" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO80" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP80" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ80" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR80" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS80" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT80" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU80" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV80" t="n">
+        <v>32</v>
+      </c>
+      <c r="AW80" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX80" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -12626,7 +13712,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z394"/>
+  <dimension ref="A1:Z454"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
@@ -35328,18 +36414,30 @@
       </c>
     </row>
     <row r="376">
-      <c r="A376" t="inlineStr">
-        <is>
-          <t>GGID_ヴェロニカ</t>
-        </is>
-      </c>
+      <c r="A376" t="inlineStr"/>
       <c r="B376" t="n">
-        <v>0</v>
-      </c>
-      <c r="C376" t="inlineStr"/>
-      <c r="D376" t="inlineStr"/>
-      <c r="E376" t="inlineStr"/>
-      <c r="F376" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="C376" t="inlineStr">
+        <is>
+          <t>SID_切り返し;</t>
+        </is>
+      </c>
+      <c r="D376" t="inlineStr">
+        <is>
+          <t>SID_守備＋２;SID_力＋１;SID_体格＋１;SID_切り返し;</t>
+        </is>
+      </c>
+      <c r="E376" t="inlineStr">
+        <is>
+          <t>SID_鉄壁;SID_敵エンゲージ技ダメージ軽減;</t>
+        </is>
+      </c>
+      <c r="F376" t="inlineStr">
+        <is>
+          <t>IID_ヘクトル_ヴォルフバイル;</t>
+        </is>
+      </c>
       <c r="G376" t="inlineStr"/>
       <c r="H376" t="inlineStr"/>
       <c r="I376" t="inlineStr"/>
@@ -35386,16 +36484,20 @@
       </c>
     </row>
     <row r="377">
-      <c r="A377" t="inlineStr">
-        <is>
-          <t>GGID_セネリオ</t>
-        </is>
-      </c>
+      <c r="A377" t="inlineStr"/>
       <c r="B377" t="n">
-        <v>0</v>
-      </c>
-      <c r="C377" t="inlineStr"/>
-      <c r="D377" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="C377" t="inlineStr">
+        <is>
+          <t>SID_力・守備＋１;</t>
+        </is>
+      </c>
+      <c r="D377" t="inlineStr">
+        <is>
+          <t>SID_力＋２;</t>
+        </is>
+      </c>
       <c r="E377" t="inlineStr"/>
       <c r="F377" t="inlineStr"/>
       <c r="G377" t="inlineStr"/>
@@ -35444,16 +36546,20 @@
       </c>
     </row>
     <row r="378">
-      <c r="A378" t="inlineStr">
-        <is>
-          <t>GGID_カミラ</t>
-        </is>
-      </c>
+      <c r="A378" t="inlineStr"/>
       <c r="B378" t="n">
-        <v>0</v>
-      </c>
-      <c r="C378" t="inlineStr"/>
-      <c r="D378" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="C378" t="inlineStr">
+        <is>
+          <t>SID_適応能力;</t>
+        </is>
+      </c>
+      <c r="D378" t="inlineStr">
+        <is>
+          <t>SID_適応能力;</t>
+        </is>
+      </c>
       <c r="E378" t="inlineStr"/>
       <c r="F378" t="inlineStr"/>
       <c r="G378" t="inlineStr"/>
@@ -35502,16 +36608,20 @@
       </c>
     </row>
     <row r="379">
-      <c r="A379" t="inlineStr">
-        <is>
-          <t>GGID_クロム</t>
-        </is>
-      </c>
+      <c r="A379" t="inlineStr"/>
       <c r="B379" t="n">
-        <v>0</v>
-      </c>
-      <c r="C379" t="inlineStr"/>
-      <c r="D379" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="C379" t="inlineStr">
+        <is>
+          <t>SID_対斧術１;</t>
+        </is>
+      </c>
+      <c r="D379" t="inlineStr">
+        <is>
+          <t>SID_守備＋３;</t>
+        </is>
+      </c>
       <c r="E379" t="inlineStr"/>
       <c r="F379" t="inlineStr"/>
       <c r="G379" t="inlineStr"/>
@@ -35560,13 +36670,9 @@
       </c>
     </row>
     <row r="380">
-      <c r="A380" t="inlineStr">
-        <is>
-          <t>GGID_E001_敵チキ</t>
-        </is>
-      </c>
+      <c r="A380" t="inlineStr"/>
       <c r="B380" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C380" t="inlineStr"/>
       <c r="D380" t="inlineStr"/>
@@ -35614,17 +36720,13 @@
         <v>0</v>
       </c>
       <c r="Z380" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="381">
-      <c r="A381" t="inlineStr">
-        <is>
-          <t>GGID_E002_敵ヘクトル</t>
-        </is>
-      </c>
+      <c r="A381" t="inlineStr"/>
       <c r="B381" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C381" t="inlineStr"/>
       <c r="D381" t="inlineStr"/>
@@ -35639,7 +36741,7 @@
       <c r="M381" t="inlineStr"/>
       <c r="N381" t="inlineStr"/>
       <c r="O381" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="P381" t="n">
         <v>0</v>
@@ -35651,7 +36753,7 @@
         <v>0</v>
       </c>
       <c r="S381" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T381" t="n">
         <v>0</v>
@@ -35676,16 +36778,20 @@
       </c>
     </row>
     <row r="382">
-      <c r="A382" t="inlineStr">
-        <is>
-          <t>GGID_E003_敵ヴェロニカ</t>
-        </is>
-      </c>
+      <c r="A382" t="inlineStr"/>
       <c r="B382" t="n">
-        <v>0</v>
-      </c>
-      <c r="C382" t="inlineStr"/>
-      <c r="D382" t="inlineStr"/>
+        <v>7</v>
+      </c>
+      <c r="C382" t="inlineStr">
+        <is>
+          <t>SID_力・守備＋２;</t>
+        </is>
+      </c>
+      <c r="D382" t="inlineStr">
+        <is>
+          <t>SID_体格＋２;</t>
+        </is>
+      </c>
       <c r="E382" t="inlineStr"/>
       <c r="F382" t="inlineStr"/>
       <c r="G382" t="inlineStr"/>
@@ -35734,16 +36840,20 @@
       </c>
     </row>
     <row r="383">
-      <c r="A383" t="inlineStr">
-        <is>
-          <t>GGID_E004_敵セネリオ</t>
-        </is>
-      </c>
+      <c r="A383" t="inlineStr"/>
       <c r="B383" t="n">
-        <v>0</v>
-      </c>
-      <c r="C383" t="inlineStr"/>
-      <c r="D383" t="inlineStr"/>
+        <v>8</v>
+      </c>
+      <c r="C383" t="inlineStr">
+        <is>
+          <t>SID_重撃;</t>
+        </is>
+      </c>
+      <c r="D383" t="inlineStr">
+        <is>
+          <t>SID_重撃;</t>
+        </is>
+      </c>
       <c r="E383" t="inlineStr"/>
       <c r="F383" t="inlineStr"/>
       <c r="G383" t="inlineStr"/>
@@ -35792,16 +36902,20 @@
       </c>
     </row>
     <row r="384">
-      <c r="A384" t="inlineStr">
-        <is>
-          <t>GGID_E004_敵カミラ</t>
-        </is>
-      </c>
+      <c r="A384" t="inlineStr"/>
       <c r="B384" t="n">
-        <v>0</v>
-      </c>
-      <c r="C384" t="inlineStr"/>
-      <c r="D384" t="inlineStr"/>
+        <v>9</v>
+      </c>
+      <c r="C384" t="inlineStr">
+        <is>
+          <t>SID_対斧術２;</t>
+        </is>
+      </c>
+      <c r="D384" t="inlineStr">
+        <is>
+          <t>SID_力＋３;</t>
+        </is>
+      </c>
       <c r="E384" t="inlineStr"/>
       <c r="F384" t="inlineStr"/>
       <c r="G384" t="inlineStr"/>
@@ -35850,18 +36964,18 @@
       </c>
     </row>
     <row r="385">
-      <c r="A385" t="inlineStr">
-        <is>
-          <t>GGID_E005_敵クロム</t>
-        </is>
-      </c>
+      <c r="A385" t="inlineStr"/>
       <c r="B385" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C385" t="inlineStr"/>
       <c r="D385" t="inlineStr"/>
       <c r="E385" t="inlineStr"/>
-      <c r="F385" t="inlineStr"/>
+      <c r="F385" t="inlineStr">
+        <is>
+          <t>IID_ヘクトル_ルーンソード;</t>
+        </is>
+      </c>
       <c r="G385" t="inlineStr"/>
       <c r="H385" t="inlineStr"/>
       <c r="I385" t="inlineStr"/>
@@ -35908,13 +37022,9 @@
       </c>
     </row>
     <row r="386">
-      <c r="A386" t="inlineStr">
-        <is>
-          <t>GGID_E005_敵ヘクトル</t>
-        </is>
-      </c>
+      <c r="A386" t="inlineStr"/>
       <c r="B386" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C386" t="inlineStr"/>
       <c r="D386" t="inlineStr"/>
@@ -35962,20 +37072,24 @@
         <v>0</v>
       </c>
       <c r="Z386" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="387">
-      <c r="A387" t="inlineStr">
-        <is>
-          <t>GGID_E005_敵ヴェロニカ</t>
-        </is>
-      </c>
+      <c r="A387" t="inlineStr"/>
       <c r="B387" t="n">
-        <v>0</v>
-      </c>
-      <c r="C387" t="inlineStr"/>
-      <c r="D387" t="inlineStr"/>
+        <v>12</v>
+      </c>
+      <c r="C387" t="inlineStr">
+        <is>
+          <t>SID_力・守備＋３;</t>
+        </is>
+      </c>
+      <c r="D387" t="inlineStr">
+        <is>
+          <t>SID_角の睨み;</t>
+        </is>
+      </c>
       <c r="E387" t="inlineStr"/>
       <c r="F387" t="inlineStr"/>
       <c r="G387" t="inlineStr"/>
@@ -36024,16 +37138,20 @@
       </c>
     </row>
     <row r="388">
-      <c r="A388" t="inlineStr">
-        <is>
-          <t>GGID_E006_敵チキ</t>
-        </is>
-      </c>
+      <c r="A388" t="inlineStr"/>
       <c r="B388" t="n">
-        <v>0</v>
-      </c>
-      <c r="C388" t="inlineStr"/>
-      <c r="D388" t="inlineStr"/>
+        <v>13</v>
+      </c>
+      <c r="C388" t="inlineStr">
+        <is>
+          <t>SID_対斧術３;</t>
+        </is>
+      </c>
+      <c r="D388" t="inlineStr">
+        <is>
+          <t>SID_守備＋４;</t>
+        </is>
+      </c>
       <c r="E388" t="inlineStr"/>
       <c r="F388" t="inlineStr"/>
       <c r="G388" t="inlineStr"/>
@@ -36082,16 +37200,20 @@
       </c>
     </row>
     <row r="389">
-      <c r="A389" t="inlineStr">
-        <is>
-          <t>GGID_E006_敵ヘクトル</t>
-        </is>
-      </c>
+      <c r="A389" t="inlineStr"/>
       <c r="B389" t="n">
-        <v>0</v>
-      </c>
-      <c r="C389" t="inlineStr"/>
-      <c r="D389" t="inlineStr"/>
+        <v>14</v>
+      </c>
+      <c r="C389" t="inlineStr">
+        <is>
+          <t>SID_力・守備＋４;</t>
+        </is>
+      </c>
+      <c r="D389" t="inlineStr">
+        <is>
+          <t>SID_力＋４;</t>
+        </is>
+      </c>
       <c r="E389" t="inlineStr"/>
       <c r="F389" t="inlineStr"/>
       <c r="G389" t="inlineStr"/>
@@ -36140,18 +37262,18 @@
       </c>
     </row>
     <row r="390">
-      <c r="A390" t="inlineStr">
-        <is>
-          <t>GGID_E006_敵ヴェロニカ</t>
-        </is>
-      </c>
+      <c r="A390" t="inlineStr"/>
       <c r="B390" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C390" t="inlineStr"/>
       <c r="D390" t="inlineStr"/>
       <c r="E390" t="inlineStr"/>
-      <c r="F390" t="inlineStr"/>
+      <c r="F390" t="inlineStr">
+        <is>
+          <t>IID_ヘクトル_アルマーズ;</t>
+        </is>
+      </c>
       <c r="G390" t="inlineStr"/>
       <c r="H390" t="inlineStr"/>
       <c r="I390" t="inlineStr"/>
@@ -36198,16 +37320,20 @@
       </c>
     </row>
     <row r="391">
-      <c r="A391" t="inlineStr">
-        <is>
-          <t>GGID_E006_敵セネリオ</t>
-        </is>
-      </c>
+      <c r="A391" t="inlineStr"/>
       <c r="B391" t="n">
-        <v>0</v>
-      </c>
-      <c r="C391" t="inlineStr"/>
-      <c r="D391" t="inlineStr"/>
+        <v>16</v>
+      </c>
+      <c r="C391" t="inlineStr">
+        <is>
+          <t>SID_切り返し＋;</t>
+        </is>
+      </c>
+      <c r="D391" t="inlineStr">
+        <is>
+          <t>SID_切り返し＋;</t>
+        </is>
+      </c>
       <c r="E391" t="inlineStr"/>
       <c r="F391" t="inlineStr"/>
       <c r="G391" t="inlineStr"/>
@@ -36256,16 +37382,20 @@
       </c>
     </row>
     <row r="392">
-      <c r="A392" t="inlineStr">
-        <is>
-          <t>GGID_E006_敵カミラ</t>
-        </is>
-      </c>
+      <c r="A392" t="inlineStr"/>
       <c r="B392" t="n">
-        <v>0</v>
-      </c>
-      <c r="C392" t="inlineStr"/>
-      <c r="D392" t="inlineStr"/>
+        <v>17</v>
+      </c>
+      <c r="C392" t="inlineStr">
+        <is>
+          <t>SID_対斧術４;</t>
+        </is>
+      </c>
+      <c r="D392" t="inlineStr">
+        <is>
+          <t>SID_体格＋３;</t>
+        </is>
+      </c>
       <c r="E392" t="inlineStr"/>
       <c r="F392" t="inlineStr"/>
       <c r="G392" t="inlineStr"/>
@@ -36314,16 +37444,20 @@
       </c>
     </row>
     <row r="393">
-      <c r="A393" t="inlineStr">
-        <is>
-          <t>GGID_E006_敵クロム</t>
-        </is>
-      </c>
+      <c r="A393" t="inlineStr"/>
       <c r="B393" t="n">
-        <v>0</v>
-      </c>
-      <c r="C393" t="inlineStr"/>
-      <c r="D393" t="inlineStr"/>
+        <v>18</v>
+      </c>
+      <c r="C393" t="inlineStr">
+        <is>
+          <t>SID_力・守備＋５;</t>
+        </is>
+      </c>
+      <c r="D393" t="inlineStr">
+        <is>
+          <t>SID_守備＋５;</t>
+        </is>
+      </c>
       <c r="E393" t="inlineStr"/>
       <c r="F393" t="inlineStr"/>
       <c r="G393" t="inlineStr"/>
@@ -36372,16 +37506,20 @@
       </c>
     </row>
     <row r="394">
-      <c r="A394" t="inlineStr">
-        <is>
-          <t>GGID_E006_敵エーデルガルト</t>
-        </is>
-      </c>
+      <c r="A394" t="inlineStr"/>
       <c r="B394" t="n">
-        <v>0</v>
-      </c>
-      <c r="C394" t="inlineStr"/>
-      <c r="D394" t="inlineStr"/>
+        <v>19</v>
+      </c>
+      <c r="C394" t="inlineStr">
+        <is>
+          <t>SID_適応能力＋;SID_対斧術５;</t>
+        </is>
+      </c>
+      <c r="D394" t="inlineStr">
+        <is>
+          <t>SID_適応能力＋;</t>
+        </is>
+      </c>
       <c r="E394" t="inlineStr"/>
       <c r="F394" t="inlineStr"/>
       <c r="G394" t="inlineStr"/>
@@ -36426,6 +37564,3562 @@
         <v>0</v>
       </c>
       <c r="Z394" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr"/>
+      <c r="B395" t="n">
+        <v>20</v>
+      </c>
+      <c r="C395" t="inlineStr"/>
+      <c r="D395" t="inlineStr"/>
+      <c r="E395" t="inlineStr"/>
+      <c r="F395" t="inlineStr"/>
+      <c r="G395" t="inlineStr"/>
+      <c r="H395" t="inlineStr"/>
+      <c r="I395" t="inlineStr"/>
+      <c r="J395" t="inlineStr"/>
+      <c r="K395" t="inlineStr"/>
+      <c r="L395" t="inlineStr"/>
+      <c r="M395" t="inlineStr"/>
+      <c r="N395" t="inlineStr"/>
+      <c r="O395" t="n">
+        <v>0</v>
+      </c>
+      <c r="P395" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q395" t="n">
+        <v>0</v>
+      </c>
+      <c r="R395" t="n">
+        <v>0</v>
+      </c>
+      <c r="S395" t="n">
+        <v>0</v>
+      </c>
+      <c r="T395" t="n">
+        <v>0</v>
+      </c>
+      <c r="U395" t="n">
+        <v>0</v>
+      </c>
+      <c r="V395" t="n">
+        <v>0</v>
+      </c>
+      <c r="W395" t="n">
+        <v>0</v>
+      </c>
+      <c r="X395" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y395" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z395" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>GGID_ヴェロニカ</t>
+        </is>
+      </c>
+      <c r="B396" t="n">
+        <v>0</v>
+      </c>
+      <c r="C396" t="inlineStr"/>
+      <c r="D396" t="inlineStr"/>
+      <c r="E396" t="inlineStr"/>
+      <c r="F396" t="inlineStr"/>
+      <c r="G396" t="inlineStr"/>
+      <c r="H396" t="inlineStr"/>
+      <c r="I396" t="inlineStr"/>
+      <c r="J396" t="inlineStr"/>
+      <c r="K396" t="inlineStr"/>
+      <c r="L396" t="inlineStr"/>
+      <c r="M396" t="inlineStr"/>
+      <c r="N396" t="inlineStr"/>
+      <c r="O396" t="n">
+        <v>0</v>
+      </c>
+      <c r="P396" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q396" t="n">
+        <v>0</v>
+      </c>
+      <c r="R396" t="n">
+        <v>0</v>
+      </c>
+      <c r="S396" t="n">
+        <v>0</v>
+      </c>
+      <c r="T396" t="n">
+        <v>0</v>
+      </c>
+      <c r="U396" t="n">
+        <v>0</v>
+      </c>
+      <c r="V396" t="n">
+        <v>0</v>
+      </c>
+      <c r="W396" t="n">
+        <v>0</v>
+      </c>
+      <c r="X396" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y396" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z396" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>GGID_セネリオ</t>
+        </is>
+      </c>
+      <c r="B397" t="n">
+        <v>0</v>
+      </c>
+      <c r="C397" t="inlineStr"/>
+      <c r="D397" t="inlineStr"/>
+      <c r="E397" t="inlineStr"/>
+      <c r="F397" t="inlineStr"/>
+      <c r="G397" t="inlineStr"/>
+      <c r="H397" t="inlineStr"/>
+      <c r="I397" t="inlineStr"/>
+      <c r="J397" t="inlineStr"/>
+      <c r="K397" t="inlineStr"/>
+      <c r="L397" t="inlineStr"/>
+      <c r="M397" t="inlineStr"/>
+      <c r="N397" t="inlineStr"/>
+      <c r="O397" t="n">
+        <v>0</v>
+      </c>
+      <c r="P397" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q397" t="n">
+        <v>0</v>
+      </c>
+      <c r="R397" t="n">
+        <v>0</v>
+      </c>
+      <c r="S397" t="n">
+        <v>0</v>
+      </c>
+      <c r="T397" t="n">
+        <v>0</v>
+      </c>
+      <c r="U397" t="n">
+        <v>0</v>
+      </c>
+      <c r="V397" t="n">
+        <v>0</v>
+      </c>
+      <c r="W397" t="n">
+        <v>0</v>
+      </c>
+      <c r="X397" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y397" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z397" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr"/>
+      <c r="B398" t="n">
+        <v>1</v>
+      </c>
+      <c r="C398" t="inlineStr">
+        <is>
+          <t>SID_囮指名;</t>
+        </is>
+      </c>
+      <c r="D398" t="inlineStr">
+        <is>
+          <t>SID_魔防＋２;SID_魔力＋１;SID_技＋１;SID_囮指名;</t>
+        </is>
+      </c>
+      <c r="E398" t="inlineStr">
+        <is>
+          <t>SID_陽光;SID_敵エンゲージ技ダメージ軽減;</t>
+        </is>
+      </c>
+      <c r="F398" t="inlineStr">
+        <is>
+          <t>IID_セネリオ_サンダーストーム;</t>
+        </is>
+      </c>
+      <c r="G398" t="inlineStr"/>
+      <c r="H398" t="inlineStr"/>
+      <c r="I398" t="inlineStr"/>
+      <c r="J398" t="inlineStr"/>
+      <c r="K398" t="inlineStr"/>
+      <c r="L398" t="inlineStr"/>
+      <c r="M398" t="inlineStr"/>
+      <c r="N398" t="inlineStr"/>
+      <c r="O398" t="n">
+        <v>0</v>
+      </c>
+      <c r="P398" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q398" t="n">
+        <v>0</v>
+      </c>
+      <c r="R398" t="n">
+        <v>0</v>
+      </c>
+      <c r="S398" t="n">
+        <v>0</v>
+      </c>
+      <c r="T398" t="n">
+        <v>0</v>
+      </c>
+      <c r="U398" t="n">
+        <v>0</v>
+      </c>
+      <c r="V398" t="n">
+        <v>0</v>
+      </c>
+      <c r="W398" t="n">
+        <v>0</v>
+      </c>
+      <c r="X398" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y398" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z398" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr"/>
+      <c r="B399" t="n">
+        <v>2</v>
+      </c>
+      <c r="C399" t="inlineStr">
+        <is>
+          <t>SID_魔力・魔防＋１;</t>
+        </is>
+      </c>
+      <c r="D399" t="inlineStr">
+        <is>
+          <t>SID_魔力＋２;</t>
+        </is>
+      </c>
+      <c r="E399" t="inlineStr"/>
+      <c r="F399" t="inlineStr"/>
+      <c r="G399" t="inlineStr"/>
+      <c r="H399" t="inlineStr"/>
+      <c r="I399" t="inlineStr"/>
+      <c r="J399" t="inlineStr"/>
+      <c r="K399" t="inlineStr"/>
+      <c r="L399" t="inlineStr"/>
+      <c r="M399" t="inlineStr"/>
+      <c r="N399" t="inlineStr"/>
+      <c r="O399" t="n">
+        <v>0</v>
+      </c>
+      <c r="P399" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q399" t="n">
+        <v>0</v>
+      </c>
+      <c r="R399" t="n">
+        <v>0</v>
+      </c>
+      <c r="S399" t="n">
+        <v>0</v>
+      </c>
+      <c r="T399" t="n">
+        <v>0</v>
+      </c>
+      <c r="U399" t="n">
+        <v>0</v>
+      </c>
+      <c r="V399" t="n">
+        <v>0</v>
+      </c>
+      <c r="W399" t="n">
+        <v>0</v>
+      </c>
+      <c r="X399" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y399" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z399" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr"/>
+      <c r="B400" t="n">
+        <v>3</v>
+      </c>
+      <c r="C400" t="inlineStr">
+        <is>
+          <t>SID_対魔道１;</t>
+        </is>
+      </c>
+      <c r="D400" t="inlineStr">
+        <is>
+          <t>SID_技＋２;</t>
+        </is>
+      </c>
+      <c r="E400" t="inlineStr"/>
+      <c r="F400" t="inlineStr"/>
+      <c r="G400" t="inlineStr"/>
+      <c r="H400" t="inlineStr"/>
+      <c r="I400" t="inlineStr"/>
+      <c r="J400" t="inlineStr"/>
+      <c r="K400" t="inlineStr"/>
+      <c r="L400" t="inlineStr"/>
+      <c r="M400" t="inlineStr"/>
+      <c r="N400" t="inlineStr"/>
+      <c r="O400" t="n">
+        <v>0</v>
+      </c>
+      <c r="P400" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q400" t="n">
+        <v>0</v>
+      </c>
+      <c r="R400" t="n">
+        <v>0</v>
+      </c>
+      <c r="S400" t="n">
+        <v>0</v>
+      </c>
+      <c r="T400" t="n">
+        <v>0</v>
+      </c>
+      <c r="U400" t="n">
+        <v>0</v>
+      </c>
+      <c r="V400" t="n">
+        <v>0</v>
+      </c>
+      <c r="W400" t="n">
+        <v>0</v>
+      </c>
+      <c r="X400" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y400" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z400" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr"/>
+      <c r="B401" t="n">
+        <v>4</v>
+      </c>
+      <c r="C401" t="inlineStr">
+        <is>
+          <t>SID_理魔法＋;</t>
+        </is>
+      </c>
+      <c r="D401" t="inlineStr">
+        <is>
+          <t>SID_理魔法＋;</t>
+        </is>
+      </c>
+      <c r="E401" t="inlineStr"/>
+      <c r="F401" t="inlineStr"/>
+      <c r="G401" t="inlineStr"/>
+      <c r="H401" t="inlineStr"/>
+      <c r="I401" t="inlineStr"/>
+      <c r="J401" t="inlineStr"/>
+      <c r="K401" t="inlineStr"/>
+      <c r="L401" t="inlineStr"/>
+      <c r="M401" t="inlineStr"/>
+      <c r="N401" t="inlineStr"/>
+      <c r="O401" t="n">
+        <v>0</v>
+      </c>
+      <c r="P401" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q401" t="n">
+        <v>0</v>
+      </c>
+      <c r="R401" t="n">
+        <v>0</v>
+      </c>
+      <c r="S401" t="n">
+        <v>0</v>
+      </c>
+      <c r="T401" t="n">
+        <v>0</v>
+      </c>
+      <c r="U401" t="n">
+        <v>0</v>
+      </c>
+      <c r="V401" t="n">
+        <v>0</v>
+      </c>
+      <c r="W401" t="n">
+        <v>0</v>
+      </c>
+      <c r="X401" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y401" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z401" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr"/>
+      <c r="B402" t="n">
+        <v>5</v>
+      </c>
+      <c r="C402" t="inlineStr"/>
+      <c r="D402" t="inlineStr"/>
+      <c r="E402" t="inlineStr"/>
+      <c r="F402" t="inlineStr"/>
+      <c r="G402" t="inlineStr"/>
+      <c r="H402" t="inlineStr"/>
+      <c r="I402" t="inlineStr"/>
+      <c r="J402" t="inlineStr"/>
+      <c r="K402" t="inlineStr"/>
+      <c r="L402" t="inlineStr"/>
+      <c r="M402" t="inlineStr"/>
+      <c r="N402" t="inlineStr"/>
+      <c r="O402" t="n">
+        <v>0</v>
+      </c>
+      <c r="P402" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q402" t="n">
+        <v>0</v>
+      </c>
+      <c r="R402" t="n">
+        <v>0</v>
+      </c>
+      <c r="S402" t="n">
+        <v>0</v>
+      </c>
+      <c r="T402" t="n">
+        <v>0</v>
+      </c>
+      <c r="U402" t="n">
+        <v>0</v>
+      </c>
+      <c r="V402" t="n">
+        <v>0</v>
+      </c>
+      <c r="W402" t="n">
+        <v>0</v>
+      </c>
+      <c r="X402" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y402" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z402" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr"/>
+      <c r="B403" t="n">
+        <v>6</v>
+      </c>
+      <c r="C403" t="inlineStr"/>
+      <c r="D403" t="inlineStr"/>
+      <c r="E403" t="inlineStr"/>
+      <c r="F403" t="inlineStr"/>
+      <c r="G403" t="inlineStr"/>
+      <c r="H403" t="inlineStr"/>
+      <c r="I403" t="inlineStr"/>
+      <c r="J403" t="inlineStr"/>
+      <c r="K403" t="inlineStr"/>
+      <c r="L403" t="inlineStr"/>
+      <c r="M403" t="inlineStr"/>
+      <c r="N403" t="inlineStr"/>
+      <c r="O403" t="n">
+        <v>32</v>
+      </c>
+      <c r="P403" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q403" t="n">
+        <v>0</v>
+      </c>
+      <c r="R403" t="n">
+        <v>0</v>
+      </c>
+      <c r="S403" t="n">
+        <v>0</v>
+      </c>
+      <c r="T403" t="n">
+        <v>0</v>
+      </c>
+      <c r="U403" t="n">
+        <v>100</v>
+      </c>
+      <c r="V403" t="n">
+        <v>0</v>
+      </c>
+      <c r="W403" t="n">
+        <v>0</v>
+      </c>
+      <c r="X403" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y403" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z403" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr"/>
+      <c r="B404" t="n">
+        <v>7</v>
+      </c>
+      <c r="C404" t="inlineStr">
+        <is>
+          <t>SID_魔力・魔防＋２;</t>
+        </is>
+      </c>
+      <c r="D404" t="inlineStr">
+        <is>
+          <t>SID_魔防＋３;</t>
+        </is>
+      </c>
+      <c r="E404" t="inlineStr"/>
+      <c r="F404" t="inlineStr"/>
+      <c r="G404" t="inlineStr"/>
+      <c r="H404" t="inlineStr"/>
+      <c r="I404" t="inlineStr"/>
+      <c r="J404" t="inlineStr"/>
+      <c r="K404" t="inlineStr"/>
+      <c r="L404" t="inlineStr"/>
+      <c r="M404" t="inlineStr"/>
+      <c r="N404" t="inlineStr"/>
+      <c r="O404" t="n">
+        <v>0</v>
+      </c>
+      <c r="P404" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q404" t="n">
+        <v>0</v>
+      </c>
+      <c r="R404" t="n">
+        <v>0</v>
+      </c>
+      <c r="S404" t="n">
+        <v>0</v>
+      </c>
+      <c r="T404" t="n">
+        <v>0</v>
+      </c>
+      <c r="U404" t="n">
+        <v>0</v>
+      </c>
+      <c r="V404" t="n">
+        <v>0</v>
+      </c>
+      <c r="W404" t="n">
+        <v>0</v>
+      </c>
+      <c r="X404" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y404" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z404" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr"/>
+      <c r="B405" t="n">
+        <v>8</v>
+      </c>
+      <c r="C405" t="inlineStr">
+        <is>
+          <t>SID_対魔道２;</t>
+        </is>
+      </c>
+      <c r="D405" t="inlineStr">
+        <is>
+          <t>SID_魔力＋３;</t>
+        </is>
+      </c>
+      <c r="E405" t="inlineStr"/>
+      <c r="F405" t="inlineStr"/>
+      <c r="G405" t="inlineStr"/>
+      <c r="H405" t="inlineStr"/>
+      <c r="I405" t="inlineStr"/>
+      <c r="J405" t="inlineStr"/>
+      <c r="K405" t="inlineStr"/>
+      <c r="L405" t="inlineStr"/>
+      <c r="M405" t="inlineStr"/>
+      <c r="N405" t="inlineStr"/>
+      <c r="O405" t="n">
+        <v>0</v>
+      </c>
+      <c r="P405" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q405" t="n">
+        <v>0</v>
+      </c>
+      <c r="R405" t="n">
+        <v>0</v>
+      </c>
+      <c r="S405" t="n">
+        <v>0</v>
+      </c>
+      <c r="T405" t="n">
+        <v>0</v>
+      </c>
+      <c r="U405" t="n">
+        <v>0</v>
+      </c>
+      <c r="V405" t="n">
+        <v>0</v>
+      </c>
+      <c r="W405" t="n">
+        <v>0</v>
+      </c>
+      <c r="X405" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y405" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z405" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr"/>
+      <c r="B406" t="n">
+        <v>9</v>
+      </c>
+      <c r="C406" t="inlineStr">
+        <is>
+          <t>SID_慧眼;</t>
+        </is>
+      </c>
+      <c r="D406" t="inlineStr">
+        <is>
+          <t>SID_慧眼;</t>
+        </is>
+      </c>
+      <c r="E406" t="inlineStr"/>
+      <c r="F406" t="inlineStr"/>
+      <c r="G406" t="inlineStr"/>
+      <c r="H406" t="inlineStr"/>
+      <c r="I406" t="inlineStr"/>
+      <c r="J406" t="inlineStr"/>
+      <c r="K406" t="inlineStr"/>
+      <c r="L406" t="inlineStr"/>
+      <c r="M406" t="inlineStr"/>
+      <c r="N406" t="inlineStr"/>
+      <c r="O406" t="n">
+        <v>0</v>
+      </c>
+      <c r="P406" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q406" t="n">
+        <v>0</v>
+      </c>
+      <c r="R406" t="n">
+        <v>0</v>
+      </c>
+      <c r="S406" t="n">
+        <v>0</v>
+      </c>
+      <c r="T406" t="n">
+        <v>0</v>
+      </c>
+      <c r="U406" t="n">
+        <v>0</v>
+      </c>
+      <c r="V406" t="n">
+        <v>0</v>
+      </c>
+      <c r="W406" t="n">
+        <v>0</v>
+      </c>
+      <c r="X406" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y406" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z406" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr"/>
+      <c r="B407" t="n">
+        <v>10</v>
+      </c>
+      <c r="C407" t="inlineStr"/>
+      <c r="D407" t="inlineStr"/>
+      <c r="E407" t="inlineStr"/>
+      <c r="F407" t="inlineStr">
+        <is>
+          <t>IID_セネリオ_マジックシールド;</t>
+        </is>
+      </c>
+      <c r="G407" t="inlineStr"/>
+      <c r="H407" t="inlineStr"/>
+      <c r="I407" t="inlineStr"/>
+      <c r="J407" t="inlineStr"/>
+      <c r="K407" t="inlineStr"/>
+      <c r="L407" t="inlineStr"/>
+      <c r="M407" t="inlineStr"/>
+      <c r="N407" t="inlineStr"/>
+      <c r="O407" t="n">
+        <v>0</v>
+      </c>
+      <c r="P407" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q407" t="n">
+        <v>0</v>
+      </c>
+      <c r="R407" t="n">
+        <v>0</v>
+      </c>
+      <c r="S407" t="n">
+        <v>0</v>
+      </c>
+      <c r="T407" t="n">
+        <v>0</v>
+      </c>
+      <c r="U407" t="n">
+        <v>0</v>
+      </c>
+      <c r="V407" t="n">
+        <v>0</v>
+      </c>
+      <c r="W407" t="n">
+        <v>0</v>
+      </c>
+      <c r="X407" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y407" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z407" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr"/>
+      <c r="B408" t="n">
+        <v>11</v>
+      </c>
+      <c r="C408" t="inlineStr"/>
+      <c r="D408" t="inlineStr"/>
+      <c r="E408" t="inlineStr"/>
+      <c r="F408" t="inlineStr"/>
+      <c r="G408" t="inlineStr"/>
+      <c r="H408" t="inlineStr"/>
+      <c r="I408" t="inlineStr"/>
+      <c r="J408" t="inlineStr"/>
+      <c r="K408" t="inlineStr"/>
+      <c r="L408" t="inlineStr"/>
+      <c r="M408" t="inlineStr"/>
+      <c r="N408" t="inlineStr"/>
+      <c r="O408" t="n">
+        <v>0</v>
+      </c>
+      <c r="P408" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q408" t="n">
+        <v>0</v>
+      </c>
+      <c r="R408" t="n">
+        <v>0</v>
+      </c>
+      <c r="S408" t="n">
+        <v>0</v>
+      </c>
+      <c r="T408" t="n">
+        <v>0</v>
+      </c>
+      <c r="U408" t="n">
+        <v>0</v>
+      </c>
+      <c r="V408" t="n">
+        <v>0</v>
+      </c>
+      <c r="W408" t="n">
+        <v>0</v>
+      </c>
+      <c r="X408" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y408" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z408" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr"/>
+      <c r="B409" t="n">
+        <v>12</v>
+      </c>
+      <c r="C409" t="inlineStr">
+        <is>
+          <t>SID_魔力・魔防＋３;</t>
+        </is>
+      </c>
+      <c r="D409" t="inlineStr">
+        <is>
+          <t>SID_技＋３;</t>
+        </is>
+      </c>
+      <c r="E409" t="inlineStr"/>
+      <c r="F409" t="inlineStr"/>
+      <c r="G409" t="inlineStr"/>
+      <c r="H409" t="inlineStr"/>
+      <c r="I409" t="inlineStr"/>
+      <c r="J409" t="inlineStr"/>
+      <c r="K409" t="inlineStr"/>
+      <c r="L409" t="inlineStr"/>
+      <c r="M409" t="inlineStr"/>
+      <c r="N409" t="inlineStr"/>
+      <c r="O409" t="n">
+        <v>128</v>
+      </c>
+      <c r="P409" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q409" t="n">
+        <v>0</v>
+      </c>
+      <c r="R409" t="n">
+        <v>0</v>
+      </c>
+      <c r="S409" t="n">
+        <v>0</v>
+      </c>
+      <c r="T409" t="n">
+        <v>0</v>
+      </c>
+      <c r="U409" t="n">
+        <v>0</v>
+      </c>
+      <c r="V409" t="n">
+        <v>0</v>
+      </c>
+      <c r="W409" t="n">
+        <v>100</v>
+      </c>
+      <c r="X409" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y409" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z409" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr"/>
+      <c r="B410" t="n">
+        <v>13</v>
+      </c>
+      <c r="C410" t="inlineStr">
+        <is>
+          <t>SID_復帰阻止;SID_対魔道３;</t>
+        </is>
+      </c>
+      <c r="D410" t="inlineStr">
+        <is>
+          <t>SID_復帰阻止;</t>
+        </is>
+      </c>
+      <c r="E410" t="inlineStr"/>
+      <c r="F410" t="inlineStr"/>
+      <c r="G410" t="inlineStr"/>
+      <c r="H410" t="inlineStr"/>
+      <c r="I410" t="inlineStr"/>
+      <c r="J410" t="inlineStr"/>
+      <c r="K410" t="inlineStr"/>
+      <c r="L410" t="inlineStr"/>
+      <c r="M410" t="inlineStr"/>
+      <c r="N410" t="inlineStr"/>
+      <c r="O410" t="n">
+        <v>0</v>
+      </c>
+      <c r="P410" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q410" t="n">
+        <v>0</v>
+      </c>
+      <c r="R410" t="n">
+        <v>0</v>
+      </c>
+      <c r="S410" t="n">
+        <v>0</v>
+      </c>
+      <c r="T410" t="n">
+        <v>0</v>
+      </c>
+      <c r="U410" t="n">
+        <v>0</v>
+      </c>
+      <c r="V410" t="n">
+        <v>0</v>
+      </c>
+      <c r="W410" t="n">
+        <v>0</v>
+      </c>
+      <c r="X410" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y410" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z410" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr"/>
+      <c r="B411" t="n">
+        <v>14</v>
+      </c>
+      <c r="C411" t="inlineStr">
+        <is>
+          <t>SID_魔力・魔防＋４;</t>
+        </is>
+      </c>
+      <c r="D411" t="inlineStr">
+        <is>
+          <t>SID_魔防＋４;</t>
+        </is>
+      </c>
+      <c r="E411" t="inlineStr"/>
+      <c r="F411" t="inlineStr"/>
+      <c r="G411" t="inlineStr"/>
+      <c r="H411" t="inlineStr"/>
+      <c r="I411" t="inlineStr"/>
+      <c r="J411" t="inlineStr"/>
+      <c r="K411" t="inlineStr"/>
+      <c r="L411" t="inlineStr"/>
+      <c r="M411" t="inlineStr"/>
+      <c r="N411" t="inlineStr"/>
+      <c r="O411" t="n">
+        <v>0</v>
+      </c>
+      <c r="P411" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q411" t="n">
+        <v>0</v>
+      </c>
+      <c r="R411" t="n">
+        <v>0</v>
+      </c>
+      <c r="S411" t="n">
+        <v>0</v>
+      </c>
+      <c r="T411" t="n">
+        <v>0</v>
+      </c>
+      <c r="U411" t="n">
+        <v>0</v>
+      </c>
+      <c r="V411" t="n">
+        <v>0</v>
+      </c>
+      <c r="W411" t="n">
+        <v>0</v>
+      </c>
+      <c r="X411" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y411" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z411" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr"/>
+      <c r="B412" t="n">
+        <v>15</v>
+      </c>
+      <c r="C412" t="inlineStr"/>
+      <c r="D412" t="inlineStr"/>
+      <c r="E412" t="inlineStr"/>
+      <c r="F412" t="inlineStr">
+        <is>
+          <t>IID_セネリオ_レクスカリバー;</t>
+        </is>
+      </c>
+      <c r="G412" t="inlineStr"/>
+      <c r="H412" t="inlineStr"/>
+      <c r="I412" t="inlineStr"/>
+      <c r="J412" t="inlineStr"/>
+      <c r="K412" t="inlineStr"/>
+      <c r="L412" t="inlineStr"/>
+      <c r="M412" t="inlineStr"/>
+      <c r="N412" t="inlineStr"/>
+      <c r="O412" t="n">
+        <v>0</v>
+      </c>
+      <c r="P412" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q412" t="n">
+        <v>0</v>
+      </c>
+      <c r="R412" t="n">
+        <v>0</v>
+      </c>
+      <c r="S412" t="n">
+        <v>0</v>
+      </c>
+      <c r="T412" t="n">
+        <v>0</v>
+      </c>
+      <c r="U412" t="n">
+        <v>0</v>
+      </c>
+      <c r="V412" t="n">
+        <v>0</v>
+      </c>
+      <c r="W412" t="n">
+        <v>0</v>
+      </c>
+      <c r="X412" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y412" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z412" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr"/>
+      <c r="B413" t="n">
+        <v>16</v>
+      </c>
+      <c r="C413" t="inlineStr"/>
+      <c r="D413" t="inlineStr"/>
+      <c r="E413" t="inlineStr"/>
+      <c r="F413" t="inlineStr"/>
+      <c r="G413" t="inlineStr"/>
+      <c r="H413" t="inlineStr"/>
+      <c r="I413" t="inlineStr"/>
+      <c r="J413" t="inlineStr"/>
+      <c r="K413" t="inlineStr"/>
+      <c r="L413" t="inlineStr"/>
+      <c r="M413" t="inlineStr"/>
+      <c r="N413" t="inlineStr"/>
+      <c r="O413" t="n">
+        <v>64</v>
+      </c>
+      <c r="P413" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q413" t="n">
+        <v>0</v>
+      </c>
+      <c r="R413" t="n">
+        <v>0</v>
+      </c>
+      <c r="S413" t="n">
+        <v>0</v>
+      </c>
+      <c r="T413" t="n">
+        <v>0</v>
+      </c>
+      <c r="U413" t="n">
+        <v>0</v>
+      </c>
+      <c r="V413" t="n">
+        <v>100</v>
+      </c>
+      <c r="W413" t="n">
+        <v>0</v>
+      </c>
+      <c r="X413" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y413" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z413" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr"/>
+      <c r="B414" t="n">
+        <v>17</v>
+      </c>
+      <c r="C414" t="inlineStr">
+        <is>
+          <t>SID_対魔道４;</t>
+        </is>
+      </c>
+      <c r="D414" t="inlineStr">
+        <is>
+          <t>SID_魔力＋４;</t>
+        </is>
+      </c>
+      <c r="E414" t="inlineStr"/>
+      <c r="F414" t="inlineStr"/>
+      <c r="G414" t="inlineStr"/>
+      <c r="H414" t="inlineStr"/>
+      <c r="I414" t="inlineStr"/>
+      <c r="J414" t="inlineStr"/>
+      <c r="K414" t="inlineStr"/>
+      <c r="L414" t="inlineStr"/>
+      <c r="M414" t="inlineStr"/>
+      <c r="N414" t="inlineStr"/>
+      <c r="O414" t="n">
+        <v>0</v>
+      </c>
+      <c r="P414" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q414" t="n">
+        <v>0</v>
+      </c>
+      <c r="R414" t="n">
+        <v>0</v>
+      </c>
+      <c r="S414" t="n">
+        <v>0</v>
+      </c>
+      <c r="T414" t="n">
+        <v>0</v>
+      </c>
+      <c r="U414" t="n">
+        <v>0</v>
+      </c>
+      <c r="V414" t="n">
+        <v>0</v>
+      </c>
+      <c r="W414" t="n">
+        <v>0</v>
+      </c>
+      <c r="X414" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y414" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z414" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr"/>
+      <c r="B415" t="n">
+        <v>18</v>
+      </c>
+      <c r="C415" t="inlineStr">
+        <is>
+          <t>SID_慧眼＋;SID_魔力・魔防＋５;</t>
+        </is>
+      </c>
+      <c r="D415" t="inlineStr">
+        <is>
+          <t>SID_慧眼＋;</t>
+        </is>
+      </c>
+      <c r="E415" t="inlineStr"/>
+      <c r="F415" t="inlineStr"/>
+      <c r="G415" t="inlineStr"/>
+      <c r="H415" t="inlineStr"/>
+      <c r="I415" t="inlineStr"/>
+      <c r="J415" t="inlineStr"/>
+      <c r="K415" t="inlineStr"/>
+      <c r="L415" t="inlineStr"/>
+      <c r="M415" t="inlineStr"/>
+      <c r="N415" t="inlineStr"/>
+      <c r="O415" t="n">
+        <v>0</v>
+      </c>
+      <c r="P415" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q415" t="n">
+        <v>0</v>
+      </c>
+      <c r="R415" t="n">
+        <v>0</v>
+      </c>
+      <c r="S415" t="n">
+        <v>0</v>
+      </c>
+      <c r="T415" t="n">
+        <v>0</v>
+      </c>
+      <c r="U415" t="n">
+        <v>0</v>
+      </c>
+      <c r="V415" t="n">
+        <v>0</v>
+      </c>
+      <c r="W415" t="n">
+        <v>0</v>
+      </c>
+      <c r="X415" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y415" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z415" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr"/>
+      <c r="B416" t="n">
+        <v>19</v>
+      </c>
+      <c r="C416" t="inlineStr">
+        <is>
+          <t>SID_対魔道５;</t>
+        </is>
+      </c>
+      <c r="D416" t="inlineStr">
+        <is>
+          <t>SID_魔防＋５;</t>
+        </is>
+      </c>
+      <c r="E416" t="inlineStr"/>
+      <c r="F416" t="inlineStr"/>
+      <c r="G416" t="inlineStr"/>
+      <c r="H416" t="inlineStr"/>
+      <c r="I416" t="inlineStr"/>
+      <c r="J416" t="inlineStr"/>
+      <c r="K416" t="inlineStr"/>
+      <c r="L416" t="inlineStr"/>
+      <c r="M416" t="inlineStr"/>
+      <c r="N416" t="inlineStr"/>
+      <c r="O416" t="n">
+        <v>0</v>
+      </c>
+      <c r="P416" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q416" t="n">
+        <v>0</v>
+      </c>
+      <c r="R416" t="n">
+        <v>0</v>
+      </c>
+      <c r="S416" t="n">
+        <v>0</v>
+      </c>
+      <c r="T416" t="n">
+        <v>0</v>
+      </c>
+      <c r="U416" t="n">
+        <v>0</v>
+      </c>
+      <c r="V416" t="n">
+        <v>0</v>
+      </c>
+      <c r="W416" t="n">
+        <v>0</v>
+      </c>
+      <c r="X416" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y416" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z416" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr"/>
+      <c r="B417" t="n">
+        <v>20</v>
+      </c>
+      <c r="C417" t="inlineStr"/>
+      <c r="D417" t="inlineStr"/>
+      <c r="E417" t="inlineStr"/>
+      <c r="F417" t="inlineStr"/>
+      <c r="G417" t="inlineStr"/>
+      <c r="H417" t="inlineStr"/>
+      <c r="I417" t="inlineStr"/>
+      <c r="J417" t="inlineStr"/>
+      <c r="K417" t="inlineStr"/>
+      <c r="L417" t="inlineStr"/>
+      <c r="M417" t="inlineStr"/>
+      <c r="N417" t="inlineStr"/>
+      <c r="O417" t="n">
+        <v>0</v>
+      </c>
+      <c r="P417" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q417" t="n">
+        <v>0</v>
+      </c>
+      <c r="R417" t="n">
+        <v>0</v>
+      </c>
+      <c r="S417" t="n">
+        <v>0</v>
+      </c>
+      <c r="T417" t="n">
+        <v>0</v>
+      </c>
+      <c r="U417" t="n">
+        <v>0</v>
+      </c>
+      <c r="V417" t="n">
+        <v>0</v>
+      </c>
+      <c r="W417" t="n">
+        <v>0</v>
+      </c>
+      <c r="X417" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y417" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z417" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>GGID_カミラ</t>
+        </is>
+      </c>
+      <c r="B418" t="n">
+        <v>0</v>
+      </c>
+      <c r="C418" t="inlineStr"/>
+      <c r="D418" t="inlineStr"/>
+      <c r="E418" t="inlineStr"/>
+      <c r="F418" t="inlineStr"/>
+      <c r="G418" t="inlineStr"/>
+      <c r="H418" t="inlineStr"/>
+      <c r="I418" t="inlineStr"/>
+      <c r="J418" t="inlineStr"/>
+      <c r="K418" t="inlineStr"/>
+      <c r="L418" t="inlineStr"/>
+      <c r="M418" t="inlineStr"/>
+      <c r="N418" t="inlineStr"/>
+      <c r="O418" t="n">
+        <v>0</v>
+      </c>
+      <c r="P418" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q418" t="n">
+        <v>0</v>
+      </c>
+      <c r="R418" t="n">
+        <v>0</v>
+      </c>
+      <c r="S418" t="n">
+        <v>0</v>
+      </c>
+      <c r="T418" t="n">
+        <v>0</v>
+      </c>
+      <c r="U418" t="n">
+        <v>0</v>
+      </c>
+      <c r="V418" t="n">
+        <v>0</v>
+      </c>
+      <c r="W418" t="n">
+        <v>0</v>
+      </c>
+      <c r="X418" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y418" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z418" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr"/>
+      <c r="B419" t="n">
+        <v>1</v>
+      </c>
+      <c r="C419" t="inlineStr">
+        <is>
+          <t>SID_速さ・魔防＋１;</t>
+        </is>
+      </c>
+      <c r="D419" t="inlineStr">
+        <is>
+          <t>SID_速さ＋２;SID_魔防＋１;SID_ＨＰ＋３;SID_竜脈・異;</t>
+        </is>
+      </c>
+      <c r="E419" t="inlineStr">
+        <is>
+          <t>SID_天駆;SID_敵エンゲージ技ダメージ軽減;</t>
+        </is>
+      </c>
+      <c r="F419" t="inlineStr">
+        <is>
+          <t>IID_カミラ_ボルトアクス;</t>
+        </is>
+      </c>
+      <c r="G419" t="inlineStr"/>
+      <c r="H419" t="inlineStr"/>
+      <c r="I419" t="inlineStr"/>
+      <c r="J419" t="inlineStr"/>
+      <c r="K419" t="inlineStr"/>
+      <c r="L419" t="inlineStr"/>
+      <c r="M419" t="inlineStr"/>
+      <c r="N419" t="inlineStr"/>
+      <c r="O419" t="n">
+        <v>0</v>
+      </c>
+      <c r="P419" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q419" t="n">
+        <v>0</v>
+      </c>
+      <c r="R419" t="n">
+        <v>0</v>
+      </c>
+      <c r="S419" t="n">
+        <v>0</v>
+      </c>
+      <c r="T419" t="n">
+        <v>0</v>
+      </c>
+      <c r="U419" t="n">
+        <v>0</v>
+      </c>
+      <c r="V419" t="n">
+        <v>0</v>
+      </c>
+      <c r="W419" t="n">
+        <v>0</v>
+      </c>
+      <c r="X419" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y419" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z419" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr"/>
+      <c r="B420" t="n">
+        <v>2</v>
+      </c>
+      <c r="C420" t="inlineStr">
+        <is>
+          <t>SID_対槍術１;</t>
+        </is>
+      </c>
+      <c r="D420" t="inlineStr">
+        <is>
+          <t>SID_魔防＋２;</t>
+        </is>
+      </c>
+      <c r="E420" t="inlineStr"/>
+      <c r="F420" t="inlineStr"/>
+      <c r="G420" t="inlineStr"/>
+      <c r="H420" t="inlineStr"/>
+      <c r="I420" t="inlineStr"/>
+      <c r="J420" t="inlineStr"/>
+      <c r="K420" t="inlineStr"/>
+      <c r="L420" t="inlineStr"/>
+      <c r="M420" t="inlineStr"/>
+      <c r="N420" t="inlineStr"/>
+      <c r="O420" t="n">
+        <v>0</v>
+      </c>
+      <c r="P420" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q420" t="n">
+        <v>0</v>
+      </c>
+      <c r="R420" t="n">
+        <v>0</v>
+      </c>
+      <c r="S420" t="n">
+        <v>0</v>
+      </c>
+      <c r="T420" t="n">
+        <v>0</v>
+      </c>
+      <c r="U420" t="n">
+        <v>0</v>
+      </c>
+      <c r="V420" t="n">
+        <v>0</v>
+      </c>
+      <c r="W420" t="n">
+        <v>0</v>
+      </c>
+      <c r="X420" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y420" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z420" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr"/>
+      <c r="B421" t="n">
+        <v>3</v>
+      </c>
+      <c r="C421" t="inlineStr">
+        <is>
+          <t>SID_速さ・魔防＋２;</t>
+        </is>
+      </c>
+      <c r="D421" t="inlineStr">
+        <is>
+          <t>SID_ＨＰ＋５;</t>
+        </is>
+      </c>
+      <c r="E421" t="inlineStr"/>
+      <c r="F421" t="inlineStr"/>
+      <c r="G421" t="inlineStr"/>
+      <c r="H421" t="inlineStr"/>
+      <c r="I421" t="inlineStr"/>
+      <c r="J421" t="inlineStr"/>
+      <c r="K421" t="inlineStr"/>
+      <c r="L421" t="inlineStr"/>
+      <c r="M421" t="inlineStr"/>
+      <c r="N421" t="inlineStr"/>
+      <c r="O421" t="n">
+        <v>0</v>
+      </c>
+      <c r="P421" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q421" t="n">
+        <v>0</v>
+      </c>
+      <c r="R421" t="n">
+        <v>0</v>
+      </c>
+      <c r="S421" t="n">
+        <v>0</v>
+      </c>
+      <c r="T421" t="n">
+        <v>0</v>
+      </c>
+      <c r="U421" t="n">
+        <v>0</v>
+      </c>
+      <c r="V421" t="n">
+        <v>0</v>
+      </c>
+      <c r="W421" t="n">
+        <v>0</v>
+      </c>
+      <c r="X421" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y421" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z421" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr"/>
+      <c r="B422" t="n">
+        <v>4</v>
+      </c>
+      <c r="C422" t="inlineStr">
+        <is>
+          <t>SID_後始末;</t>
+        </is>
+      </c>
+      <c r="D422" t="inlineStr">
+        <is>
+          <t>SID_後始末;</t>
+        </is>
+      </c>
+      <c r="E422" t="inlineStr"/>
+      <c r="F422" t="inlineStr"/>
+      <c r="G422" t="inlineStr"/>
+      <c r="H422" t="inlineStr"/>
+      <c r="I422" t="inlineStr"/>
+      <c r="J422" t="inlineStr"/>
+      <c r="K422" t="inlineStr"/>
+      <c r="L422" t="inlineStr"/>
+      <c r="M422" t="inlineStr"/>
+      <c r="N422" t="inlineStr"/>
+      <c r="O422" t="n">
+        <v>0</v>
+      </c>
+      <c r="P422" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q422" t="n">
+        <v>0</v>
+      </c>
+      <c r="R422" t="n">
+        <v>0</v>
+      </c>
+      <c r="S422" t="n">
+        <v>0</v>
+      </c>
+      <c r="T422" t="n">
+        <v>0</v>
+      </c>
+      <c r="U422" t="n">
+        <v>0</v>
+      </c>
+      <c r="V422" t="n">
+        <v>0</v>
+      </c>
+      <c r="W422" t="n">
+        <v>0</v>
+      </c>
+      <c r="X422" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y422" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z422" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr"/>
+      <c r="B423" t="n">
+        <v>5</v>
+      </c>
+      <c r="C423" t="inlineStr"/>
+      <c r="D423" t="inlineStr"/>
+      <c r="E423" t="inlineStr"/>
+      <c r="F423" t="inlineStr"/>
+      <c r="G423" t="inlineStr"/>
+      <c r="H423" t="inlineStr"/>
+      <c r="I423" t="inlineStr"/>
+      <c r="J423" t="inlineStr"/>
+      <c r="K423" t="inlineStr"/>
+      <c r="L423" t="inlineStr"/>
+      <c r="M423" t="inlineStr"/>
+      <c r="N423" t="inlineStr"/>
+      <c r="O423" t="n">
+        <v>0</v>
+      </c>
+      <c r="P423" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q423" t="n">
+        <v>0</v>
+      </c>
+      <c r="R423" t="n">
+        <v>0</v>
+      </c>
+      <c r="S423" t="n">
+        <v>0</v>
+      </c>
+      <c r="T423" t="n">
+        <v>0</v>
+      </c>
+      <c r="U423" t="n">
+        <v>0</v>
+      </c>
+      <c r="V423" t="n">
+        <v>0</v>
+      </c>
+      <c r="W423" t="n">
+        <v>0</v>
+      </c>
+      <c r="X423" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y423" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z423" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="inlineStr"/>
+      <c r="B424" t="n">
+        <v>6</v>
+      </c>
+      <c r="C424" t="inlineStr"/>
+      <c r="D424" t="inlineStr"/>
+      <c r="E424" t="inlineStr"/>
+      <c r="F424" t="inlineStr"/>
+      <c r="G424" t="inlineStr"/>
+      <c r="H424" t="inlineStr"/>
+      <c r="I424" t="inlineStr"/>
+      <c r="J424" t="inlineStr"/>
+      <c r="K424" t="inlineStr"/>
+      <c r="L424" t="inlineStr"/>
+      <c r="M424" t="inlineStr"/>
+      <c r="N424" t="inlineStr"/>
+      <c r="O424" t="n">
+        <v>8</v>
+      </c>
+      <c r="P424" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q424" t="n">
+        <v>0</v>
+      </c>
+      <c r="R424" t="n">
+        <v>0</v>
+      </c>
+      <c r="S424" t="n">
+        <v>100</v>
+      </c>
+      <c r="T424" t="n">
+        <v>0</v>
+      </c>
+      <c r="U424" t="n">
+        <v>0</v>
+      </c>
+      <c r="V424" t="n">
+        <v>0</v>
+      </c>
+      <c r="W424" t="n">
+        <v>0</v>
+      </c>
+      <c r="X424" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y424" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z424" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr"/>
+      <c r="B425" t="n">
+        <v>7</v>
+      </c>
+      <c r="C425" t="inlineStr">
+        <is>
+          <t>SID_対槍術２;</t>
+        </is>
+      </c>
+      <c r="D425" t="inlineStr">
+        <is>
+          <t>SID_速さ＋３;</t>
+        </is>
+      </c>
+      <c r="E425" t="inlineStr"/>
+      <c r="F425" t="inlineStr"/>
+      <c r="G425" t="inlineStr"/>
+      <c r="H425" t="inlineStr"/>
+      <c r="I425" t="inlineStr"/>
+      <c r="J425" t="inlineStr"/>
+      <c r="K425" t="inlineStr"/>
+      <c r="L425" t="inlineStr"/>
+      <c r="M425" t="inlineStr"/>
+      <c r="N425" t="inlineStr"/>
+      <c r="O425" t="n">
+        <v>0</v>
+      </c>
+      <c r="P425" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q425" t="n">
+        <v>0</v>
+      </c>
+      <c r="R425" t="n">
+        <v>0</v>
+      </c>
+      <c r="S425" t="n">
+        <v>0</v>
+      </c>
+      <c r="T425" t="n">
+        <v>0</v>
+      </c>
+      <c r="U425" t="n">
+        <v>0</v>
+      </c>
+      <c r="V425" t="n">
+        <v>0</v>
+      </c>
+      <c r="W425" t="n">
+        <v>0</v>
+      </c>
+      <c r="X425" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y425" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z425" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr"/>
+      <c r="B426" t="n">
+        <v>8</v>
+      </c>
+      <c r="C426" t="inlineStr">
+        <is>
+          <t>SID_デトックス;</t>
+        </is>
+      </c>
+      <c r="D426" t="inlineStr">
+        <is>
+          <t>SID_デトックス;</t>
+        </is>
+      </c>
+      <c r="E426" t="inlineStr"/>
+      <c r="F426" t="inlineStr"/>
+      <c r="G426" t="inlineStr"/>
+      <c r="H426" t="inlineStr"/>
+      <c r="I426" t="inlineStr"/>
+      <c r="J426" t="inlineStr"/>
+      <c r="K426" t="inlineStr"/>
+      <c r="L426" t="inlineStr"/>
+      <c r="M426" t="inlineStr"/>
+      <c r="N426" t="inlineStr"/>
+      <c r="O426" t="n">
+        <v>0</v>
+      </c>
+      <c r="P426" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q426" t="n">
+        <v>0</v>
+      </c>
+      <c r="R426" t="n">
+        <v>0</v>
+      </c>
+      <c r="S426" t="n">
+        <v>0</v>
+      </c>
+      <c r="T426" t="n">
+        <v>0</v>
+      </c>
+      <c r="U426" t="n">
+        <v>0</v>
+      </c>
+      <c r="V426" t="n">
+        <v>0</v>
+      </c>
+      <c r="W426" t="n">
+        <v>0</v>
+      </c>
+      <c r="X426" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y426" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z426" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="inlineStr"/>
+      <c r="B427" t="n">
+        <v>9</v>
+      </c>
+      <c r="C427" t="inlineStr">
+        <is>
+          <t>SID_速さ・魔防＋３;</t>
+        </is>
+      </c>
+      <c r="D427" t="inlineStr">
+        <is>
+          <t>SID_魔防＋３;</t>
+        </is>
+      </c>
+      <c r="E427" t="inlineStr"/>
+      <c r="F427" t="inlineStr"/>
+      <c r="G427" t="inlineStr"/>
+      <c r="H427" t="inlineStr"/>
+      <c r="I427" t="inlineStr"/>
+      <c r="J427" t="inlineStr"/>
+      <c r="K427" t="inlineStr"/>
+      <c r="L427" t="inlineStr"/>
+      <c r="M427" t="inlineStr"/>
+      <c r="N427" t="inlineStr"/>
+      <c r="O427" t="n">
+        <v>0</v>
+      </c>
+      <c r="P427" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q427" t="n">
+        <v>0</v>
+      </c>
+      <c r="R427" t="n">
+        <v>0</v>
+      </c>
+      <c r="S427" t="n">
+        <v>0</v>
+      </c>
+      <c r="T427" t="n">
+        <v>0</v>
+      </c>
+      <c r="U427" t="n">
+        <v>0</v>
+      </c>
+      <c r="V427" t="n">
+        <v>0</v>
+      </c>
+      <c r="W427" t="n">
+        <v>0</v>
+      </c>
+      <c r="X427" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y427" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z427" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="inlineStr"/>
+      <c r="B428" t="n">
+        <v>10</v>
+      </c>
+      <c r="C428" t="inlineStr"/>
+      <c r="D428" t="inlineStr"/>
+      <c r="E428" t="inlineStr"/>
+      <c r="F428" t="inlineStr">
+        <is>
+          <t>IID_カミラ_ライトニング;</t>
+        </is>
+      </c>
+      <c r="G428" t="inlineStr"/>
+      <c r="H428" t="inlineStr"/>
+      <c r="I428" t="inlineStr"/>
+      <c r="J428" t="inlineStr"/>
+      <c r="K428" t="inlineStr"/>
+      <c r="L428" t="inlineStr"/>
+      <c r="M428" t="inlineStr"/>
+      <c r="N428" t="inlineStr"/>
+      <c r="O428" t="n">
+        <v>0</v>
+      </c>
+      <c r="P428" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q428" t="n">
+        <v>0</v>
+      </c>
+      <c r="R428" t="n">
+        <v>0</v>
+      </c>
+      <c r="S428" t="n">
+        <v>0</v>
+      </c>
+      <c r="T428" t="n">
+        <v>0</v>
+      </c>
+      <c r="U428" t="n">
+        <v>0</v>
+      </c>
+      <c r="V428" t="n">
+        <v>0</v>
+      </c>
+      <c r="W428" t="n">
+        <v>0</v>
+      </c>
+      <c r="X428" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y428" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z428" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="inlineStr"/>
+      <c r="B429" t="n">
+        <v>11</v>
+      </c>
+      <c r="C429" t="inlineStr"/>
+      <c r="D429" t="inlineStr"/>
+      <c r="E429" t="inlineStr"/>
+      <c r="F429" t="inlineStr"/>
+      <c r="G429" t="inlineStr"/>
+      <c r="H429" t="inlineStr"/>
+      <c r="I429" t="inlineStr"/>
+      <c r="J429" t="inlineStr"/>
+      <c r="K429" t="inlineStr"/>
+      <c r="L429" t="inlineStr"/>
+      <c r="M429" t="inlineStr"/>
+      <c r="N429" t="inlineStr"/>
+      <c r="O429" t="n">
+        <v>0</v>
+      </c>
+      <c r="P429" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q429" t="n">
+        <v>0</v>
+      </c>
+      <c r="R429" t="n">
+        <v>0</v>
+      </c>
+      <c r="S429" t="n">
+        <v>0</v>
+      </c>
+      <c r="T429" t="n">
+        <v>0</v>
+      </c>
+      <c r="U429" t="n">
+        <v>0</v>
+      </c>
+      <c r="V429" t="n">
+        <v>0</v>
+      </c>
+      <c r="W429" t="n">
+        <v>0</v>
+      </c>
+      <c r="X429" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y429" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z429" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="inlineStr"/>
+      <c r="B430" t="n">
+        <v>12</v>
+      </c>
+      <c r="C430" t="inlineStr">
+        <is>
+          <t>SID_地脈吸収;</t>
+        </is>
+      </c>
+      <c r="D430" t="inlineStr">
+        <is>
+          <t>SID_地脈吸収;</t>
+        </is>
+      </c>
+      <c r="E430" t="inlineStr"/>
+      <c r="F430" t="inlineStr"/>
+      <c r="G430" t="inlineStr"/>
+      <c r="H430" t="inlineStr"/>
+      <c r="I430" t="inlineStr"/>
+      <c r="J430" t="inlineStr"/>
+      <c r="K430" t="inlineStr"/>
+      <c r="L430" t="inlineStr"/>
+      <c r="M430" t="inlineStr"/>
+      <c r="N430" t="inlineStr"/>
+      <c r="O430" t="n">
+        <v>0</v>
+      </c>
+      <c r="P430" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q430" t="n">
+        <v>0</v>
+      </c>
+      <c r="R430" t="n">
+        <v>0</v>
+      </c>
+      <c r="S430" t="n">
+        <v>0</v>
+      </c>
+      <c r="T430" t="n">
+        <v>0</v>
+      </c>
+      <c r="U430" t="n">
+        <v>0</v>
+      </c>
+      <c r="V430" t="n">
+        <v>0</v>
+      </c>
+      <c r="W430" t="n">
+        <v>0</v>
+      </c>
+      <c r="X430" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y430" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z430" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="inlineStr"/>
+      <c r="B431" t="n">
+        <v>13</v>
+      </c>
+      <c r="C431" t="inlineStr">
+        <is>
+          <t>SID_対槍術３;</t>
+        </is>
+      </c>
+      <c r="D431" t="inlineStr">
+        <is>
+          <t>SID_ＨＰ＋７;</t>
+        </is>
+      </c>
+      <c r="E431" t="inlineStr"/>
+      <c r="F431" t="inlineStr"/>
+      <c r="G431" t="inlineStr"/>
+      <c r="H431" t="inlineStr"/>
+      <c r="I431" t="inlineStr"/>
+      <c r="J431" t="inlineStr"/>
+      <c r="K431" t="inlineStr"/>
+      <c r="L431" t="inlineStr"/>
+      <c r="M431" t="inlineStr"/>
+      <c r="N431" t="inlineStr"/>
+      <c r="O431" t="n">
+        <v>0</v>
+      </c>
+      <c r="P431" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q431" t="n">
+        <v>0</v>
+      </c>
+      <c r="R431" t="n">
+        <v>0</v>
+      </c>
+      <c r="S431" t="n">
+        <v>0</v>
+      </c>
+      <c r="T431" t="n">
+        <v>0</v>
+      </c>
+      <c r="U431" t="n">
+        <v>0</v>
+      </c>
+      <c r="V431" t="n">
+        <v>0</v>
+      </c>
+      <c r="W431" t="n">
+        <v>0</v>
+      </c>
+      <c r="X431" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y431" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z431" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="inlineStr"/>
+      <c r="B432" t="n">
+        <v>14</v>
+      </c>
+      <c r="C432" t="inlineStr">
+        <is>
+          <t>SID_速さ・魔防＋４;</t>
+        </is>
+      </c>
+      <c r="D432" t="inlineStr">
+        <is>
+          <t>SID_速さ＋４;</t>
+        </is>
+      </c>
+      <c r="E432" t="inlineStr"/>
+      <c r="F432" t="inlineStr"/>
+      <c r="G432" t="inlineStr"/>
+      <c r="H432" t="inlineStr"/>
+      <c r="I432" t="inlineStr"/>
+      <c r="J432" t="inlineStr"/>
+      <c r="K432" t="inlineStr"/>
+      <c r="L432" t="inlineStr"/>
+      <c r="M432" t="inlineStr"/>
+      <c r="N432" t="inlineStr"/>
+      <c r="O432" t="n">
+        <v>0</v>
+      </c>
+      <c r="P432" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q432" t="n">
+        <v>0</v>
+      </c>
+      <c r="R432" t="n">
+        <v>0</v>
+      </c>
+      <c r="S432" t="n">
+        <v>0</v>
+      </c>
+      <c r="T432" t="n">
+        <v>0</v>
+      </c>
+      <c r="U432" t="n">
+        <v>0</v>
+      </c>
+      <c r="V432" t="n">
+        <v>0</v>
+      </c>
+      <c r="W432" t="n">
+        <v>0</v>
+      </c>
+      <c r="X432" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y432" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z432" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="inlineStr"/>
+      <c r="B433" t="n">
+        <v>15</v>
+      </c>
+      <c r="C433" t="inlineStr"/>
+      <c r="D433" t="inlineStr"/>
+      <c r="E433" t="inlineStr"/>
+      <c r="F433" t="inlineStr">
+        <is>
+          <t>IID_カミラ_カミラの艶斧;</t>
+        </is>
+      </c>
+      <c r="G433" t="inlineStr"/>
+      <c r="H433" t="inlineStr"/>
+      <c r="I433" t="inlineStr"/>
+      <c r="J433" t="inlineStr"/>
+      <c r="K433" t="inlineStr"/>
+      <c r="L433" t="inlineStr"/>
+      <c r="M433" t="inlineStr"/>
+      <c r="N433" t="inlineStr"/>
+      <c r="O433" t="n">
+        <v>0</v>
+      </c>
+      <c r="P433" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q433" t="n">
+        <v>0</v>
+      </c>
+      <c r="R433" t="n">
+        <v>0</v>
+      </c>
+      <c r="S433" t="n">
+        <v>0</v>
+      </c>
+      <c r="T433" t="n">
+        <v>0</v>
+      </c>
+      <c r="U433" t="n">
+        <v>0</v>
+      </c>
+      <c r="V433" t="n">
+        <v>0</v>
+      </c>
+      <c r="W433" t="n">
+        <v>0</v>
+      </c>
+      <c r="X433" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y433" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z433" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="inlineStr"/>
+      <c r="B434" t="n">
+        <v>16</v>
+      </c>
+      <c r="C434" t="inlineStr">
+        <is>
+          <t>SID_対槍術４;</t>
+        </is>
+      </c>
+      <c r="D434" t="inlineStr">
+        <is>
+          <t>SID_魔防＋４;</t>
+        </is>
+      </c>
+      <c r="E434" t="inlineStr"/>
+      <c r="F434" t="inlineStr"/>
+      <c r="G434" t="inlineStr"/>
+      <c r="H434" t="inlineStr"/>
+      <c r="I434" t="inlineStr"/>
+      <c r="J434" t="inlineStr"/>
+      <c r="K434" t="inlineStr"/>
+      <c r="L434" t="inlineStr"/>
+      <c r="M434" t="inlineStr"/>
+      <c r="N434" t="inlineStr"/>
+      <c r="O434" t="n">
+        <v>0</v>
+      </c>
+      <c r="P434" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q434" t="n">
+        <v>0</v>
+      </c>
+      <c r="R434" t="n">
+        <v>0</v>
+      </c>
+      <c r="S434" t="n">
+        <v>0</v>
+      </c>
+      <c r="T434" t="n">
+        <v>0</v>
+      </c>
+      <c r="U434" t="n">
+        <v>0</v>
+      </c>
+      <c r="V434" t="n">
+        <v>0</v>
+      </c>
+      <c r="W434" t="n">
+        <v>0</v>
+      </c>
+      <c r="X434" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y434" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z434" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="inlineStr"/>
+      <c r="B435" t="n">
+        <v>17</v>
+      </c>
+      <c r="C435" t="inlineStr"/>
+      <c r="D435" t="inlineStr"/>
+      <c r="E435" t="inlineStr"/>
+      <c r="F435" t="inlineStr"/>
+      <c r="G435" t="inlineStr"/>
+      <c r="H435" t="inlineStr"/>
+      <c r="I435" t="inlineStr"/>
+      <c r="J435" t="inlineStr"/>
+      <c r="K435" t="inlineStr"/>
+      <c r="L435" t="inlineStr"/>
+      <c r="M435" t="inlineStr"/>
+      <c r="N435" t="inlineStr"/>
+      <c r="O435" t="n">
+        <v>64</v>
+      </c>
+      <c r="P435" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q435" t="n">
+        <v>0</v>
+      </c>
+      <c r="R435" t="n">
+        <v>0</v>
+      </c>
+      <c r="S435" t="n">
+        <v>0</v>
+      </c>
+      <c r="T435" t="n">
+        <v>0</v>
+      </c>
+      <c r="U435" t="n">
+        <v>0</v>
+      </c>
+      <c r="V435" t="n">
+        <v>100</v>
+      </c>
+      <c r="W435" t="n">
+        <v>0</v>
+      </c>
+      <c r="X435" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y435" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z435" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="inlineStr"/>
+      <c r="B436" t="n">
+        <v>18</v>
+      </c>
+      <c r="C436" t="inlineStr">
+        <is>
+          <t>SID_後始末＋;SID_速さ・魔防＋５;</t>
+        </is>
+      </c>
+      <c r="D436" t="inlineStr">
+        <is>
+          <t>SID_後始末＋;</t>
+        </is>
+      </c>
+      <c r="E436" t="inlineStr"/>
+      <c r="F436" t="inlineStr"/>
+      <c r="G436" t="inlineStr"/>
+      <c r="H436" t="inlineStr"/>
+      <c r="I436" t="inlineStr"/>
+      <c r="J436" t="inlineStr"/>
+      <c r="K436" t="inlineStr"/>
+      <c r="L436" t="inlineStr"/>
+      <c r="M436" t="inlineStr"/>
+      <c r="N436" t="inlineStr"/>
+      <c r="O436" t="n">
+        <v>0</v>
+      </c>
+      <c r="P436" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q436" t="n">
+        <v>0</v>
+      </c>
+      <c r="R436" t="n">
+        <v>0</v>
+      </c>
+      <c r="S436" t="n">
+        <v>0</v>
+      </c>
+      <c r="T436" t="n">
+        <v>0</v>
+      </c>
+      <c r="U436" t="n">
+        <v>0</v>
+      </c>
+      <c r="V436" t="n">
+        <v>0</v>
+      </c>
+      <c r="W436" t="n">
+        <v>0</v>
+      </c>
+      <c r="X436" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y436" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z436" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="inlineStr"/>
+      <c r="B437" t="n">
+        <v>19</v>
+      </c>
+      <c r="C437" t="inlineStr">
+        <is>
+          <t>SID_対槍術５;</t>
+        </is>
+      </c>
+      <c r="D437" t="inlineStr">
+        <is>
+          <t>SID_速さ＋５;</t>
+        </is>
+      </c>
+      <c r="E437" t="inlineStr"/>
+      <c r="F437" t="inlineStr"/>
+      <c r="G437" t="inlineStr"/>
+      <c r="H437" t="inlineStr"/>
+      <c r="I437" t="inlineStr"/>
+      <c r="J437" t="inlineStr"/>
+      <c r="K437" t="inlineStr"/>
+      <c r="L437" t="inlineStr"/>
+      <c r="M437" t="inlineStr"/>
+      <c r="N437" t="inlineStr"/>
+      <c r="O437" t="n">
+        <v>0</v>
+      </c>
+      <c r="P437" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q437" t="n">
+        <v>0</v>
+      </c>
+      <c r="R437" t="n">
+        <v>0</v>
+      </c>
+      <c r="S437" t="n">
+        <v>0</v>
+      </c>
+      <c r="T437" t="n">
+        <v>0</v>
+      </c>
+      <c r="U437" t="n">
+        <v>0</v>
+      </c>
+      <c r="V437" t="n">
+        <v>0</v>
+      </c>
+      <c r="W437" t="n">
+        <v>0</v>
+      </c>
+      <c r="X437" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y437" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z437" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="inlineStr"/>
+      <c r="B438" t="n">
+        <v>20</v>
+      </c>
+      <c r="C438" t="inlineStr"/>
+      <c r="D438" t="inlineStr"/>
+      <c r="E438" t="inlineStr"/>
+      <c r="F438" t="inlineStr"/>
+      <c r="G438" t="inlineStr"/>
+      <c r="H438" t="inlineStr"/>
+      <c r="I438" t="inlineStr"/>
+      <c r="J438" t="inlineStr"/>
+      <c r="K438" t="inlineStr"/>
+      <c r="L438" t="inlineStr"/>
+      <c r="M438" t="inlineStr"/>
+      <c r="N438" t="inlineStr"/>
+      <c r="O438" t="n">
+        <v>0</v>
+      </c>
+      <c r="P438" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q438" t="n">
+        <v>0</v>
+      </c>
+      <c r="R438" t="n">
+        <v>0</v>
+      </c>
+      <c r="S438" t="n">
+        <v>0</v>
+      </c>
+      <c r="T438" t="n">
+        <v>0</v>
+      </c>
+      <c r="U438" t="n">
+        <v>0</v>
+      </c>
+      <c r="V438" t="n">
+        <v>0</v>
+      </c>
+      <c r="W438" t="n">
+        <v>0</v>
+      </c>
+      <c r="X438" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y438" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z438" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>GGID_クロム</t>
+        </is>
+      </c>
+      <c r="B439" t="n">
+        <v>0</v>
+      </c>
+      <c r="C439" t="inlineStr"/>
+      <c r="D439" t="inlineStr"/>
+      <c r="E439" t="inlineStr"/>
+      <c r="F439" t="inlineStr"/>
+      <c r="G439" t="inlineStr"/>
+      <c r="H439" t="inlineStr"/>
+      <c r="I439" t="inlineStr"/>
+      <c r="J439" t="inlineStr"/>
+      <c r="K439" t="inlineStr"/>
+      <c r="L439" t="inlineStr"/>
+      <c r="M439" t="inlineStr"/>
+      <c r="N439" t="inlineStr"/>
+      <c r="O439" t="n">
+        <v>0</v>
+      </c>
+      <c r="P439" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q439" t="n">
+        <v>0</v>
+      </c>
+      <c r="R439" t="n">
+        <v>0</v>
+      </c>
+      <c r="S439" t="n">
+        <v>0</v>
+      </c>
+      <c r="T439" t="n">
+        <v>0</v>
+      </c>
+      <c r="U439" t="n">
+        <v>0</v>
+      </c>
+      <c r="V439" t="n">
+        <v>0</v>
+      </c>
+      <c r="W439" t="n">
+        <v>0</v>
+      </c>
+      <c r="X439" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y439" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z439" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>GGID_E001_敵チキ</t>
+        </is>
+      </c>
+      <c r="B440" t="n">
+        <v>0</v>
+      </c>
+      <c r="C440" t="inlineStr"/>
+      <c r="D440" t="inlineStr"/>
+      <c r="E440" t="inlineStr"/>
+      <c r="F440" t="inlineStr"/>
+      <c r="G440" t="inlineStr"/>
+      <c r="H440" t="inlineStr"/>
+      <c r="I440" t="inlineStr"/>
+      <c r="J440" t="inlineStr"/>
+      <c r="K440" t="inlineStr"/>
+      <c r="L440" t="inlineStr"/>
+      <c r="M440" t="inlineStr"/>
+      <c r="N440" t="inlineStr"/>
+      <c r="O440" t="n">
+        <v>0</v>
+      </c>
+      <c r="P440" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q440" t="n">
+        <v>0</v>
+      </c>
+      <c r="R440" t="n">
+        <v>0</v>
+      </c>
+      <c r="S440" t="n">
+        <v>0</v>
+      </c>
+      <c r="T440" t="n">
+        <v>0</v>
+      </c>
+      <c r="U440" t="n">
+        <v>0</v>
+      </c>
+      <c r="V440" t="n">
+        <v>0</v>
+      </c>
+      <c r="W440" t="n">
+        <v>0</v>
+      </c>
+      <c r="X440" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y440" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z440" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>GGID_E002_敵ヘクトル</t>
+        </is>
+      </c>
+      <c r="B441" t="n">
+        <v>0</v>
+      </c>
+      <c r="C441" t="inlineStr"/>
+      <c r="D441" t="inlineStr"/>
+      <c r="E441" t="inlineStr"/>
+      <c r="F441" t="inlineStr"/>
+      <c r="G441" t="inlineStr"/>
+      <c r="H441" t="inlineStr"/>
+      <c r="I441" t="inlineStr"/>
+      <c r="J441" t="inlineStr"/>
+      <c r="K441" t="inlineStr"/>
+      <c r="L441" t="inlineStr"/>
+      <c r="M441" t="inlineStr"/>
+      <c r="N441" t="inlineStr"/>
+      <c r="O441" t="n">
+        <v>0</v>
+      </c>
+      <c r="P441" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q441" t="n">
+        <v>0</v>
+      </c>
+      <c r="R441" t="n">
+        <v>0</v>
+      </c>
+      <c r="S441" t="n">
+        <v>0</v>
+      </c>
+      <c r="T441" t="n">
+        <v>0</v>
+      </c>
+      <c r="U441" t="n">
+        <v>0</v>
+      </c>
+      <c r="V441" t="n">
+        <v>0</v>
+      </c>
+      <c r="W441" t="n">
+        <v>0</v>
+      </c>
+      <c r="X441" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y441" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z441" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>GGID_E003_敵ヴェロニカ</t>
+        </is>
+      </c>
+      <c r="B442" t="n">
+        <v>0</v>
+      </c>
+      <c r="C442" t="inlineStr"/>
+      <c r="D442" t="inlineStr"/>
+      <c r="E442" t="inlineStr"/>
+      <c r="F442" t="inlineStr"/>
+      <c r="G442" t="inlineStr"/>
+      <c r="H442" t="inlineStr"/>
+      <c r="I442" t="inlineStr"/>
+      <c r="J442" t="inlineStr"/>
+      <c r="K442" t="inlineStr"/>
+      <c r="L442" t="inlineStr"/>
+      <c r="M442" t="inlineStr"/>
+      <c r="N442" t="inlineStr"/>
+      <c r="O442" t="n">
+        <v>0</v>
+      </c>
+      <c r="P442" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q442" t="n">
+        <v>0</v>
+      </c>
+      <c r="R442" t="n">
+        <v>0</v>
+      </c>
+      <c r="S442" t="n">
+        <v>0</v>
+      </c>
+      <c r="T442" t="n">
+        <v>0</v>
+      </c>
+      <c r="U442" t="n">
+        <v>0</v>
+      </c>
+      <c r="V442" t="n">
+        <v>0</v>
+      </c>
+      <c r="W442" t="n">
+        <v>0</v>
+      </c>
+      <c r="X442" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y442" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z442" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>GGID_E004_敵セネリオ</t>
+        </is>
+      </c>
+      <c r="B443" t="n">
+        <v>0</v>
+      </c>
+      <c r="C443" t="inlineStr"/>
+      <c r="D443" t="inlineStr"/>
+      <c r="E443" t="inlineStr"/>
+      <c r="F443" t="inlineStr"/>
+      <c r="G443" t="inlineStr"/>
+      <c r="H443" t="inlineStr"/>
+      <c r="I443" t="inlineStr"/>
+      <c r="J443" t="inlineStr"/>
+      <c r="K443" t="inlineStr"/>
+      <c r="L443" t="inlineStr"/>
+      <c r="M443" t="inlineStr"/>
+      <c r="N443" t="inlineStr"/>
+      <c r="O443" t="n">
+        <v>0</v>
+      </c>
+      <c r="P443" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q443" t="n">
+        <v>0</v>
+      </c>
+      <c r="R443" t="n">
+        <v>0</v>
+      </c>
+      <c r="S443" t="n">
+        <v>0</v>
+      </c>
+      <c r="T443" t="n">
+        <v>0</v>
+      </c>
+      <c r="U443" t="n">
+        <v>0</v>
+      </c>
+      <c r="V443" t="n">
+        <v>0</v>
+      </c>
+      <c r="W443" t="n">
+        <v>0</v>
+      </c>
+      <c r="X443" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y443" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z443" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>GGID_E004_敵カミラ</t>
+        </is>
+      </c>
+      <c r="B444" t="n">
+        <v>0</v>
+      </c>
+      <c r="C444" t="inlineStr"/>
+      <c r="D444" t="inlineStr"/>
+      <c r="E444" t="inlineStr"/>
+      <c r="F444" t="inlineStr"/>
+      <c r="G444" t="inlineStr"/>
+      <c r="H444" t="inlineStr"/>
+      <c r="I444" t="inlineStr"/>
+      <c r="J444" t="inlineStr"/>
+      <c r="K444" t="inlineStr"/>
+      <c r="L444" t="inlineStr"/>
+      <c r="M444" t="inlineStr"/>
+      <c r="N444" t="inlineStr"/>
+      <c r="O444" t="n">
+        <v>0</v>
+      </c>
+      <c r="P444" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q444" t="n">
+        <v>0</v>
+      </c>
+      <c r="R444" t="n">
+        <v>0</v>
+      </c>
+      <c r="S444" t="n">
+        <v>0</v>
+      </c>
+      <c r="T444" t="n">
+        <v>0</v>
+      </c>
+      <c r="U444" t="n">
+        <v>0</v>
+      </c>
+      <c r="V444" t="n">
+        <v>0</v>
+      </c>
+      <c r="W444" t="n">
+        <v>0</v>
+      </c>
+      <c r="X444" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y444" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z444" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>GGID_E005_敵クロム</t>
+        </is>
+      </c>
+      <c r="B445" t="n">
+        <v>0</v>
+      </c>
+      <c r="C445" t="inlineStr"/>
+      <c r="D445" t="inlineStr"/>
+      <c r="E445" t="inlineStr"/>
+      <c r="F445" t="inlineStr"/>
+      <c r="G445" t="inlineStr"/>
+      <c r="H445" t="inlineStr"/>
+      <c r="I445" t="inlineStr"/>
+      <c r="J445" t="inlineStr"/>
+      <c r="K445" t="inlineStr"/>
+      <c r="L445" t="inlineStr"/>
+      <c r="M445" t="inlineStr"/>
+      <c r="N445" t="inlineStr"/>
+      <c r="O445" t="n">
+        <v>0</v>
+      </c>
+      <c r="P445" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q445" t="n">
+        <v>0</v>
+      </c>
+      <c r="R445" t="n">
+        <v>0</v>
+      </c>
+      <c r="S445" t="n">
+        <v>0</v>
+      </c>
+      <c r="T445" t="n">
+        <v>0</v>
+      </c>
+      <c r="U445" t="n">
+        <v>0</v>
+      </c>
+      <c r="V445" t="n">
+        <v>0</v>
+      </c>
+      <c r="W445" t="n">
+        <v>0</v>
+      </c>
+      <c r="X445" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y445" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z445" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t>GGID_E005_敵ヘクトル</t>
+        </is>
+      </c>
+      <c r="B446" t="n">
+        <v>0</v>
+      </c>
+      <c r="C446" t="inlineStr"/>
+      <c r="D446" t="inlineStr"/>
+      <c r="E446" t="inlineStr"/>
+      <c r="F446" t="inlineStr"/>
+      <c r="G446" t="inlineStr"/>
+      <c r="H446" t="inlineStr"/>
+      <c r="I446" t="inlineStr"/>
+      <c r="J446" t="inlineStr"/>
+      <c r="K446" t="inlineStr"/>
+      <c r="L446" t="inlineStr"/>
+      <c r="M446" t="inlineStr"/>
+      <c r="N446" t="inlineStr"/>
+      <c r="O446" t="n">
+        <v>0</v>
+      </c>
+      <c r="P446" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q446" t="n">
+        <v>0</v>
+      </c>
+      <c r="R446" t="n">
+        <v>0</v>
+      </c>
+      <c r="S446" t="n">
+        <v>0</v>
+      </c>
+      <c r="T446" t="n">
+        <v>0</v>
+      </c>
+      <c r="U446" t="n">
+        <v>0</v>
+      </c>
+      <c r="V446" t="n">
+        <v>0</v>
+      </c>
+      <c r="W446" t="n">
+        <v>0</v>
+      </c>
+      <c r="X446" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y446" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z446" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t>GGID_E005_敵ヴェロニカ</t>
+        </is>
+      </c>
+      <c r="B447" t="n">
+        <v>0</v>
+      </c>
+      <c r="C447" t="inlineStr"/>
+      <c r="D447" t="inlineStr"/>
+      <c r="E447" t="inlineStr"/>
+      <c r="F447" t="inlineStr"/>
+      <c r="G447" t="inlineStr"/>
+      <c r="H447" t="inlineStr"/>
+      <c r="I447" t="inlineStr"/>
+      <c r="J447" t="inlineStr"/>
+      <c r="K447" t="inlineStr"/>
+      <c r="L447" t="inlineStr"/>
+      <c r="M447" t="inlineStr"/>
+      <c r="N447" t="inlineStr"/>
+      <c r="O447" t="n">
+        <v>0</v>
+      </c>
+      <c r="P447" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q447" t="n">
+        <v>0</v>
+      </c>
+      <c r="R447" t="n">
+        <v>0</v>
+      </c>
+      <c r="S447" t="n">
+        <v>0</v>
+      </c>
+      <c r="T447" t="n">
+        <v>0</v>
+      </c>
+      <c r="U447" t="n">
+        <v>0</v>
+      </c>
+      <c r="V447" t="n">
+        <v>0</v>
+      </c>
+      <c r="W447" t="n">
+        <v>0</v>
+      </c>
+      <c r="X447" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y447" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z447" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t>GGID_E006_敵チキ</t>
+        </is>
+      </c>
+      <c r="B448" t="n">
+        <v>0</v>
+      </c>
+      <c r="C448" t="inlineStr"/>
+      <c r="D448" t="inlineStr"/>
+      <c r="E448" t="inlineStr"/>
+      <c r="F448" t="inlineStr"/>
+      <c r="G448" t="inlineStr"/>
+      <c r="H448" t="inlineStr"/>
+      <c r="I448" t="inlineStr"/>
+      <c r="J448" t="inlineStr"/>
+      <c r="K448" t="inlineStr"/>
+      <c r="L448" t="inlineStr"/>
+      <c r="M448" t="inlineStr"/>
+      <c r="N448" t="inlineStr"/>
+      <c r="O448" t="n">
+        <v>0</v>
+      </c>
+      <c r="P448" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q448" t="n">
+        <v>0</v>
+      </c>
+      <c r="R448" t="n">
+        <v>0</v>
+      </c>
+      <c r="S448" t="n">
+        <v>0</v>
+      </c>
+      <c r="T448" t="n">
+        <v>0</v>
+      </c>
+      <c r="U448" t="n">
+        <v>0</v>
+      </c>
+      <c r="V448" t="n">
+        <v>0</v>
+      </c>
+      <c r="W448" t="n">
+        <v>0</v>
+      </c>
+      <c r="X448" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y448" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z448" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="inlineStr">
+        <is>
+          <t>GGID_E006_敵ヘクトル</t>
+        </is>
+      </c>
+      <c r="B449" t="n">
+        <v>0</v>
+      </c>
+      <c r="C449" t="inlineStr"/>
+      <c r="D449" t="inlineStr"/>
+      <c r="E449" t="inlineStr"/>
+      <c r="F449" t="inlineStr"/>
+      <c r="G449" t="inlineStr"/>
+      <c r="H449" t="inlineStr"/>
+      <c r="I449" t="inlineStr"/>
+      <c r="J449" t="inlineStr"/>
+      <c r="K449" t="inlineStr"/>
+      <c r="L449" t="inlineStr"/>
+      <c r="M449" t="inlineStr"/>
+      <c r="N449" t="inlineStr"/>
+      <c r="O449" t="n">
+        <v>0</v>
+      </c>
+      <c r="P449" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q449" t="n">
+        <v>0</v>
+      </c>
+      <c r="R449" t="n">
+        <v>0</v>
+      </c>
+      <c r="S449" t="n">
+        <v>0</v>
+      </c>
+      <c r="T449" t="n">
+        <v>0</v>
+      </c>
+      <c r="U449" t="n">
+        <v>0</v>
+      </c>
+      <c r="V449" t="n">
+        <v>0</v>
+      </c>
+      <c r="W449" t="n">
+        <v>0</v>
+      </c>
+      <c r="X449" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y449" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z449" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="inlineStr">
+        <is>
+          <t>GGID_E006_敵ヴェロニカ</t>
+        </is>
+      </c>
+      <c r="B450" t="n">
+        <v>0</v>
+      </c>
+      <c r="C450" t="inlineStr"/>
+      <c r="D450" t="inlineStr"/>
+      <c r="E450" t="inlineStr"/>
+      <c r="F450" t="inlineStr"/>
+      <c r="G450" t="inlineStr"/>
+      <c r="H450" t="inlineStr"/>
+      <c r="I450" t="inlineStr"/>
+      <c r="J450" t="inlineStr"/>
+      <c r="K450" t="inlineStr"/>
+      <c r="L450" t="inlineStr"/>
+      <c r="M450" t="inlineStr"/>
+      <c r="N450" t="inlineStr"/>
+      <c r="O450" t="n">
+        <v>0</v>
+      </c>
+      <c r="P450" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q450" t="n">
+        <v>0</v>
+      </c>
+      <c r="R450" t="n">
+        <v>0</v>
+      </c>
+      <c r="S450" t="n">
+        <v>0</v>
+      </c>
+      <c r="T450" t="n">
+        <v>0</v>
+      </c>
+      <c r="U450" t="n">
+        <v>0</v>
+      </c>
+      <c r="V450" t="n">
+        <v>0</v>
+      </c>
+      <c r="W450" t="n">
+        <v>0</v>
+      </c>
+      <c r="X450" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y450" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z450" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="inlineStr">
+        <is>
+          <t>GGID_E006_敵セネリオ</t>
+        </is>
+      </c>
+      <c r="B451" t="n">
+        <v>0</v>
+      </c>
+      <c r="C451" t="inlineStr"/>
+      <c r="D451" t="inlineStr"/>
+      <c r="E451" t="inlineStr"/>
+      <c r="F451" t="inlineStr"/>
+      <c r="G451" t="inlineStr"/>
+      <c r="H451" t="inlineStr"/>
+      <c r="I451" t="inlineStr"/>
+      <c r="J451" t="inlineStr"/>
+      <c r="K451" t="inlineStr"/>
+      <c r="L451" t="inlineStr"/>
+      <c r="M451" t="inlineStr"/>
+      <c r="N451" t="inlineStr"/>
+      <c r="O451" t="n">
+        <v>0</v>
+      </c>
+      <c r="P451" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q451" t="n">
+        <v>0</v>
+      </c>
+      <c r="R451" t="n">
+        <v>0</v>
+      </c>
+      <c r="S451" t="n">
+        <v>0</v>
+      </c>
+      <c r="T451" t="n">
+        <v>0</v>
+      </c>
+      <c r="U451" t="n">
+        <v>0</v>
+      </c>
+      <c r="V451" t="n">
+        <v>0</v>
+      </c>
+      <c r="W451" t="n">
+        <v>0</v>
+      </c>
+      <c r="X451" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y451" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z451" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="inlineStr">
+        <is>
+          <t>GGID_E006_敵カミラ</t>
+        </is>
+      </c>
+      <c r="B452" t="n">
+        <v>0</v>
+      </c>
+      <c r="C452" t="inlineStr"/>
+      <c r="D452" t="inlineStr"/>
+      <c r="E452" t="inlineStr"/>
+      <c r="F452" t="inlineStr"/>
+      <c r="G452" t="inlineStr"/>
+      <c r="H452" t="inlineStr"/>
+      <c r="I452" t="inlineStr"/>
+      <c r="J452" t="inlineStr"/>
+      <c r="K452" t="inlineStr"/>
+      <c r="L452" t="inlineStr"/>
+      <c r="M452" t="inlineStr"/>
+      <c r="N452" t="inlineStr"/>
+      <c r="O452" t="n">
+        <v>0</v>
+      </c>
+      <c r="P452" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q452" t="n">
+        <v>0</v>
+      </c>
+      <c r="R452" t="n">
+        <v>0</v>
+      </c>
+      <c r="S452" t="n">
+        <v>0</v>
+      </c>
+      <c r="T452" t="n">
+        <v>0</v>
+      </c>
+      <c r="U452" t="n">
+        <v>0</v>
+      </c>
+      <c r="V452" t="n">
+        <v>0</v>
+      </c>
+      <c r="W452" t="n">
+        <v>0</v>
+      </c>
+      <c r="X452" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y452" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z452" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="inlineStr">
+        <is>
+          <t>GGID_E006_敵クロム</t>
+        </is>
+      </c>
+      <c r="B453" t="n">
+        <v>0</v>
+      </c>
+      <c r="C453" t="inlineStr"/>
+      <c r="D453" t="inlineStr"/>
+      <c r="E453" t="inlineStr"/>
+      <c r="F453" t="inlineStr"/>
+      <c r="G453" t="inlineStr"/>
+      <c r="H453" t="inlineStr"/>
+      <c r="I453" t="inlineStr"/>
+      <c r="J453" t="inlineStr"/>
+      <c r="K453" t="inlineStr"/>
+      <c r="L453" t="inlineStr"/>
+      <c r="M453" t="inlineStr"/>
+      <c r="N453" t="inlineStr"/>
+      <c r="O453" t="n">
+        <v>0</v>
+      </c>
+      <c r="P453" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q453" t="n">
+        <v>0</v>
+      </c>
+      <c r="R453" t="n">
+        <v>0</v>
+      </c>
+      <c r="S453" t="n">
+        <v>0</v>
+      </c>
+      <c r="T453" t="n">
+        <v>0</v>
+      </c>
+      <c r="U453" t="n">
+        <v>0</v>
+      </c>
+      <c r="V453" t="n">
+        <v>0</v>
+      </c>
+      <c r="W453" t="n">
+        <v>0</v>
+      </c>
+      <c r="X453" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y453" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z453" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="inlineStr">
+        <is>
+          <t>GGID_E006_敵エーデルガルト</t>
+        </is>
+      </c>
+      <c r="B454" t="n">
+        <v>0</v>
+      </c>
+      <c r="C454" t="inlineStr"/>
+      <c r="D454" t="inlineStr"/>
+      <c r="E454" t="inlineStr"/>
+      <c r="F454" t="inlineStr"/>
+      <c r="G454" t="inlineStr"/>
+      <c r="H454" t="inlineStr"/>
+      <c r="I454" t="inlineStr"/>
+      <c r="J454" t="inlineStr"/>
+      <c r="K454" t="inlineStr"/>
+      <c r="L454" t="inlineStr"/>
+      <c r="M454" t="inlineStr"/>
+      <c r="N454" t="inlineStr"/>
+      <c r="O454" t="n">
+        <v>0</v>
+      </c>
+      <c r="P454" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q454" t="n">
+        <v>0</v>
+      </c>
+      <c r="R454" t="n">
+        <v>0</v>
+      </c>
+      <c r="S454" t="n">
+        <v>0</v>
+      </c>
+      <c r="T454" t="n">
+        <v>0</v>
+      </c>
+      <c r="U454" t="n">
+        <v>0</v>
+      </c>
+      <c r="V454" t="n">
+        <v>0</v>
+      </c>
+      <c r="W454" t="n">
+        <v>0</v>
+      </c>
+      <c r="X454" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y454" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z454" t="n">
         <v>0</v>
       </c>
     </row>
